--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/100/Output_3_37.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/100/Output_3_37.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2223959.011629661</v>
+        <v>2352890.620111959</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>18102505.445641</v>
+        <v>16612500.99216495</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1287413.317324959</v>
+        <v>278692.0725916857</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>5185330.929879858</v>
+        <v>5464055.253583111</v>
       </c>
     </row>
     <row r="11">
@@ -656,19 +658,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>22.03657478005869</v>
+        <v>308.3086748172354</v>
       </c>
       <c r="C2" t="n">
-        <v>242.3589329207699</v>
+        <v>33.76104808841092</v>
       </c>
       <c r="D2" t="n">
         <v>31.5506869772999</v>
       </c>
       <c r="E2" t="n">
-        <v>424.2958575201043</v>
+        <v>29.43699739328775</v>
       </c>
       <c r="F2" t="n">
-        <v>423.5887552948843</v>
+        <v>23.58875529488432</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -707,7 +709,7 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
@@ -719,10 +721,10 @@
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>0.8069000430770075</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X2" t="n">
-        <v>14.9510387864824</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y2" t="n">
         <v>404.2032624633431</v>
@@ -814,16 +816,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D4" t="n">
         <v>164.2192128704925</v>
       </c>
       <c r="E4" t="n">
-        <v>37.78159154171565</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F4" t="n">
         <v>174.9399834978613</v>
@@ -835,7 +837,7 @@
         <v>138.5031525665292</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -868,22 +870,22 @@
         <v>157.6489550149833</v>
       </c>
       <c r="T4" t="n">
-        <v>243.4206519573293</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>275.6486707394257</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>269.3061403695714</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>209.5867542297959</v>
       </c>
     </row>
     <row r="5">
@@ -893,19 +895,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>22.03657478005869</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C5" t="n">
-        <v>424.2958575201043</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D5" t="n">
         <v>31.5506869772999</v>
       </c>
       <c r="E5" t="n">
-        <v>424.2958575201043</v>
+        <v>29.43699739328775</v>
       </c>
       <c r="F5" t="n">
-        <v>327.0833327105823</v>
+        <v>23.58875529488432</v>
       </c>
       <c r="G5" t="n">
         <v>397.3838530629687</v>
@@ -956,13 +958,13 @@
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>0.8069000430770075</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X5" t="n">
-        <v>14.9510387864824</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y5" t="n">
-        <v>4.203262463343094</v>
+        <v>292.9592190290609</v>
       </c>
     </row>
     <row r="6">
@@ -1051,7 +1053,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C7" t="n">
         <v>170.8360944016073</v>
@@ -1105,22 +1107,22 @@
         <v>157.6489550149833</v>
       </c>
       <c r="T7" t="n">
-        <v>156.5493496416716</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>242.9378371199217</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>206.2991880762769</v>
       </c>
     </row>
     <row r="8">
@@ -1133,19 +1135,19 @@
         <v>422.0365747800587</v>
       </c>
       <c r="C8" t="n">
-        <v>33.76104808841092</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D8" t="n">
-        <v>424.2958575201043</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E8" t="n">
-        <v>29.43699739328775</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F8" t="n">
-        <v>23.58875529488432</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -1193,13 +1195,13 @@
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>294.3338295374492</v>
+        <v>0.8069000430770075</v>
       </c>
       <c r="X8" t="n">
         <v>14.9510387864824</v>
       </c>
       <c r="Y8" t="n">
-        <v>404.2032624633431</v>
+        <v>36.97715937730158</v>
       </c>
     </row>
     <row r="9">
@@ -1288,13 +1290,13 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>189.9004325317972</v>
+        <v>72.13424985736026</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E10" t="n">
         <v>168.0604237117701</v>
@@ -1339,25 +1341,25 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T10" t="n">
-        <v>157.3362054078818</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U10" t="n">
         <v>275.6486707394257</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W10" t="n">
-        <v>269.3061403695714</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="11">
@@ -1418,22 +1420,22 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>82.81535507800143</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U11" t="n">
         <v>256.6300796561533</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X11" t="n">
-        <v>208.1928846889737</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y11" t="n">
         <v>404.2032624633431</v>
@@ -1528,10 +1530,10 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E13" t="n">
         <v>168.0604237117701</v>
@@ -1543,10 +1545,10 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H13" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>35.75633396116319</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,10 +1575,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>157.6489550149833</v>
+        <v>18.05677735225751</v>
       </c>
       <c r="T13" t="n">
         <v>243.4206519573293</v>
@@ -1607,7 +1609,7 @@
         <v>422.0365747800587</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D14" t="n">
         <v>431.5506869772999</v>
@@ -1616,13 +1618,13 @@
         <v>429.4369973932878</v>
       </c>
       <c r="F14" t="n">
-        <v>273.7347648176894</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I14" t="n">
         <v>0.4126214791313976</v>
@@ -1655,7 +1657,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>82.81535507800136</v>
+        <v>82.81535507800143</v>
       </c>
       <c r="T14" t="n">
         <v>217.8665548556918</v>
@@ -1762,7 +1764,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C16" t="n">
         <v>170.8360944016073</v>
@@ -1774,16 +1776,16 @@
         <v>168.0604237117701</v>
       </c>
       <c r="F16" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>163.9353622244306</v>
       </c>
       <c r="H16" t="n">
-        <v>138.5031525665292</v>
+        <v>35.34780583513515</v>
       </c>
       <c r="I16" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,7 +1812,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>157.6489550149833</v>
@@ -1822,7 +1824,7 @@
         <v>275.6486707394257</v>
       </c>
       <c r="V16" t="n">
-        <v>86.91406253606304</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W16" t="n">
         <v>269.3061403695714</v>
@@ -1862,7 +1864,7 @@
         <v>286.2388530112159</v>
       </c>
       <c r="I17" t="n">
-        <v>0.4126214791325486</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -2017,10 +2019,10 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H19" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2050,13 +2052,13 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>18.05677735225751</v>
       </c>
       <c r="T19" t="n">
         <v>243.4206519573293</v>
       </c>
       <c r="U19" t="n">
-        <v>67.42894579208649</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V19" t="n">
         <v>284.0859530482738</v>
@@ -2099,7 +2101,7 @@
         <v>286.2388530112159</v>
       </c>
       <c r="I20" t="n">
-        <v>0.4126214791313976</v>
+        <v>0.4126214791316623</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2239,7 +2241,7 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C22" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
         <v>164.2192128704925</v>
@@ -2290,7 +2292,7 @@
         <v>157.6489550149833</v>
       </c>
       <c r="T22" t="n">
-        <v>81.49380289235384</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U22" t="n">
         <v>275.6486707394257</v>
@@ -2299,13 +2301,13 @@
         <v>284.0859530482738</v>
       </c>
       <c r="W22" t="n">
-        <v>269.3061403695714</v>
+        <v>53.06991172717014</v>
       </c>
       <c r="X22" t="n">
         <v>242.9378371199217</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="23">
@@ -2476,7 +2478,7 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C25" t="n">
-        <v>59.41244209702454</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D25" t="n">
         <v>164.2192128704925</v>
@@ -2491,10 +2493,10 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H25" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2521,16 +2523,16 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>157.6489550149833</v>
+        <v>18.05677735225751</v>
       </c>
       <c r="T25" t="n">
         <v>243.4206519573293</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V25" t="n">
         <v>284.0859530482738</v>
@@ -2713,10 +2715,10 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E28" t="n">
         <v>168.0604237117701</v>
@@ -2758,10 +2760,10 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>105.6319392430749</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
         <v>243.4206519573293</v>
@@ -2776,7 +2778,7 @@
         <v>269.3061403695714</v>
       </c>
       <c r="X28" t="n">
-        <v>242.9378371199217</v>
+        <v>34.71811217257828</v>
       </c>
       <c r="Y28" t="n">
         <v>225.1454739790328</v>
@@ -2968,7 +2970,7 @@
         <v>138.5031525665292</v>
       </c>
       <c r="I31" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2998,16 +3000,16 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S31" t="n">
-        <v>54.66258501924847</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>243.4206519573293</v>
+        <v>101.7706336613758</v>
       </c>
       <c r="U31" t="n">
         <v>275.6486707394257</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W31" t="n">
         <v>269.3061403695714</v>
@@ -3202,10 +3204,10 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H34" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,19 +3234,19 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>157.6489550149833</v>
+        <v>18.05677735225751</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U34" t="n">
         <v>275.6486707394257</v>
       </c>
       <c r="V34" t="n">
-        <v>140.4342819615944</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W34" t="n">
         <v>269.3061403695714</v>
@@ -3317,7 +3319,7 @@
         <v>82.81535507800136</v>
       </c>
       <c r="T35" t="n">
-        <v>217.8665548556918</v>
+        <v>217.8665548556926</v>
       </c>
       <c r="U35" t="n">
         <v>256.6300796561533</v>
@@ -3442,7 +3444,7 @@
         <v>138.5031525665292</v>
       </c>
       <c r="I37" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,13 +3471,13 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>243.4206519573293</v>
+        <v>122.9742767430576</v>
       </c>
       <c r="U37" t="n">
         <v>275.6486707394257</v>
@@ -3487,10 +3489,10 @@
         <v>269.3061403695714</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y37" t="n">
-        <v>81.01098805494593</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="38">
@@ -3503,25 +3505,25 @@
         <v>422.0365747800587</v>
       </c>
       <c r="C38" t="n">
-        <v>433.7610480884122</v>
+        <v>433.761048088411</v>
       </c>
       <c r="D38" t="n">
-        <v>431.5506869772999</v>
+        <v>431.5506869773</v>
       </c>
       <c r="E38" t="n">
         <v>429.4369973932878</v>
       </c>
       <c r="F38" t="n">
-        <v>423.5887552948843</v>
+        <v>423.5887552948844</v>
       </c>
       <c r="G38" t="n">
-        <v>397.3838530629687</v>
+        <v>397.3838530629688</v>
       </c>
       <c r="H38" t="n">
-        <v>286.2388530112159</v>
+        <v>286.238853011216</v>
       </c>
       <c r="I38" t="n">
-        <v>0.4126214791313976</v>
+        <v>0.4126214791314712</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3551,7 +3553,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>82.81535507800136</v>
+        <v>82.81535507800143</v>
       </c>
       <c r="T38" t="n">
         <v>217.8665548556918</v>
@@ -3560,16 +3562,16 @@
         <v>256.6300796561533</v>
       </c>
       <c r="V38" t="n">
-        <v>358.9907805655117</v>
+        <v>358.9907805655118</v>
       </c>
       <c r="W38" t="n">
-        <v>400.806900043077</v>
+        <v>400.8069000430771</v>
       </c>
       <c r="X38" t="n">
-        <v>414.9510387864824</v>
+        <v>414.9510387864825</v>
       </c>
       <c r="Y38" t="n">
-        <v>404.2032624633431</v>
+        <v>404.2032624633432</v>
       </c>
     </row>
     <row r="39">
@@ -3673,10 +3675,10 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G40" t="n">
-        <v>22.28534392847676</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H40" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3706,10 +3708,10 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>18.05677735225751</v>
       </c>
       <c r="T40" t="n">
         <v>243.4206519573293</v>
@@ -3737,13 +3739,13 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>247.5954807161964</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C41" t="n">
         <v>433.7610480884109</v>
       </c>
       <c r="D41" t="n">
-        <v>0</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E41" t="n">
         <v>429.4369973932878</v>
@@ -3758,7 +3760,7 @@
         <v>286.2388530112159</v>
       </c>
       <c r="I41" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3794,7 +3796,7 @@
         <v>217.8665548556918</v>
       </c>
       <c r="U41" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V41" t="n">
         <v>358.9907805655117</v>
@@ -3806,7 +3808,7 @@
         <v>414.9510387864824</v>
       </c>
       <c r="Y41" t="n">
-        <v>0</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="42">
@@ -3910,7 +3912,7 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G43" t="n">
-        <v>3.139541480023221</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -3943,13 +3945,13 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
         <v>157.6489550149833</v>
       </c>
       <c r="T43" t="n">
-        <v>243.4206519573293</v>
+        <v>103.8284742946034</v>
       </c>
       <c r="U43" t="n">
         <v>275.6486707394257</v>
@@ -3974,13 +3976,13 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C44" t="n">
         <v>433.7610480884109</v>
       </c>
       <c r="D44" t="n">
-        <v>431.5506869772999</v>
+        <v>431.5506869773011</v>
       </c>
       <c r="E44" t="n">
         <v>429.4369973932878</v>
@@ -3989,10 +3991,10 @@
         <v>423.5887552948843</v>
       </c>
       <c r="G44" t="n">
-        <v>242.6247986777961</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I44" t="n">
         <v>0.4126214791313976</v>
@@ -4043,7 +4045,7 @@
         <v>414.9510387864824</v>
       </c>
       <c r="Y44" t="n">
-        <v>0</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="45">
@@ -4132,7 +4134,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>49.17722654850383</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C46" t="n">
         <v>170.8360944016073</v>
@@ -4150,10 +4152,10 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H46" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,7 +4182,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S46" t="n">
         <v>157.6489550149833</v>
@@ -4192,7 +4194,7 @@
         <v>275.6486707394257</v>
       </c>
       <c r="V46" t="n">
-        <v>284.0859530482738</v>
+        <v>123.29013230387</v>
       </c>
       <c r="W46" t="n">
         <v>269.3061403695714</v>
@@ -4201,7 +4203,7 @@
         <v>242.9378371199217</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>225.1454739790288</v>
       </c>
     </row>
   </sheetData>
@@ -4304,16 +4306,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1167.069156190556</v>
+        <v>153.4764845146214</v>
       </c>
       <c r="C2" t="n">
-        <v>922.2621532402836</v>
+        <v>119.3744157384487</v>
       </c>
       <c r="D2" t="n">
-        <v>890.3927724551322</v>
+        <v>87.50503495329731</v>
       </c>
       <c r="E2" t="n">
-        <v>461.8110981924006</v>
+        <v>57.77069415199655</v>
       </c>
       <c r="F2" t="n">
         <v>33.94366860160834</v>
@@ -4337,13 +4339,13 @@
         <v>453.9965675465116</v>
       </c>
       <c r="M2" t="n">
-        <v>687.9235674375537</v>
+        <v>453.9965675465116</v>
       </c>
       <c r="N2" t="n">
-        <v>687.9235674375537</v>
+        <v>453.9965675465116</v>
       </c>
       <c r="O2" t="n">
-        <v>687.9235674375537</v>
+        <v>874.0494664914149</v>
       </c>
       <c r="P2" t="n">
         <v>1107.976466382457</v>
@@ -4355,25 +4357,25 @@
         <v>1697.183430080417</v>
       </c>
       <c r="S2" t="n">
-        <v>1613.531556264254</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="T2" t="n">
-        <v>1613.531556264254</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="U2" t="n">
-        <v>1613.531556264254</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="V2" t="n">
-        <v>1613.531556264254</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="W2" t="n">
-        <v>1612.716505715692</v>
+        <v>1292.327975491451</v>
       </c>
       <c r="X2" t="n">
-        <v>1597.614446335406</v>
+        <v>873.1855120707613</v>
       </c>
       <c r="Y2" t="n">
-        <v>1189.32832263506</v>
+        <v>464.8993883704147</v>
       </c>
     </row>
     <row r="3">
@@ -4386,7 +4388,7 @@
         <v>540.1154135929012</v>
       </c>
       <c r="C3" t="n">
-        <v>433.6589524295435</v>
+        <v>433.6589524295434</v>
       </c>
       <c r="D3" t="n">
         <v>338.5686635760967</v>
@@ -4410,16 +4412,16 @@
         <v>384.5656667282782</v>
       </c>
       <c r="K3" t="n">
-        <v>804.6185656731816</v>
+        <v>739.9048540962709</v>
       </c>
       <c r="L3" t="n">
-        <v>804.6185656731816</v>
+        <v>1159.957753041174</v>
       </c>
       <c r="M3" t="n">
-        <v>804.6185656731816</v>
+        <v>1159.957753041174</v>
       </c>
       <c r="N3" t="n">
-        <v>804.6185656731816</v>
+        <v>1159.957753041174</v>
       </c>
       <c r="O3" t="n">
         <v>1159.957753041174</v>
@@ -4462,25 +4464,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>720.185388501638</v>
+        <v>1113.00182921349</v>
       </c>
       <c r="C4" t="n">
-        <v>720.185388501638</v>
+        <v>940.4401176967148</v>
       </c>
       <c r="D4" t="n">
-        <v>554.3073957031608</v>
+        <v>774.5621248982375</v>
       </c>
       <c r="E4" t="n">
-        <v>516.14417192365</v>
+        <v>604.8041211489747</v>
       </c>
       <c r="F4" t="n">
-        <v>339.4371178854062</v>
+        <v>428.0970671107308</v>
       </c>
       <c r="G4" t="n">
-        <v>173.8458429112338</v>
+        <v>262.5057921365585</v>
       </c>
       <c r="H4" t="n">
-        <v>33.94366860160834</v>
+        <v>122.603617826933</v>
       </c>
       <c r="I4" t="n">
         <v>33.94366860160834</v>
@@ -4492,16 +4494,16 @@
         <v>33.94366860160834</v>
       </c>
       <c r="L4" t="n">
-        <v>89.90148899448771</v>
+        <v>437.4083829648294</v>
       </c>
       <c r="M4" t="n">
-        <v>509.954387939391</v>
+        <v>857.4612819097326</v>
       </c>
       <c r="N4" t="n">
-        <v>930.0072868842942</v>
+        <v>1277.514180854636</v>
       </c>
       <c r="O4" t="n">
-        <v>1349.676536110076</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="P4" t="n">
         <v>1697.183430080417</v>
@@ -4516,22 +4518,22 @@
         <v>1516.524240083786</v>
       </c>
       <c r="T4" t="n">
-        <v>1270.644793662241</v>
+        <v>1516.524240083786</v>
       </c>
       <c r="U4" t="n">
-        <v>992.2117929153466</v>
+        <v>1516.524240083786</v>
       </c>
       <c r="V4" t="n">
-        <v>992.2117929153466</v>
+        <v>1516.524240083786</v>
       </c>
       <c r="W4" t="n">
-        <v>720.185388501638</v>
+        <v>1516.524240083786</v>
       </c>
       <c r="X4" t="n">
-        <v>720.185388501638</v>
+        <v>1516.524240083786</v>
       </c>
       <c r="Y4" t="n">
-        <v>720.185388501638</v>
+        <v>1304.820447932477</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4543,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1654.761434047123</v>
+        <v>975.4034379196303</v>
       </c>
       <c r="C5" t="n">
-        <v>1226.179759784392</v>
+        <v>537.2609651030536</v>
       </c>
       <c r="D5" t="n">
-        <v>1194.31037899924</v>
+        <v>505.3915843179022</v>
       </c>
       <c r="E5" t="n">
-        <v>765.7287047365085</v>
+        <v>475.6572435166014</v>
       </c>
       <c r="F5" t="n">
-        <v>435.3414999783445</v>
+        <v>451.8302179662132</v>
       </c>
       <c r="G5" t="n">
-        <v>33.94366860160834</v>
+        <v>50.43238658947704</v>
       </c>
       <c r="H5" t="n">
-        <v>33.94366860160834</v>
+        <v>50.43238658947704</v>
       </c>
       <c r="I5" t="n">
-        <v>33.94366860160834</v>
+        <v>50.43238658947704</v>
       </c>
       <c r="J5" t="n">
-        <v>453.9965675465116</v>
+        <v>50.43238658947704</v>
       </c>
       <c r="K5" t="n">
-        <v>453.9965675465116</v>
+        <v>50.43238658947704</v>
       </c>
       <c r="L5" t="n">
-        <v>453.9965675465116</v>
+        <v>674.5331706342554</v>
       </c>
       <c r="M5" t="n">
-        <v>453.9965675465116</v>
+        <v>1298.633954679033</v>
       </c>
       <c r="N5" t="n">
-        <v>453.9965675465116</v>
+        <v>1922.734738723812</v>
       </c>
       <c r="O5" t="n">
-        <v>874.0494664914149</v>
+        <v>2521.619329473852</v>
       </c>
       <c r="P5" t="n">
-        <v>1294.102365436318</v>
+        <v>2521.619329473852</v>
       </c>
       <c r="Q5" t="n">
-        <v>1697.183430080417</v>
+        <v>2521.619329473852</v>
       </c>
       <c r="R5" t="n">
-        <v>1697.183430080417</v>
+        <v>2521.619329473852</v>
       </c>
       <c r="S5" t="n">
-        <v>1697.183430080417</v>
+        <v>2521.619329473852</v>
       </c>
       <c r="T5" t="n">
-        <v>1697.183430080417</v>
+        <v>2521.619329473852</v>
       </c>
       <c r="U5" t="n">
-        <v>1697.183430080417</v>
+        <v>2521.619329473852</v>
       </c>
       <c r="V5" t="n">
-        <v>1697.183430080417</v>
+        <v>2521.619329473852</v>
       </c>
       <c r="W5" t="n">
-        <v>1696.368379531855</v>
+        <v>2116.763874884885</v>
       </c>
       <c r="X5" t="n">
-        <v>1681.26632015157</v>
+        <v>1697.621411464196</v>
       </c>
       <c r="Y5" t="n">
-        <v>1677.020600491627</v>
+        <v>1401.703008404538</v>
       </c>
     </row>
     <row r="6">
@@ -4620,76 +4622,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>540.1154135929012</v>
+        <v>556.6041315807698</v>
       </c>
       <c r="C6" t="n">
-        <v>433.6589524295434</v>
+        <v>450.1476704174121</v>
       </c>
       <c r="D6" t="n">
-        <v>338.5686635760967</v>
+        <v>355.0573815639654</v>
       </c>
       <c r="E6" t="n">
-        <v>244.4482489030504</v>
+        <v>260.9369668909191</v>
       </c>
       <c r="F6" t="n">
-        <v>161.064410519212</v>
+        <v>177.5531285070807</v>
       </c>
       <c r="G6" t="n">
-        <v>75.67932078539589</v>
+        <v>92.16803877326457</v>
       </c>
       <c r="H6" t="n">
-        <v>33.94366860160836</v>
+        <v>50.43238658947704</v>
       </c>
       <c r="I6" t="n">
-        <v>33.94366860160836</v>
+        <v>76.49605974993464</v>
       </c>
       <c r="J6" t="n">
-        <v>358.5019935678207</v>
+        <v>401.054384716147</v>
       </c>
       <c r="K6" t="n">
-        <v>358.5019935678207</v>
+        <v>465.4705799787295</v>
       </c>
       <c r="L6" t="n">
-        <v>358.5019935678207</v>
+        <v>465.4705799787295</v>
       </c>
       <c r="M6" t="n">
-        <v>358.5019935678207</v>
+        <v>465.4705799787295</v>
       </c>
       <c r="N6" t="n">
-        <v>358.5019935678207</v>
+        <v>1089.571364023508</v>
       </c>
       <c r="O6" t="n">
-        <v>778.554892512724</v>
+        <v>1713.672148068286</v>
       </c>
       <c r="P6" t="n">
-        <v>1159.957753041174</v>
+        <v>1713.672148068286</v>
       </c>
       <c r="Q6" t="n">
-        <v>1580.010651986078</v>
+        <v>1713.672148068286</v>
       </c>
       <c r="R6" t="n">
-        <v>1697.183430080417</v>
+        <v>1713.672148068286</v>
       </c>
       <c r="S6" t="n">
-        <v>1633.7279925288</v>
+        <v>1650.216710516669</v>
       </c>
       <c r="T6" t="n">
-        <v>1503.549348859402</v>
+        <v>1520.038066847271</v>
       </c>
       <c r="U6" t="n">
-        <v>1327.21280185937</v>
+        <v>1343.701519847239</v>
       </c>
       <c r="V6" t="n">
-        <v>1128.09528392137</v>
+        <v>1144.584001909238</v>
       </c>
       <c r="W6" t="n">
-        <v>942.7725296545636</v>
+        <v>959.2612476424322</v>
       </c>
       <c r="X6" t="n">
-        <v>787.9050938934436</v>
+        <v>804.3938118813122</v>
       </c>
       <c r="Y6" t="n">
-        <v>661.4193146726643</v>
+        <v>677.908032660533</v>
       </c>
     </row>
     <row r="7">
@@ -4699,76 +4701,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>1113.00182921349</v>
+        <v>1129.490547201358</v>
       </c>
       <c r="C7" t="n">
-        <v>940.4401176967148</v>
+        <v>956.9288356845833</v>
       </c>
       <c r="D7" t="n">
-        <v>774.5621248982375</v>
+        <v>791.050842886106</v>
       </c>
       <c r="E7" t="n">
-        <v>604.8041211489747</v>
+        <v>621.2928391368433</v>
       </c>
       <c r="F7" t="n">
-        <v>428.0970671107308</v>
+        <v>444.5857850985995</v>
       </c>
       <c r="G7" t="n">
-        <v>262.5057921365585</v>
+        <v>278.9945101244272</v>
       </c>
       <c r="H7" t="n">
-        <v>122.603617826933</v>
+        <v>139.0923358148017</v>
       </c>
       <c r="I7" t="n">
-        <v>33.94366860160834</v>
+        <v>50.43238658947704</v>
       </c>
       <c r="J7" t="n">
-        <v>33.94366860160834</v>
+        <v>137.0120717541669</v>
       </c>
       <c r="K7" t="n">
-        <v>269.215608100497</v>
+        <v>411.7705263253025</v>
       </c>
       <c r="L7" t="n">
-        <v>269.215608100497</v>
+        <v>829.9804080932636</v>
       </c>
       <c r="M7" t="n">
-        <v>689.2685070454004</v>
+        <v>1143.991608255752</v>
       </c>
       <c r="N7" t="n">
-        <v>1109.321405990304</v>
+        <v>1586.250411413396</v>
       </c>
       <c r="O7" t="n">
-        <v>1528.990655216085</v>
+        <v>2005.919660639178</v>
       </c>
       <c r="P7" t="n">
-        <v>1528.990655216085</v>
+        <v>2353.42655460952</v>
       </c>
       <c r="Q7" t="n">
-        <v>1697.183430080417</v>
+        <v>2521.619329473852</v>
       </c>
       <c r="R7" t="n">
-        <v>1675.765608785789</v>
+        <v>2500.201508179224</v>
       </c>
       <c r="S7" t="n">
-        <v>1516.524240083786</v>
+        <v>2340.96013947722</v>
       </c>
       <c r="T7" t="n">
-        <v>1358.393583880077</v>
+        <v>2095.080693055676</v>
       </c>
       <c r="U7" t="n">
-        <v>1358.393583880077</v>
+        <v>1816.647692308781</v>
       </c>
       <c r="V7" t="n">
-        <v>1358.393583880077</v>
+        <v>1529.692184179211</v>
       </c>
       <c r="W7" t="n">
-        <v>1358.393583880077</v>
+        <v>1529.692184179211</v>
       </c>
       <c r="X7" t="n">
-        <v>1113.00182921349</v>
+        <v>1529.692184179211</v>
       </c>
       <c r="Y7" t="n">
-        <v>1113.00182921349</v>
+        <v>1321.309165920346</v>
       </c>
     </row>
     <row r="8">
@@ -4778,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>550.1887779922017</v>
+        <v>2190.493479979994</v>
       </c>
       <c r="C8" t="n">
-        <v>516.086709216029</v>
+        <v>1752.351007163417</v>
       </c>
       <c r="D8" t="n">
-        <v>87.50503495329731</v>
+        <v>1316.441222337862</v>
       </c>
       <c r="E8" t="n">
-        <v>57.77069415199655</v>
+        <v>882.6664774961569</v>
       </c>
       <c r="F8" t="n">
-        <v>33.94366860160834</v>
+        <v>454.7990479053647</v>
       </c>
       <c r="G8" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="H8" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I8" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J8" t="n">
-        <v>453.9965675465116</v>
+        <v>488.6559039815464</v>
       </c>
       <c r="K8" t="n">
-        <v>874.0494664914149</v>
+        <v>1149.495958523325</v>
       </c>
       <c r="L8" t="n">
-        <v>874.0494664914149</v>
+        <v>1293.567921177998</v>
       </c>
       <c r="M8" t="n">
-        <v>874.0494664914149</v>
+        <v>1293.567921177998</v>
       </c>
       <c r="N8" t="n">
-        <v>874.0494664914149</v>
+        <v>1293.567921177998</v>
       </c>
       <c r="O8" t="n">
-        <v>874.0494664914149</v>
+        <v>1293.567921177998</v>
       </c>
       <c r="P8" t="n">
-        <v>1294.102365436318</v>
+        <v>1954.407975719776</v>
       </c>
       <c r="Q8" t="n">
-        <v>1528.02936532736</v>
+        <v>2500.906761678371</v>
       </c>
       <c r="R8" t="n">
-        <v>1697.183430080417</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="S8" t="n">
-        <v>1697.183430080417</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="T8" t="n">
-        <v>1697.183430080417</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="U8" t="n">
-        <v>1697.183430080417</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="V8" t="n">
-        <v>1697.183430080417</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="W8" t="n">
-        <v>1399.876531557741</v>
+        <v>2669.245775882865</v>
       </c>
       <c r="X8" t="n">
-        <v>1384.774472177456</v>
+        <v>2654.14371650258</v>
       </c>
       <c r="Y8" t="n">
-        <v>976.4883484771095</v>
+        <v>2616.793050464902</v>
       </c>
     </row>
     <row r="9">
@@ -4857,76 +4859,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>540.1154135929012</v>
+        <v>559.5729615199214</v>
       </c>
       <c r="C9" t="n">
-        <v>433.6589524295434</v>
+        <v>453.1165003565636</v>
       </c>
       <c r="D9" t="n">
-        <v>338.5686635760967</v>
+        <v>358.0262115031169</v>
       </c>
       <c r="E9" t="n">
-        <v>244.4482489030504</v>
+        <v>263.9057968300706</v>
       </c>
       <c r="F9" t="n">
-        <v>161.064410519212</v>
+        <v>180.5219584462322</v>
       </c>
       <c r="G9" t="n">
-        <v>75.67932078539587</v>
+        <v>95.13686871241609</v>
       </c>
       <c r="H9" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I9" t="n">
-        <v>33.94366860160834</v>
+        <v>79.46488968908616</v>
       </c>
       <c r="J9" t="n">
-        <v>358.5019935678207</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="K9" t="n">
-        <v>358.5019935678207</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="L9" t="n">
-        <v>358.5019935678207</v>
+        <v>1064.863269197077</v>
       </c>
       <c r="M9" t="n">
-        <v>778.554892512724</v>
+        <v>1064.863269197077</v>
       </c>
       <c r="N9" t="n">
-        <v>778.554892512724</v>
+        <v>1064.863269197077</v>
       </c>
       <c r="O9" t="n">
-        <v>1198.607791457627</v>
+        <v>1064.863269197077</v>
       </c>
       <c r="P9" t="n">
-        <v>1198.607791457627</v>
+        <v>1064.863269197077</v>
       </c>
       <c r="Q9" t="n">
-        <v>1580.010651986078</v>
+        <v>1599.468199913098</v>
       </c>
       <c r="R9" t="n">
-        <v>1697.183430080417</v>
+        <v>1716.640978007438</v>
       </c>
       <c r="S9" t="n">
-        <v>1633.7279925288</v>
+        <v>1653.185540455821</v>
       </c>
       <c r="T9" t="n">
-        <v>1503.549348859402</v>
+        <v>1523.006896786422</v>
       </c>
       <c r="U9" t="n">
-        <v>1327.21280185937</v>
+        <v>1346.67034978639</v>
       </c>
       <c r="V9" t="n">
-        <v>1128.09528392137</v>
+        <v>1147.55283184839</v>
       </c>
       <c r="W9" t="n">
-        <v>942.7725296545636</v>
+        <v>962.2300775815838</v>
       </c>
       <c r="X9" t="n">
-        <v>787.9050938934436</v>
+        <v>807.3626418204638</v>
       </c>
       <c r="Y9" t="n">
-        <v>661.4193146726643</v>
+        <v>680.8768625996845</v>
       </c>
     </row>
     <row r="10">
@@ -4936,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>774.5621248982375</v>
+        <v>1132.45937714051</v>
       </c>
       <c r="C10" t="n">
-        <v>774.5621248982375</v>
+        <v>959.897665623735</v>
       </c>
       <c r="D10" t="n">
-        <v>774.5621248982375</v>
+        <v>794.0196728252577</v>
       </c>
       <c r="E10" t="n">
-        <v>604.8041211489747</v>
+        <v>624.2616690759949</v>
       </c>
       <c r="F10" t="n">
-        <v>428.0970671107308</v>
+        <v>447.554615037751</v>
       </c>
       <c r="G10" t="n">
-        <v>262.5057921365585</v>
+        <v>281.9633400635787</v>
       </c>
       <c r="H10" t="n">
-        <v>122.603617826933</v>
+        <v>142.0611657539532</v>
       </c>
       <c r="I10" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J10" t="n">
-        <v>33.94366860160834</v>
+        <v>139.9809016933184</v>
       </c>
       <c r="K10" t="n">
-        <v>308.7021231727439</v>
+        <v>414.739356264454</v>
       </c>
       <c r="L10" t="n">
-        <v>726.9120049407049</v>
+        <v>832.9492380324151</v>
       </c>
       <c r="M10" t="n">
-        <v>1146.964903885608</v>
+        <v>1292.433105213328</v>
       </c>
       <c r="N10" t="n">
-        <v>1146.964903885608</v>
+        <v>1734.691908370973</v>
       </c>
       <c r="O10" t="n">
-        <v>1181.483761245743</v>
+        <v>2154.361157596754</v>
       </c>
       <c r="P10" t="n">
-        <v>1528.990655216085</v>
+        <v>2501.868051567096</v>
       </c>
       <c r="Q10" t="n">
-        <v>1697.183430080417</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="R10" t="n">
-        <v>1675.765608785789</v>
+        <v>2648.6430051368</v>
       </c>
       <c r="S10" t="n">
-        <v>1675.765608785789</v>
+        <v>2489.401636434797</v>
       </c>
       <c r="T10" t="n">
-        <v>1516.840148777828</v>
+        <v>2243.522190013252</v>
       </c>
       <c r="U10" t="n">
-        <v>1238.407148030933</v>
+        <v>1965.089189266357</v>
       </c>
       <c r="V10" t="n">
-        <v>1238.407148030933</v>
+        <v>1678.133681136788</v>
       </c>
       <c r="W10" t="n">
-        <v>966.3807436172247</v>
+        <v>1678.133681136788</v>
       </c>
       <c r="X10" t="n">
-        <v>966.3807436172247</v>
+        <v>1432.7419264702</v>
       </c>
       <c r="Y10" t="n">
-        <v>966.3807436172247</v>
+        <v>1205.322255784308</v>
       </c>
     </row>
     <row r="11">
@@ -5015,76 +5017,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2502.77682059263</v>
+        <v>2528.900047651789</v>
       </c>
       <c r="C11" t="n">
-        <v>2064.634347776053</v>
+        <v>2090.757574835212</v>
       </c>
       <c r="D11" t="n">
-        <v>1628.724562950498</v>
+        <v>1654.847790009657</v>
       </c>
       <c r="E11" t="n">
-        <v>1194.949818108793</v>
+        <v>1221.073045167952</v>
       </c>
       <c r="F11" t="n">
-        <v>767.0823885180007</v>
+        <v>793.2056155771595</v>
       </c>
       <c r="G11" t="n">
-        <v>365.6845571412646</v>
+        <v>391.8077842004233</v>
       </c>
       <c r="H11" t="n">
-        <v>76.55440258448085</v>
+        <v>102.6776296436396</v>
       </c>
       <c r="I11" t="n">
-        <v>76.13761321162086</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J11" t="n">
-        <v>511.3923006645387</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="K11" t="n">
-        <v>1345.742592622717</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="L11" t="n">
-        <v>1345.742592622717</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="M11" t="n">
-        <v>1345.742592622717</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="N11" t="n">
-        <v>1345.742592622717</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="O11" t="n">
-        <v>2262.917935035995</v>
+        <v>3569.079287993933</v>
       </c>
       <c r="P11" t="n">
-        <v>3091.227809869392</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q11" t="n">
-        <v>3637.726595827986</v>
+        <v>4943.887948785924</v>
       </c>
       <c r="R11" t="n">
-        <v>3806.880660581043</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="S11" t="n">
-        <v>3806.880660581043</v>
+        <v>5029.390139722817</v>
       </c>
       <c r="T11" t="n">
-        <v>3806.880660581043</v>
+        <v>4809.322912595856</v>
       </c>
       <c r="U11" t="n">
-        <v>3547.65835789806</v>
+        <v>4550.100609912873</v>
       </c>
       <c r="V11" t="n">
-        <v>3547.65835789806</v>
+        <v>4187.483659846699</v>
       </c>
       <c r="W11" t="n">
-        <v>3547.65835789806</v>
+        <v>3782.628205257732</v>
       </c>
       <c r="X11" t="n">
-        <v>3337.362514777884</v>
+        <v>3363.485741837043</v>
       </c>
       <c r="Y11" t="n">
-        <v>2929.076391077538</v>
+        <v>2955.199618136696</v>
       </c>
     </row>
     <row r="12">
@@ -5094,76 +5096,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>582.3093582029137</v>
+        <v>608.4325852620724</v>
       </c>
       <c r="C12" t="n">
-        <v>475.852897039556</v>
+        <v>501.9761240987147</v>
       </c>
       <c r="D12" t="n">
-        <v>380.7626081861092</v>
+        <v>406.885835245268</v>
       </c>
       <c r="E12" t="n">
-        <v>286.6421935130629</v>
+        <v>312.7654205722217</v>
       </c>
       <c r="F12" t="n">
-        <v>203.2583551292245</v>
+        <v>229.3815821883833</v>
       </c>
       <c r="G12" t="n">
-        <v>117.8732653954084</v>
+        <v>143.9964924545671</v>
       </c>
       <c r="H12" t="n">
-        <v>76.13761321162086</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I12" t="n">
-        <v>102.2012863720785</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J12" t="n">
-        <v>426.7596113382908</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="K12" t="n">
-        <v>426.7596113382908</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="L12" t="n">
-        <v>426.7596113382908</v>
+        <v>1056.803889081883</v>
       </c>
       <c r="M12" t="n">
-        <v>680.001633102282</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="N12" t="n">
-        <v>1622.20459659609</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="O12" t="n">
-        <v>1622.20459659609</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="P12" t="n">
-        <v>1622.20459659609</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="Q12" t="n">
-        <v>1622.20459659609</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="R12" t="n">
-        <v>1739.37737469043</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="S12" t="n">
-        <v>1675.921937138813</v>
+        <v>1702.045164197971</v>
       </c>
       <c r="T12" t="n">
-        <v>1545.743293469415</v>
+        <v>1571.866520528573</v>
       </c>
       <c r="U12" t="n">
-        <v>1369.406746469383</v>
+        <v>1395.529973528541</v>
       </c>
       <c r="V12" t="n">
-        <v>1170.289228531382</v>
+        <v>1196.412455590541</v>
       </c>
       <c r="W12" t="n">
-        <v>984.9664742645762</v>
+        <v>1011.089701323735</v>
       </c>
       <c r="X12" t="n">
-        <v>830.0990385034561</v>
+        <v>856.2222655626148</v>
       </c>
       <c r="Y12" t="n">
-        <v>703.6132592826768</v>
+        <v>729.7364863418355</v>
       </c>
     </row>
     <row r="13">
@@ -5173,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>764.2136293346052</v>
+        <v>952.7568773477108</v>
       </c>
       <c r="C13" t="n">
-        <v>764.2136293346052</v>
+        <v>780.1951658309357</v>
       </c>
       <c r="D13" t="n">
-        <v>764.2136293346052</v>
+        <v>614.3171730324584</v>
       </c>
       <c r="E13" t="n">
-        <v>594.4556255853424</v>
+        <v>444.5591692831957</v>
       </c>
       <c r="F13" t="n">
-        <v>417.7485715470987</v>
+        <v>267.852115244952</v>
       </c>
       <c r="G13" t="n">
-        <v>252.1572965729263</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="H13" t="n">
-        <v>112.2551222633008</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I13" t="n">
-        <v>76.13761321162086</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J13" t="n">
-        <v>162.7172983763107</v>
+        <v>188.8405254354695</v>
       </c>
       <c r="K13" t="n">
-        <v>437.4757529474463</v>
+        <v>463.598980006605</v>
       </c>
       <c r="L13" t="n">
-        <v>855.6856347154073</v>
+        <v>881.8088617745661</v>
       </c>
       <c r="M13" t="n">
-        <v>1315.16950189632</v>
+        <v>1341.292728955479</v>
       </c>
       <c r="N13" t="n">
-        <v>1757.428305053965</v>
+        <v>1783.551532113124</v>
       </c>
       <c r="O13" t="n">
-        <v>2177.097554279746</v>
+        <v>2203.220781338905</v>
       </c>
       <c r="P13" t="n">
-        <v>2524.604448250088</v>
+        <v>2550.727675309247</v>
       </c>
       <c r="Q13" t="n">
-        <v>2692.797223114421</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="R13" t="n">
-        <v>2671.379401819793</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="S13" t="n">
-        <v>2512.138033117789</v>
+        <v>2700.681281130895</v>
       </c>
       <c r="T13" t="n">
-        <v>2266.258586696244</v>
+        <v>2454.80183470935</v>
       </c>
       <c r="U13" t="n">
-        <v>1987.82558594935</v>
+        <v>2176.368833962455</v>
       </c>
       <c r="V13" t="n">
-        <v>1700.87007781978</v>
+        <v>1889.413325832886</v>
       </c>
       <c r="W13" t="n">
-        <v>1428.843673406072</v>
+        <v>1617.386921419177</v>
       </c>
       <c r="X13" t="n">
-        <v>1183.451918739484</v>
+        <v>1371.99516675259</v>
       </c>
       <c r="Y13" t="n">
-        <v>956.0322480535924</v>
+        <v>1144.575496066698</v>
       </c>
     </row>
     <row r="14">
@@ -5252,76 +5254,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1222.738694693852</v>
+        <v>2528.900047651789</v>
       </c>
       <c r="C14" t="n">
-        <v>1222.738694693852</v>
+        <v>2090.757574835212</v>
       </c>
       <c r="D14" t="n">
-        <v>786.8289098682963</v>
+        <v>1654.847790009657</v>
       </c>
       <c r="E14" t="n">
-        <v>353.0541650265914</v>
+        <v>1221.073045167952</v>
       </c>
       <c r="F14" t="n">
-        <v>76.55440258448085</v>
+        <v>793.2056155771595</v>
       </c>
       <c r="G14" t="n">
-        <v>76.55440258448085</v>
+        <v>391.8077842004233</v>
       </c>
       <c r="H14" t="n">
-        <v>76.55440258448085</v>
+        <v>102.6776296436396</v>
       </c>
       <c r="I14" t="n">
-        <v>76.13761321162086</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J14" t="n">
-        <v>511.3923006645387</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="K14" t="n">
-        <v>1345.742592622717</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="L14" t="n">
-        <v>1345.742592622717</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="M14" t="n">
-        <v>1345.742592622717</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="N14" t="n">
-        <v>1345.742592622717</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="O14" t="n">
-        <v>2262.917935035995</v>
+        <v>3569.079287993933</v>
       </c>
       <c r="P14" t="n">
-        <v>3091.227809869392</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q14" t="n">
-        <v>3637.726595827986</v>
+        <v>4943.887948785924</v>
       </c>
       <c r="R14" t="n">
-        <v>3806.880660581043</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="S14" t="n">
-        <v>3723.22878676488</v>
+        <v>5029.390139722817</v>
       </c>
       <c r="T14" t="n">
-        <v>3503.161559637919</v>
+        <v>4809.322912595856</v>
       </c>
       <c r="U14" t="n">
-        <v>3243.939256954935</v>
+        <v>4550.100609912873</v>
       </c>
       <c r="V14" t="n">
-        <v>2881.322306888762</v>
+        <v>4187.483659846699</v>
       </c>
       <c r="W14" t="n">
-        <v>2476.466852299795</v>
+        <v>3782.628205257732</v>
       </c>
       <c r="X14" t="n">
-        <v>2057.324388879106</v>
+        <v>3363.485741837043</v>
       </c>
       <c r="Y14" t="n">
-        <v>1649.03826517876</v>
+        <v>2955.199618136696</v>
       </c>
     </row>
     <row r="15">
@@ -5331,76 +5333,76 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>582.3093582029137</v>
+        <v>608.4325852620724</v>
       </c>
       <c r="C15" t="n">
-        <v>475.852897039556</v>
+        <v>501.9761240987147</v>
       </c>
       <c r="D15" t="n">
-        <v>380.7626081861092</v>
+        <v>406.885835245268</v>
       </c>
       <c r="E15" t="n">
-        <v>286.6421935130629</v>
+        <v>312.7654205722217</v>
       </c>
       <c r="F15" t="n">
-        <v>203.2583551292245</v>
+        <v>229.3815821883833</v>
       </c>
       <c r="G15" t="n">
-        <v>117.8732653954084</v>
+        <v>143.9964924545671</v>
       </c>
       <c r="H15" t="n">
-        <v>76.13761321162086</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I15" t="n">
-        <v>102.2012863720785</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J15" t="n">
-        <v>426.7596113382908</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K15" t="n">
-        <v>426.7596113382908</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="L15" t="n">
-        <v>426.7596113382908</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="M15" t="n">
-        <v>426.7596113382908</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="N15" t="n">
-        <v>426.7596113382908</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="O15" t="n">
-        <v>426.7596113382908</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="P15" t="n">
-        <v>1081.465657964015</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q15" t="n">
-        <v>1622.20459659609</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R15" t="n">
-        <v>1739.37737469043</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="S15" t="n">
-        <v>1675.921937138813</v>
+        <v>1702.045164197971</v>
       </c>
       <c r="T15" t="n">
-        <v>1545.743293469415</v>
+        <v>1571.866520528573</v>
       </c>
       <c r="U15" t="n">
-        <v>1369.406746469383</v>
+        <v>1395.529973528541</v>
       </c>
       <c r="V15" t="n">
-        <v>1170.289228531382</v>
+        <v>1196.412455590541</v>
       </c>
       <c r="W15" t="n">
-        <v>984.9664742645762</v>
+        <v>1011.089701323735</v>
       </c>
       <c r="X15" t="n">
-        <v>830.0990385034561</v>
+        <v>856.2222655626148</v>
       </c>
       <c r="Y15" t="n">
-        <v>703.6132592826768</v>
+        <v>729.7364863418355</v>
       </c>
     </row>
     <row r="16">
@@ -5410,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1155.195773823502</v>
+        <v>811.7546776883914</v>
       </c>
       <c r="C16" t="n">
-        <v>982.6340623067273</v>
+        <v>639.1929661716164</v>
       </c>
       <c r="D16" t="n">
-        <v>816.75606950825</v>
+        <v>473.3149733731391</v>
       </c>
       <c r="E16" t="n">
-        <v>646.9980657589872</v>
+        <v>303.5569696238763</v>
       </c>
       <c r="F16" t="n">
-        <v>470.2910117207434</v>
+        <v>303.5569696238763</v>
       </c>
       <c r="G16" t="n">
-        <v>304.699736746571</v>
+        <v>137.965694649704</v>
       </c>
       <c r="H16" t="n">
-        <v>164.7975624369455</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I16" t="n">
-        <v>76.13761321162086</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J16" t="n">
-        <v>162.7172983763107</v>
+        <v>188.8405254354695</v>
       </c>
       <c r="K16" t="n">
-        <v>437.4757529474463</v>
+        <v>463.598980006605</v>
       </c>
       <c r="L16" t="n">
-        <v>855.6856347154073</v>
+        <v>881.8088617745661</v>
       </c>
       <c r="M16" t="n">
-        <v>1315.16950189632</v>
+        <v>1341.292728955479</v>
       </c>
       <c r="N16" t="n">
-        <v>1757.428305053965</v>
+        <v>1783.551532113124</v>
       </c>
       <c r="O16" t="n">
-        <v>2177.097554279746</v>
+        <v>2203.220781338905</v>
       </c>
       <c r="P16" t="n">
-        <v>2524.604448250088</v>
+        <v>2550.727675309247</v>
       </c>
       <c r="Q16" t="n">
-        <v>2692.797223114421</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="R16" t="n">
-        <v>2671.379401819793</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="S16" t="n">
-        <v>2512.138033117789</v>
+        <v>2559.679081471576</v>
       </c>
       <c r="T16" t="n">
-        <v>2266.258586696244</v>
+        <v>2313.799635050031</v>
       </c>
       <c r="U16" t="n">
-        <v>1987.82558594935</v>
+        <v>2035.366634303136</v>
       </c>
       <c r="V16" t="n">
-        <v>1900.03360358969</v>
+        <v>1748.411126173566</v>
       </c>
       <c r="W16" t="n">
-        <v>1628.007199175982</v>
+        <v>1476.384721759858</v>
       </c>
       <c r="X16" t="n">
-        <v>1382.615444509394</v>
+        <v>1230.99296709327</v>
       </c>
       <c r="Y16" t="n">
-        <v>1155.195773823502</v>
+        <v>1003.573296407379</v>
       </c>
     </row>
     <row r="17">
@@ -5489,25 +5491,25 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2528.90004765179</v>
+        <v>2528.900047651789</v>
       </c>
       <c r="C17" t="n">
-        <v>2090.757574835213</v>
+        <v>2090.757574835212</v>
       </c>
       <c r="D17" t="n">
-        <v>1654.847790009658</v>
+        <v>1654.847790009657</v>
       </c>
       <c r="E17" t="n">
-        <v>1221.073045167953</v>
+        <v>1221.073045167952</v>
       </c>
       <c r="F17" t="n">
-        <v>793.2056155771606</v>
+        <v>793.2056155771597</v>
       </c>
       <c r="G17" t="n">
-        <v>391.8077842004245</v>
+        <v>391.8077842004236</v>
       </c>
       <c r="H17" t="n">
-        <v>102.6776296436408</v>
+        <v>102.6776296436396</v>
       </c>
       <c r="I17" t="n">
         <v>102.2608402707796</v>
@@ -5525,40 +5527,40 @@
         <v>2446.925785934734</v>
       </c>
       <c r="N17" t="n">
-        <v>3569.079287993934</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="O17" t="n">
-        <v>3569.079287993934</v>
+        <v>3569.079287993933</v>
       </c>
       <c r="P17" t="n">
         <v>4397.38916282733</v>
       </c>
       <c r="Q17" t="n">
-        <v>4943.887948785925</v>
+        <v>4943.887948785924</v>
       </c>
       <c r="R17" t="n">
-        <v>5113.042013538981</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="S17" t="n">
-        <v>5029.390139722818</v>
+        <v>5029.390139722817</v>
       </c>
       <c r="T17" t="n">
-        <v>4809.322912595857</v>
+        <v>4809.322912595856</v>
       </c>
       <c r="U17" t="n">
-        <v>4550.100609912874</v>
+        <v>4550.100609912873</v>
       </c>
       <c r="V17" t="n">
-        <v>4187.4836598467</v>
+        <v>4187.483659846699</v>
       </c>
       <c r="W17" t="n">
         <v>3782.628205257733</v>
       </c>
       <c r="X17" t="n">
-        <v>3363.485741837044</v>
+        <v>3363.485741837043</v>
       </c>
       <c r="Y17" t="n">
-        <v>2955.199618136698</v>
+        <v>2955.199618136697</v>
       </c>
     </row>
     <row r="18">
@@ -5595,22 +5597,22 @@
         <v>452.8828383974496</v>
       </c>
       <c r="K18" t="n">
-        <v>1133.616358467827</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="L18" t="n">
-        <v>1648.327823655249</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="M18" t="n">
-        <v>1648.327823655249</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="N18" t="n">
-        <v>1648.327823655249</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="O18" t="n">
-        <v>1648.327823655249</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="P18" t="n">
-        <v>1648.327823655249</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q18" t="n">
         <v>1648.327823655249</v>
@@ -5647,25 +5649,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>1181.319000882661</v>
+        <v>952.7568773477108</v>
       </c>
       <c r="C19" t="n">
-        <v>1008.757289365886</v>
+        <v>780.1951658309357</v>
       </c>
       <c r="D19" t="n">
-        <v>842.8792965674086</v>
+        <v>614.3171730324584</v>
       </c>
       <c r="E19" t="n">
-        <v>673.1212928181459</v>
+        <v>444.5591692831957</v>
       </c>
       <c r="F19" t="n">
-        <v>496.4142387799021</v>
+        <v>267.852115244952</v>
       </c>
       <c r="G19" t="n">
-        <v>330.8229638057298</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="H19" t="n">
-        <v>190.9207894961043</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I19" t="n">
         <v>102.2608402707796</v>
@@ -5683,40 +5685,40 @@
         <v>1341.292728955479</v>
       </c>
       <c r="N19" t="n">
-        <v>1783.551532113127</v>
+        <v>1783.551532113124</v>
       </c>
       <c r="O19" t="n">
-        <v>2203.220781338909</v>
+        <v>2203.220781338905</v>
       </c>
       <c r="P19" t="n">
-        <v>2550.727675309251</v>
+        <v>2550.727675309247</v>
       </c>
       <c r="Q19" t="n">
-        <v>2718.920450173583</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="R19" t="n">
-        <v>2718.920450173583</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="S19" t="n">
-        <v>2718.920450173583</v>
+        <v>2700.681281130895</v>
       </c>
       <c r="T19" t="n">
-        <v>2473.041003752038</v>
+        <v>2454.80183470935</v>
       </c>
       <c r="U19" t="n">
-        <v>2404.930957497405</v>
+        <v>2176.368833962455</v>
       </c>
       <c r="V19" t="n">
-        <v>2117.975449367836</v>
+        <v>1889.413325832886</v>
       </c>
       <c r="W19" t="n">
-        <v>1845.949044954127</v>
+        <v>1617.386921419177</v>
       </c>
       <c r="X19" t="n">
-        <v>1600.55729028754</v>
+        <v>1371.99516675259</v>
       </c>
       <c r="Y19" t="n">
-        <v>1373.137619601648</v>
+        <v>1144.575496066698</v>
       </c>
     </row>
     <row r="20">
@@ -5741,10 +5743,10 @@
         <v>793.2056155771597</v>
       </c>
       <c r="G20" t="n">
-        <v>391.8077842004232</v>
+        <v>391.8077842004236</v>
       </c>
       <c r="H20" t="n">
-        <v>102.6776296436396</v>
+        <v>102.6776296436399</v>
       </c>
       <c r="I20" t="n">
         <v>102.2608402707796</v>
@@ -5753,28 +5755,28 @@
         <v>102.2608402707796</v>
       </c>
       <c r="K20" t="n">
-        <v>936.6111322289576</v>
+        <v>775.0235620688169</v>
       </c>
       <c r="L20" t="n">
-        <v>1286.300469346936</v>
+        <v>1850.083528321676</v>
       </c>
       <c r="M20" t="n">
-        <v>2443.348304557487</v>
+        <v>3007.131363532227</v>
       </c>
       <c r="N20" t="n">
-        <v>3569.079287993934</v>
+        <v>4132.862346968674</v>
       </c>
       <c r="O20" t="n">
-        <v>3569.079287993934</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="P20" t="n">
-        <v>4397.38916282733</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="Q20" t="n">
-        <v>4943.887948785925</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="R20" t="n">
-        <v>5113.042013538981</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="S20" t="n">
         <v>5029.390139722817</v>
@@ -5835,10 +5837,10 @@
         <v>102.2608402707796</v>
       </c>
       <c r="L21" t="n">
-        <v>751.6989919312866</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="M21" t="n">
-        <v>751.6989919312866</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="N21" t="n">
         <v>751.6989919312866</v>
@@ -5884,7 +5886,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>1181.319000882661</v>
+        <v>1008.757289365886</v>
       </c>
       <c r="C22" t="n">
         <v>1008.757289365886</v>
@@ -5899,7 +5901,7 @@
         <v>496.4142387799021</v>
       </c>
       <c r="G22" t="n">
-        <v>330.8229638057298</v>
+        <v>330.8229638057297</v>
       </c>
       <c r="H22" t="n">
         <v>190.9207894961043</v>
@@ -5938,22 +5940,22 @@
         <v>2538.261260176947</v>
       </c>
       <c r="T22" t="n">
-        <v>2455.944287558408</v>
+        <v>2292.381813755403</v>
       </c>
       <c r="U22" t="n">
-        <v>2177.511286811513</v>
+        <v>2013.948813008508</v>
       </c>
       <c r="V22" t="n">
-        <v>1890.555778681944</v>
+        <v>1726.993304878938</v>
       </c>
       <c r="W22" t="n">
-        <v>1618.529374268236</v>
+        <v>1673.387333437352</v>
       </c>
       <c r="X22" t="n">
-        <v>1373.137619601648</v>
+        <v>1427.995578770765</v>
       </c>
       <c r="Y22" t="n">
-        <v>1373.137619601648</v>
+        <v>1200.575908084873</v>
       </c>
     </row>
     <row r="23">
@@ -5975,40 +5977,40 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F23" t="n">
-        <v>793.2056155771597</v>
+        <v>793.2056155771594</v>
       </c>
       <c r="G23" t="n">
-        <v>391.8077842004232</v>
+        <v>391.8077842004234</v>
       </c>
       <c r="H23" t="n">
-        <v>102.6776296436392</v>
+        <v>102.6776296436396</v>
       </c>
       <c r="I23" t="n">
         <v>102.2608402707796</v>
       </c>
       <c r="J23" t="n">
-        <v>102.2608402707796</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="K23" t="n">
-        <v>525.9458847132731</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="L23" t="n">
-        <v>1601.005850966132</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="M23" t="n">
-        <v>2758.053686176683</v>
+        <v>1463.16863798718</v>
       </c>
       <c r="N23" t="n">
-        <v>2758.053686176683</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="O23" t="n">
-        <v>3738.23335274699</v>
+        <v>3569.079287993933</v>
       </c>
       <c r="P23" t="n">
-        <v>4566.543227580386</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q23" t="n">
-        <v>5113.04201353898</v>
+        <v>4943.887948785924</v>
       </c>
       <c r="R23" t="n">
         <v>5113.04201353898</v>
@@ -6026,13 +6028,13 @@
         <v>4187.483659846699</v>
       </c>
       <c r="W23" t="n">
-        <v>3782.628205257733</v>
+        <v>3782.628205257732</v>
       </c>
       <c r="X23" t="n">
         <v>3363.485741837043</v>
       </c>
       <c r="Y23" t="n">
-        <v>2955.199618136697</v>
+        <v>2955.199618136696</v>
       </c>
     </row>
     <row r="24">
@@ -6069,22 +6071,22 @@
         <v>102.2608402707796</v>
       </c>
       <c r="K24" t="n">
-        <v>102.2608402707796</v>
+        <v>405.0384966383147</v>
       </c>
       <c r="L24" t="n">
-        <v>102.2608402707796</v>
+        <v>405.0384966383147</v>
       </c>
       <c r="M24" t="n">
-        <v>531.6733301892817</v>
+        <v>405.0384966383147</v>
       </c>
       <c r="N24" t="n">
-        <v>1765.500601749588</v>
+        <v>405.0384966383147</v>
       </c>
       <c r="O24" t="n">
-        <v>1765.500601749588</v>
+        <v>405.0384966383147</v>
       </c>
       <c r="P24" t="n">
-        <v>1765.500601749588</v>
+        <v>1224.761663117513</v>
       </c>
       <c r="Q24" t="n">
         <v>1765.500601749588</v>
@@ -6121,25 +6123,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>1068.769857140658</v>
+        <v>952.7568773477108</v>
       </c>
       <c r="C25" t="n">
-        <v>1008.757289365886</v>
+        <v>780.1951658309357</v>
       </c>
       <c r="D25" t="n">
-        <v>842.8792965674086</v>
+        <v>614.3171730324584</v>
       </c>
       <c r="E25" t="n">
-        <v>673.1212928181459</v>
+        <v>444.5591692831957</v>
       </c>
       <c r="F25" t="n">
-        <v>496.4142387799021</v>
+        <v>267.852115244952</v>
       </c>
       <c r="G25" t="n">
-        <v>330.8229638057298</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="H25" t="n">
-        <v>190.9207894961043</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I25" t="n">
         <v>102.2608402707796</v>
@@ -6169,28 +6171,28 @@
         <v>2718.920450173579</v>
       </c>
       <c r="R25" t="n">
-        <v>2697.502628878951</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="S25" t="n">
-        <v>2538.261260176947</v>
+        <v>2700.681281130895</v>
       </c>
       <c r="T25" t="n">
-        <v>2292.381813755403</v>
+        <v>2454.80183470935</v>
       </c>
       <c r="U25" t="n">
-        <v>2292.381813755403</v>
+        <v>2176.368833962455</v>
       </c>
       <c r="V25" t="n">
-        <v>2005.426305625833</v>
+        <v>1889.413325832886</v>
       </c>
       <c r="W25" t="n">
-        <v>1733.399901212125</v>
+        <v>1617.386921419177</v>
       </c>
       <c r="X25" t="n">
-        <v>1488.008146545537</v>
+        <v>1371.99516675259</v>
       </c>
       <c r="Y25" t="n">
-        <v>1260.588475859645</v>
+        <v>1144.575496066698</v>
       </c>
     </row>
     <row r="26">
@@ -6206,13 +6208,13 @@
         <v>2090.757574835212</v>
       </c>
       <c r="D26" t="n">
-        <v>1654.847790009656</v>
+        <v>1654.847790009657</v>
       </c>
       <c r="E26" t="n">
-        <v>1221.073045167951</v>
+        <v>1221.073045167952</v>
       </c>
       <c r="F26" t="n">
-        <v>793.2056155771593</v>
+        <v>793.2056155771595</v>
       </c>
       <c r="G26" t="n">
         <v>391.8077842004234</v>
@@ -6233,19 +6235,19 @@
         <v>1371.865819681875</v>
       </c>
       <c r="M26" t="n">
-        <v>2528.913654892426</v>
+        <v>1463.16863798718</v>
       </c>
       <c r="N26" t="n">
-        <v>3654.644638328873</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="O26" t="n">
-        <v>3738.23335274699</v>
+        <v>3569.079287993933</v>
       </c>
       <c r="P26" t="n">
-        <v>4566.543227580386</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q26" t="n">
-        <v>5113.04201353898</v>
+        <v>4943.887948785924</v>
       </c>
       <c r="R26" t="n">
         <v>5113.04201353898</v>
@@ -6263,7 +6265,7 @@
         <v>4187.483659846699</v>
       </c>
       <c r="W26" t="n">
-        <v>3782.628205257733</v>
+        <v>3782.628205257732</v>
       </c>
       <c r="X26" t="n">
         <v>3363.485741837043</v>
@@ -6279,76 +6281,76 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>608.4325852620724</v>
+        <v>3955.973997051466</v>
       </c>
       <c r="C27" t="n">
-        <v>501.9761240987147</v>
+        <v>3849.517535888108</v>
       </c>
       <c r="D27" t="n">
-        <v>406.885835245268</v>
+        <v>3754.427247034661</v>
       </c>
       <c r="E27" t="n">
-        <v>312.7654205722217</v>
+        <v>3660.306832361615</v>
       </c>
       <c r="F27" t="n">
-        <v>229.3815821883833</v>
+        <v>3576.922993977777</v>
       </c>
       <c r="G27" t="n">
-        <v>143.9964924545671</v>
+        <v>3491.53790424396</v>
       </c>
       <c r="H27" t="n">
-        <v>102.2608402707796</v>
+        <v>3449.802252060173</v>
       </c>
       <c r="I27" t="n">
-        <v>102.2608402707796</v>
+        <v>3475.865925220631</v>
       </c>
       <c r="J27" t="n">
-        <v>426.819165236992</v>
+        <v>3800.424250186843</v>
       </c>
       <c r="K27" t="n">
-        <v>426.819165236992</v>
+        <v>4455.130296812566</v>
       </c>
       <c r="L27" t="n">
-        <v>426.819165236992</v>
+        <v>4455.130296812566</v>
       </c>
       <c r="M27" t="n">
-        <v>426.819165236992</v>
+        <v>4455.130296812566</v>
       </c>
       <c r="N27" t="n">
-        <v>426.819165236992</v>
+        <v>4455.130296812566</v>
       </c>
       <c r="O27" t="n">
-        <v>426.819165236992</v>
+        <v>4455.130296812566</v>
       </c>
       <c r="P27" t="n">
-        <v>1246.54233171619</v>
+        <v>4455.130296812566</v>
       </c>
       <c r="Q27" t="n">
-        <v>1648.327823655249</v>
+        <v>4995.869235444641</v>
       </c>
       <c r="R27" t="n">
-        <v>1765.500601749588</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="S27" t="n">
-        <v>1702.045164197971</v>
+        <v>5049.586575987364</v>
       </c>
       <c r="T27" t="n">
-        <v>1571.866520528573</v>
+        <v>4919.407932317966</v>
       </c>
       <c r="U27" t="n">
-        <v>1395.529973528541</v>
+        <v>4743.071385317934</v>
       </c>
       <c r="V27" t="n">
-        <v>1196.412455590541</v>
+        <v>4543.953867379933</v>
       </c>
       <c r="W27" t="n">
-        <v>1011.089701323735</v>
+        <v>4358.631113113128</v>
       </c>
       <c r="X27" t="n">
-        <v>856.2222655626148</v>
+        <v>4203.763677352008</v>
       </c>
       <c r="Y27" t="n">
-        <v>729.7364863418355</v>
+        <v>4077.277898131229</v>
       </c>
     </row>
     <row r="28">
@@ -6358,10 +6360,10 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>842.8792965674086</v>
+        <v>1181.319000882661</v>
       </c>
       <c r="C28" t="n">
-        <v>842.8792965674086</v>
+        <v>1008.757289365886</v>
       </c>
       <c r="D28" t="n">
         <v>842.8792965674086</v>
@@ -6373,7 +6375,7 @@
         <v>496.4142387799021</v>
       </c>
       <c r="G28" t="n">
-        <v>330.8229638057297</v>
+        <v>330.8229638057298</v>
       </c>
       <c r="H28" t="n">
         <v>190.9207894961043</v>
@@ -6406,28 +6408,28 @@
         <v>2718.920450173579</v>
       </c>
       <c r="R28" t="n">
-        <v>2697.502628878951</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="S28" t="n">
-        <v>2590.803700350592</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="T28" t="n">
-        <v>2344.924253929048</v>
+        <v>2473.041003752034</v>
       </c>
       <c r="U28" t="n">
-        <v>2066.491253182153</v>
+        <v>2194.608003005139</v>
       </c>
       <c r="V28" t="n">
-        <v>1779.535745052583</v>
+        <v>1907.65249487557</v>
       </c>
       <c r="W28" t="n">
-        <v>1507.509340638875</v>
+        <v>1635.626090461861</v>
       </c>
       <c r="X28" t="n">
-        <v>1262.117585972288</v>
+        <v>1600.55729028754</v>
       </c>
       <c r="Y28" t="n">
-        <v>1034.697915286396</v>
+        <v>1373.137619601648</v>
       </c>
     </row>
     <row r="29">
@@ -6449,40 +6451,40 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F29" t="n">
-        <v>793.2056155771597</v>
+        <v>793.2056155771595</v>
       </c>
       <c r="G29" t="n">
-        <v>391.8077842004232</v>
+        <v>391.8077842004234</v>
       </c>
       <c r="H29" t="n">
-        <v>102.6776296436392</v>
+        <v>102.6776296436396</v>
       </c>
       <c r="I29" t="n">
         <v>102.2608402707796</v>
       </c>
       <c r="J29" t="n">
-        <v>537.5155277236975</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="K29" t="n">
-        <v>1371.865819681875</v>
+        <v>936.6111322289576</v>
       </c>
       <c r="L29" t="n">
-        <v>2443.348304557486</v>
+        <v>2011.671098481817</v>
       </c>
       <c r="M29" t="n">
-        <v>2443.348304557486</v>
+        <v>3168.718933692368</v>
       </c>
       <c r="N29" t="n">
-        <v>3569.079287993933</v>
+        <v>3168.718933692368</v>
       </c>
       <c r="O29" t="n">
-        <v>3569.079287993933</v>
+        <v>3738.23335274699</v>
       </c>
       <c r="P29" t="n">
-        <v>4397.38916282733</v>
+        <v>4566.543227580386</v>
       </c>
       <c r="Q29" t="n">
-        <v>4943.887948785924</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="R29" t="n">
         <v>5113.04201353898</v>
@@ -6516,76 +6518,76 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>3955.973997051466</v>
+        <v>608.4325852620724</v>
       </c>
       <c r="C30" t="n">
-        <v>3849.517535888108</v>
+        <v>501.9761240987147</v>
       </c>
       <c r="D30" t="n">
-        <v>3754.427247034661</v>
+        <v>406.885835245268</v>
       </c>
       <c r="E30" t="n">
-        <v>3660.306832361615</v>
+        <v>312.7654205722217</v>
       </c>
       <c r="F30" t="n">
-        <v>3576.922993977777</v>
+        <v>229.3815821883833</v>
       </c>
       <c r="G30" t="n">
-        <v>3491.53790424396</v>
+        <v>143.9964924545671</v>
       </c>
       <c r="H30" t="n">
-        <v>3449.802252060173</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I30" t="n">
-        <v>3475.865925220631</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J30" t="n">
-        <v>3800.424250186843</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="K30" t="n">
-        <v>4455.130296812566</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="L30" t="n">
-        <v>4455.130296812566</v>
+        <v>1056.803889081883</v>
       </c>
       <c r="M30" t="n">
-        <v>4455.130296812566</v>
+        <v>1056.803889081883</v>
       </c>
       <c r="N30" t="n">
-        <v>4455.130296812566</v>
+        <v>1056.803889081883</v>
       </c>
       <c r="O30" t="n">
-        <v>4455.130296812566</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="P30" t="n">
-        <v>4455.130296812566</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="Q30" t="n">
-        <v>4995.869235444641</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="R30" t="n">
-        <v>5113.042013538981</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="S30" t="n">
-        <v>5049.586575987364</v>
+        <v>1702.045164197971</v>
       </c>
       <c r="T30" t="n">
-        <v>4919.407932317966</v>
+        <v>1571.866520528573</v>
       </c>
       <c r="U30" t="n">
-        <v>4743.071385317934</v>
+        <v>1395.529973528541</v>
       </c>
       <c r="V30" t="n">
-        <v>4543.953867379933</v>
+        <v>1196.412455590541</v>
       </c>
       <c r="W30" t="n">
-        <v>4358.631113113128</v>
+        <v>1011.089701323735</v>
       </c>
       <c r="X30" t="n">
-        <v>4203.763677352008</v>
+        <v>856.2222655626148</v>
       </c>
       <c r="Y30" t="n">
-        <v>4077.277898131229</v>
+        <v>729.7364863418355</v>
       </c>
     </row>
     <row r="31">
@@ -6595,25 +6597,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>1181.319000882661</v>
+        <v>1092.659051657336</v>
       </c>
       <c r="C31" t="n">
-        <v>1008.757289365886</v>
+        <v>920.0973401405612</v>
       </c>
       <c r="D31" t="n">
-        <v>842.8792965674086</v>
+        <v>754.2193473420839</v>
       </c>
       <c r="E31" t="n">
-        <v>673.1212928181459</v>
+        <v>584.4613435928212</v>
       </c>
       <c r="F31" t="n">
-        <v>496.4142387799021</v>
+        <v>407.7542895545774</v>
       </c>
       <c r="G31" t="n">
-        <v>330.8229638057298</v>
+        <v>242.1630145804051</v>
       </c>
       <c r="H31" t="n">
-        <v>190.9207894961043</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I31" t="n">
         <v>102.2608402707796</v>
@@ -6646,25 +6648,25 @@
         <v>2697.502628878951</v>
       </c>
       <c r="S31" t="n">
-        <v>2642.287896536276</v>
+        <v>2697.502628878951</v>
       </c>
       <c r="T31" t="n">
-        <v>2396.408450114731</v>
+        <v>2594.704009018975</v>
       </c>
       <c r="U31" t="n">
-        <v>2117.975449367836</v>
+        <v>2316.271008272081</v>
       </c>
       <c r="V31" t="n">
-        <v>2117.975449367836</v>
+        <v>2029.315500142511</v>
       </c>
       <c r="W31" t="n">
-        <v>1845.949044954127</v>
+        <v>1757.289095728803</v>
       </c>
       <c r="X31" t="n">
-        <v>1600.55729028754</v>
+        <v>1511.897341062215</v>
       </c>
       <c r="Y31" t="n">
-        <v>1373.137619601648</v>
+        <v>1284.477670376323</v>
       </c>
     </row>
     <row r="32">
@@ -6686,40 +6688,40 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F32" t="n">
-        <v>793.2056155771597</v>
+        <v>793.2056155771595</v>
       </c>
       <c r="G32" t="n">
-        <v>391.8077842004232</v>
+        <v>391.8077842004234</v>
       </c>
       <c r="H32" t="n">
-        <v>102.6776296436392</v>
+        <v>102.6776296436396</v>
       </c>
       <c r="I32" t="n">
         <v>102.2608402707796</v>
       </c>
       <c r="J32" t="n">
-        <v>537.5155277236975</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="K32" t="n">
-        <v>537.5155277236975</v>
+        <v>936.6111322289576</v>
       </c>
       <c r="L32" t="n">
-        <v>537.5155277236975</v>
+        <v>2011.671098481817</v>
       </c>
       <c r="M32" t="n">
-        <v>1694.563362934248</v>
+        <v>3168.718933692368</v>
       </c>
       <c r="N32" t="n">
-        <v>2588.899621423627</v>
+        <v>4294.449917128814</v>
       </c>
       <c r="O32" t="n">
-        <v>3569.079287993933</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="P32" t="n">
-        <v>4397.38916282733</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="Q32" t="n">
-        <v>4943.887948785924</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="R32" t="n">
         <v>5113.04201353898</v>
@@ -6737,13 +6739,13 @@
         <v>4187.483659846699</v>
       </c>
       <c r="W32" t="n">
-        <v>3782.628205257733</v>
+        <v>3782.628205257732</v>
       </c>
       <c r="X32" t="n">
         <v>3363.485741837043</v>
       </c>
       <c r="Y32" t="n">
-        <v>2955.199618136697</v>
+        <v>2955.199618136696</v>
       </c>
     </row>
     <row r="33">
@@ -6753,76 +6755,76 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>3955.973997051466</v>
+        <v>608.4325852620724</v>
       </c>
       <c r="C33" t="n">
-        <v>3849.517535888108</v>
+        <v>501.9761240987147</v>
       </c>
       <c r="D33" t="n">
-        <v>3754.427247034661</v>
+        <v>406.885835245268</v>
       </c>
       <c r="E33" t="n">
-        <v>3660.306832361615</v>
+        <v>312.7654205722217</v>
       </c>
       <c r="F33" t="n">
-        <v>3576.922993977777</v>
+        <v>229.3815821883833</v>
       </c>
       <c r="G33" t="n">
-        <v>3491.53790424396</v>
+        <v>143.9964924545671</v>
       </c>
       <c r="H33" t="n">
-        <v>3449.802252060173</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I33" t="n">
-        <v>3475.865925220631</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J33" t="n">
-        <v>3800.424250186843</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K33" t="n">
-        <v>3800.424250186843</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L33" t="n">
-        <v>3800.424250186843</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M33" t="n">
-        <v>3800.424250186843</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N33" t="n">
-        <v>3800.424250186843</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O33" t="n">
-        <v>3800.424250186843</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P33" t="n">
-        <v>4455.130296812566</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q33" t="n">
-        <v>4995.869235444641</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R33" t="n">
-        <v>5113.042013538981</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="S33" t="n">
-        <v>5049.586575987364</v>
+        <v>1702.045164197971</v>
       </c>
       <c r="T33" t="n">
-        <v>4919.407932317966</v>
+        <v>1571.866520528573</v>
       </c>
       <c r="U33" t="n">
-        <v>4743.071385317934</v>
+        <v>1395.529973528541</v>
       </c>
       <c r="V33" t="n">
-        <v>4543.953867379933</v>
+        <v>1196.412455590541</v>
       </c>
       <c r="W33" t="n">
-        <v>4358.631113113128</v>
+        <v>1011.089701323735</v>
       </c>
       <c r="X33" t="n">
-        <v>4203.763677352008</v>
+        <v>856.2222655626148</v>
       </c>
       <c r="Y33" t="n">
-        <v>4077.277898131229</v>
+        <v>729.7364863418355</v>
       </c>
     </row>
     <row r="34">
@@ -6832,25 +6834,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>1181.319000882661</v>
+        <v>952.7568773477108</v>
       </c>
       <c r="C34" t="n">
-        <v>1008.757289365886</v>
+        <v>780.1951658309357</v>
       </c>
       <c r="D34" t="n">
-        <v>842.8792965674086</v>
+        <v>614.3171730324584</v>
       </c>
       <c r="E34" t="n">
-        <v>673.1212928181459</v>
+        <v>444.5591692831957</v>
       </c>
       <c r="F34" t="n">
-        <v>496.4142387799021</v>
+        <v>267.852115244952</v>
       </c>
       <c r="G34" t="n">
-        <v>330.8229638057298</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="H34" t="n">
-        <v>190.9207894961043</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I34" t="n">
         <v>102.2608402707796</v>
@@ -6880,28 +6882,28 @@
         <v>2718.920450173579</v>
       </c>
       <c r="R34" t="n">
-        <v>2697.502628878951</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="S34" t="n">
-        <v>2538.261260176947</v>
+        <v>2700.681281130895</v>
       </c>
       <c r="T34" t="n">
-        <v>2538.261260176947</v>
+        <v>2454.80183470935</v>
       </c>
       <c r="U34" t="n">
-        <v>2259.828259430053</v>
+        <v>2176.368833962455</v>
       </c>
       <c r="V34" t="n">
-        <v>2117.975449367836</v>
+        <v>1889.413325832886</v>
       </c>
       <c r="W34" t="n">
-        <v>1845.949044954127</v>
+        <v>1617.386921419177</v>
       </c>
       <c r="X34" t="n">
-        <v>1600.55729028754</v>
+        <v>1371.99516675259</v>
       </c>
       <c r="Y34" t="n">
-        <v>1373.137619601648</v>
+        <v>1144.575496066698</v>
       </c>
     </row>
     <row r="35">
@@ -6923,10 +6925,10 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F35" t="n">
-        <v>793.2056155771597</v>
+        <v>793.2056155771595</v>
       </c>
       <c r="G35" t="n">
-        <v>391.8077842004232</v>
+        <v>391.8077842004234</v>
       </c>
       <c r="H35" t="n">
         <v>102.6776296436396</v>
@@ -6935,34 +6937,34 @@
         <v>102.2608402707796</v>
       </c>
       <c r="J35" t="n">
-        <v>537.5155277236975</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="K35" t="n">
-        <v>1371.865819681875</v>
+        <v>775.0235620688178</v>
       </c>
       <c r="L35" t="n">
-        <v>2446.925785934734</v>
+        <v>1850.083528321677</v>
       </c>
       <c r="M35" t="n">
-        <v>2446.925785934734</v>
+        <v>3007.131363532228</v>
       </c>
       <c r="N35" t="n">
-        <v>2588.899621423628</v>
+        <v>4132.862346968675</v>
       </c>
       <c r="O35" t="n">
-        <v>3569.079287993934</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="P35" t="n">
-        <v>4397.38916282733</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="Q35" t="n">
-        <v>4943.887948785925</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="R35" t="n">
         <v>5113.042013538981</v>
       </c>
       <c r="S35" t="n">
-        <v>5029.390139722817</v>
+        <v>5029.390139722818</v>
       </c>
       <c r="T35" t="n">
         <v>4809.322912595856</v>
@@ -6974,13 +6976,13 @@
         <v>4187.483659846699</v>
       </c>
       <c r="W35" t="n">
-        <v>3782.628205257733</v>
+        <v>3782.628205257732</v>
       </c>
       <c r="X35" t="n">
         <v>3363.485741837043</v>
       </c>
       <c r="Y35" t="n">
-        <v>2955.199618136697</v>
+        <v>2955.199618136696</v>
       </c>
     </row>
     <row r="36">
@@ -6990,76 +6992,76 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>3955.973997051466</v>
+        <v>608.4325852620724</v>
       </c>
       <c r="C36" t="n">
-        <v>3849.517535888108</v>
+        <v>501.9761240987147</v>
       </c>
       <c r="D36" t="n">
-        <v>3754.427247034661</v>
+        <v>406.885835245268</v>
       </c>
       <c r="E36" t="n">
-        <v>3660.306832361615</v>
+        <v>312.7654205722217</v>
       </c>
       <c r="F36" t="n">
-        <v>3576.922993977777</v>
+        <v>229.3815821883833</v>
       </c>
       <c r="G36" t="n">
-        <v>3491.53790424396</v>
+        <v>143.9964924545671</v>
       </c>
       <c r="H36" t="n">
-        <v>3449.802252060173</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I36" t="n">
-        <v>3475.865925220631</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J36" t="n">
-        <v>3800.424250186843</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="K36" t="n">
-        <v>4455.130296812566</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="L36" t="n">
-        <v>4455.130296812566</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="M36" t="n">
-        <v>4455.130296812566</v>
+        <v>531.6733301892817</v>
       </c>
       <c r="N36" t="n">
-        <v>4455.130296812566</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="O36" t="n">
-        <v>4455.130296812566</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="P36" t="n">
-        <v>4455.130296812566</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="Q36" t="n">
-        <v>4995.869235444641</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="R36" t="n">
-        <v>5113.042013538981</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="S36" t="n">
-        <v>5049.586575987364</v>
+        <v>1702.045164197971</v>
       </c>
       <c r="T36" t="n">
-        <v>4919.407932317966</v>
+        <v>1571.866520528573</v>
       </c>
       <c r="U36" t="n">
-        <v>4743.071385317934</v>
+        <v>1395.529973528541</v>
       </c>
       <c r="V36" t="n">
-        <v>4543.953867379933</v>
+        <v>1196.412455590541</v>
       </c>
       <c r="W36" t="n">
-        <v>4358.631113113128</v>
+        <v>1011.089701323735</v>
       </c>
       <c r="X36" t="n">
-        <v>4203.763677352008</v>
+        <v>856.2222655626148</v>
       </c>
       <c r="Y36" t="n">
-        <v>4077.277898131229</v>
+        <v>729.7364863418355</v>
       </c>
     </row>
     <row r="37">
@@ -7069,25 +7071,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>1181.319000882661</v>
+        <v>1092.659051657336</v>
       </c>
       <c r="C37" t="n">
-        <v>1008.757289365886</v>
+        <v>920.0973401405612</v>
       </c>
       <c r="D37" t="n">
-        <v>842.8792965674086</v>
+        <v>754.2193473420839</v>
       </c>
       <c r="E37" t="n">
-        <v>673.1212928181459</v>
+        <v>584.4613435928212</v>
       </c>
       <c r="F37" t="n">
-        <v>496.4142387799021</v>
+        <v>407.7542895545774</v>
       </c>
       <c r="G37" t="n">
-        <v>330.8229638057298</v>
+        <v>242.1630145804051</v>
       </c>
       <c r="H37" t="n">
-        <v>190.9207894961043</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I37" t="n">
         <v>102.2608402707796</v>
@@ -7117,28 +7119,28 @@
         <v>2718.920450173579</v>
       </c>
       <c r="R37" t="n">
-        <v>2697.502628878951</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="S37" t="n">
-        <v>2538.261260176947</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="T37" t="n">
-        <v>2292.381813755403</v>
+        <v>2594.704009018975</v>
       </c>
       <c r="U37" t="n">
-        <v>2013.948813008508</v>
+        <v>2316.271008272081</v>
       </c>
       <c r="V37" t="n">
-        <v>1726.993304878938</v>
+        <v>2029.315500142511</v>
       </c>
       <c r="W37" t="n">
-        <v>1454.96690046523</v>
+        <v>1757.289095728803</v>
       </c>
       <c r="X37" t="n">
-        <v>1454.96690046523</v>
+        <v>1511.897341062215</v>
       </c>
       <c r="Y37" t="n">
-        <v>1373.137619601648</v>
+        <v>1284.477670376323</v>
       </c>
     </row>
     <row r="38">
@@ -7148,10 +7150,10 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2528.90004765179</v>
+        <v>2528.900047651789</v>
       </c>
       <c r="C38" t="n">
-        <v>2090.757574835212</v>
+        <v>2090.757574835213</v>
       </c>
       <c r="D38" t="n">
         <v>1654.847790009657</v>
@@ -7160,40 +7162,40 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F38" t="n">
-        <v>793.2056155771595</v>
+        <v>793.2056155771597</v>
       </c>
       <c r="G38" t="n">
-        <v>391.8077842004234</v>
+        <v>391.8077842004236</v>
       </c>
       <c r="H38" t="n">
-        <v>102.6776296436396</v>
+        <v>102.6776296436397</v>
       </c>
       <c r="I38" t="n">
         <v>102.2608402707796</v>
       </c>
       <c r="J38" t="n">
-        <v>102.2608402707796</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="K38" t="n">
-        <v>936.6111322289576</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="L38" t="n">
-        <v>2011.671098481817</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="M38" t="n">
-        <v>3168.718933692368</v>
+        <v>2612.502369310544</v>
       </c>
       <c r="N38" t="n">
-        <v>4294.449917128814</v>
+        <v>3738.23335274699</v>
       </c>
       <c r="O38" t="n">
-        <v>4943.887948785925</v>
+        <v>3738.23335274699</v>
       </c>
       <c r="P38" t="n">
-        <v>4943.887948785925</v>
+        <v>4566.543227580387</v>
       </c>
       <c r="Q38" t="n">
-        <v>4943.887948785925</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="R38" t="n">
         <v>5113.042013538981</v>
@@ -7217,7 +7219,7 @@
         <v>3363.485741837044</v>
       </c>
       <c r="Y38" t="n">
-        <v>2955.199618136698</v>
+        <v>2955.199618136697</v>
       </c>
     </row>
     <row r="39">
@@ -7248,31 +7250,31 @@
         <v>102.2608402707796</v>
       </c>
       <c r="I39" t="n">
-        <v>128.3245134312372</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J39" t="n">
-        <v>452.8828383974496</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="K39" t="n">
-        <v>1107.588885023173</v>
+        <v>782.9943603411569</v>
       </c>
       <c r="L39" t="n">
-        <v>1107.588885023173</v>
+        <v>1224.761663117513</v>
       </c>
       <c r="M39" t="n">
-        <v>1107.588885023173</v>
+        <v>1224.761663117513</v>
       </c>
       <c r="N39" t="n">
-        <v>1107.588885023173</v>
+        <v>1224.761663117513</v>
       </c>
       <c r="O39" t="n">
-        <v>1107.588885023173</v>
+        <v>1224.761663117513</v>
       </c>
       <c r="P39" t="n">
-        <v>1107.588885023173</v>
+        <v>1224.761663117513</v>
       </c>
       <c r="Q39" t="n">
-        <v>1648.327823655249</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="R39" t="n">
         <v>1765.500601749588</v>
@@ -7306,22 +7308,22 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>949.5782250957668</v>
+        <v>952.7568773477108</v>
       </c>
       <c r="C40" t="n">
-        <v>777.0165135789917</v>
+        <v>780.1951658309357</v>
       </c>
       <c r="D40" t="n">
-        <v>611.1385207805145</v>
+        <v>614.3171730324584</v>
       </c>
       <c r="E40" t="n">
-        <v>441.3805170312517</v>
+        <v>444.5591692831957</v>
       </c>
       <c r="F40" t="n">
-        <v>264.6734629930079</v>
+        <v>267.852115244952</v>
       </c>
       <c r="G40" t="n">
-        <v>242.1630145804051</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="H40" t="n">
         <v>102.2608402707796</v>
@@ -7354,28 +7356,28 @@
         <v>2718.920450173579</v>
       </c>
       <c r="R40" t="n">
-        <v>2697.502628878951</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="S40" t="n">
-        <v>2697.502628878951</v>
+        <v>2700.681281130895</v>
       </c>
       <c r="T40" t="n">
-        <v>2451.623182457406</v>
+        <v>2454.80183470935</v>
       </c>
       <c r="U40" t="n">
-        <v>2173.190181710511</v>
+        <v>2176.368833962455</v>
       </c>
       <c r="V40" t="n">
-        <v>1886.234673580942</v>
+        <v>1889.413325832886</v>
       </c>
       <c r="W40" t="n">
-        <v>1614.208269167233</v>
+        <v>1617.386921419177</v>
       </c>
       <c r="X40" t="n">
-        <v>1368.816514500646</v>
+        <v>1371.99516675259</v>
       </c>
       <c r="Y40" t="n">
-        <v>1141.396843814754</v>
+        <v>1144.575496066698</v>
       </c>
     </row>
     <row r="41">
@@ -7385,76 +7387,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2066.450246394214</v>
+        <v>2528.900047651789</v>
       </c>
       <c r="C41" t="n">
-        <v>1628.307773577638</v>
+        <v>2090.757574835212</v>
       </c>
       <c r="D41" t="n">
-        <v>1628.307773577638</v>
+        <v>1654.847790009657</v>
       </c>
       <c r="E41" t="n">
-        <v>1194.533028735933</v>
+        <v>1221.073045167952</v>
       </c>
       <c r="F41" t="n">
-        <v>766.6655991451407</v>
+        <v>793.2056155771595</v>
       </c>
       <c r="G41" t="n">
-        <v>365.2677677684046</v>
+        <v>391.8077842004234</v>
       </c>
       <c r="H41" t="n">
-        <v>76.13761321162086</v>
+        <v>102.6776296436396</v>
       </c>
       <c r="I41" t="n">
-        <v>76.13761321162086</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J41" t="n">
-        <v>378.5120080483794</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="K41" t="n">
-        <v>378.5120080483794</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="L41" t="n">
-        <v>378.5120080483794</v>
+        <v>1612.575493976557</v>
       </c>
       <c r="M41" t="n">
-        <v>378.5120080483794</v>
+        <v>2769.623329187108</v>
       </c>
       <c r="N41" t="n">
-        <v>1320.714971542188</v>
+        <v>3895.354312623555</v>
       </c>
       <c r="O41" t="n">
-        <v>2262.917935035995</v>
+        <v>3895.354312623555</v>
       </c>
       <c r="P41" t="n">
-        <v>3091.227809869392</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q41" t="n">
-        <v>3637.726595827986</v>
+        <v>4943.887948785924</v>
       </c>
       <c r="R41" t="n">
-        <v>3806.880660581043</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="S41" t="n">
-        <v>3723.22878676488</v>
+        <v>5029.390139722817</v>
       </c>
       <c r="T41" t="n">
-        <v>3503.161559637919</v>
+        <v>4809.322912595856</v>
       </c>
       <c r="U41" t="n">
-        <v>3503.161559637919</v>
+        <v>4550.100609912873</v>
       </c>
       <c r="V41" t="n">
-        <v>3140.544609571745</v>
+        <v>4187.483659846699</v>
       </c>
       <c r="W41" t="n">
-        <v>2735.689154982779</v>
+        <v>3782.628205257733</v>
       </c>
       <c r="X41" t="n">
-        <v>2316.54669156209</v>
+        <v>3363.485741837043</v>
       </c>
       <c r="Y41" t="n">
-        <v>2316.54669156209</v>
+        <v>2955.199618136697</v>
       </c>
     </row>
     <row r="42">
@@ -7464,76 +7466,76 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>582.3093582029137</v>
+        <v>608.4325852620724</v>
       </c>
       <c r="C42" t="n">
-        <v>475.852897039556</v>
+        <v>501.9761240987147</v>
       </c>
       <c r="D42" t="n">
-        <v>380.7626081861092</v>
+        <v>406.885835245268</v>
       </c>
       <c r="E42" t="n">
-        <v>286.6421935130629</v>
+        <v>312.7654205722217</v>
       </c>
       <c r="F42" t="n">
-        <v>203.2583551292245</v>
+        <v>229.3815821883833</v>
       </c>
       <c r="G42" t="n">
-        <v>117.8732653954084</v>
+        <v>143.9964924545671</v>
       </c>
       <c r="H42" t="n">
-        <v>76.13761321162086</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I42" t="n">
-        <v>76.13761321162086</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J42" t="n">
-        <v>400.6959381778332</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K42" t="n">
-        <v>1081.429458248211</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L42" t="n">
-        <v>1081.465657964015</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M42" t="n">
-        <v>1081.465657964015</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N42" t="n">
-        <v>1081.465657964015</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O42" t="n">
-        <v>1081.465657964015</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P42" t="n">
-        <v>1081.465657964015</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q42" t="n">
-        <v>1622.20459659609</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R42" t="n">
-        <v>1739.37737469043</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="S42" t="n">
-        <v>1675.921937138813</v>
+        <v>1702.045164197971</v>
       </c>
       <c r="T42" t="n">
-        <v>1545.743293469415</v>
+        <v>1571.866520528573</v>
       </c>
       <c r="U42" t="n">
-        <v>1369.406746469383</v>
+        <v>1395.529973528541</v>
       </c>
       <c r="V42" t="n">
-        <v>1170.289228531382</v>
+        <v>1196.412455590541</v>
       </c>
       <c r="W42" t="n">
-        <v>984.9664742645762</v>
+        <v>1011.089701323735</v>
       </c>
       <c r="X42" t="n">
-        <v>830.0990385034561</v>
+        <v>856.2222655626148</v>
       </c>
       <c r="Y42" t="n">
-        <v>703.6132592826768</v>
+        <v>729.7364863418355</v>
       </c>
     </row>
     <row r="43">
@@ -7543,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>764.2136293346052</v>
+        <v>952.7568773477108</v>
       </c>
       <c r="C43" t="n">
-        <v>591.6519178178302</v>
+        <v>780.1951658309357</v>
       </c>
       <c r="D43" t="n">
-        <v>425.7739250193529</v>
+        <v>614.3171730324584</v>
       </c>
       <c r="E43" t="n">
-        <v>256.0159212700901</v>
+        <v>444.5591692831957</v>
       </c>
       <c r="F43" t="n">
-        <v>79.30886723184634</v>
+        <v>267.852115244952</v>
       </c>
       <c r="G43" t="n">
-        <v>76.13761321162086</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="H43" t="n">
-        <v>76.13761321162086</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I43" t="n">
-        <v>76.13761321162086</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J43" t="n">
-        <v>162.7172983763107</v>
+        <v>188.8405254354695</v>
       </c>
       <c r="K43" t="n">
-        <v>437.4757529474463</v>
+        <v>463.598980006605</v>
       </c>
       <c r="L43" t="n">
-        <v>855.6856347154073</v>
+        <v>881.8088617745661</v>
       </c>
       <c r="M43" t="n">
-        <v>1315.16950189632</v>
+        <v>1341.292728955479</v>
       </c>
       <c r="N43" t="n">
-        <v>1757.428305053965</v>
+        <v>1783.551532113124</v>
       </c>
       <c r="O43" t="n">
-        <v>2177.097554279746</v>
+        <v>2203.220781338905</v>
       </c>
       <c r="P43" t="n">
-        <v>2524.604448250088</v>
+        <v>2550.727675309247</v>
       </c>
       <c r="Q43" t="n">
-        <v>2692.797223114421</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="R43" t="n">
-        <v>2671.379401819793</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="S43" t="n">
-        <v>2512.138033117789</v>
+        <v>2559.679081471576</v>
       </c>
       <c r="T43" t="n">
-        <v>2266.258586696244</v>
+        <v>2454.80183470935</v>
       </c>
       <c r="U43" t="n">
-        <v>1987.82558594935</v>
+        <v>2176.368833962455</v>
       </c>
       <c r="V43" t="n">
-        <v>1700.87007781978</v>
+        <v>1889.413325832886</v>
       </c>
       <c r="W43" t="n">
-        <v>1428.843673406072</v>
+        <v>1617.386921419177</v>
       </c>
       <c r="X43" t="n">
-        <v>1183.451918739484</v>
+        <v>1371.99516675259</v>
       </c>
       <c r="Y43" t="n">
-        <v>956.0322480535924</v>
+        <v>1144.575496066698</v>
       </c>
     </row>
     <row r="44">
@@ -7622,76 +7624,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2057.324388879106</v>
+        <v>2528.90004765179</v>
       </c>
       <c r="C44" t="n">
-        <v>1619.18191606253</v>
+        <v>2090.757574835213</v>
       </c>
       <c r="D44" t="n">
-        <v>1183.272131236974</v>
+        <v>1654.847790009657</v>
       </c>
       <c r="E44" t="n">
-        <v>749.4973863952691</v>
+        <v>1221.073045167952</v>
       </c>
       <c r="F44" t="n">
-        <v>321.6299568044769</v>
+        <v>793.2056155771595</v>
       </c>
       <c r="G44" t="n">
-        <v>76.55440258448085</v>
+        <v>391.8077842004234</v>
       </c>
       <c r="H44" t="n">
-        <v>76.55440258448085</v>
+        <v>102.6776296436396</v>
       </c>
       <c r="I44" t="n">
-        <v>76.13761321162086</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J44" t="n">
-        <v>511.3923006645387</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="K44" t="n">
-        <v>811.1177053465623</v>
+        <v>1286.300469346936</v>
       </c>
       <c r="L44" t="n">
-        <v>1753.32066884037</v>
+        <v>1286.300469346936</v>
       </c>
       <c r="M44" t="n">
-        <v>2695.523632334179</v>
+        <v>2443.348304557487</v>
       </c>
       <c r="N44" t="n">
-        <v>3637.726595827986</v>
+        <v>3569.079287993934</v>
       </c>
       <c r="O44" t="n">
-        <v>3637.726595827986</v>
+        <v>3569.079287993934</v>
       </c>
       <c r="P44" t="n">
-        <v>3637.726595827986</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q44" t="n">
-        <v>3637.726595827986</v>
+        <v>4943.887948785925</v>
       </c>
       <c r="R44" t="n">
-        <v>3806.880660581043</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="S44" t="n">
-        <v>3723.22878676488</v>
+        <v>5029.390139722818</v>
       </c>
       <c r="T44" t="n">
-        <v>3503.161559637919</v>
+        <v>4809.322912595857</v>
       </c>
       <c r="U44" t="n">
-        <v>3243.939256954935</v>
+        <v>4550.100609912874</v>
       </c>
       <c r="V44" t="n">
-        <v>2881.322306888762</v>
+        <v>4187.4836598467</v>
       </c>
       <c r="W44" t="n">
-        <v>2476.466852299795</v>
+        <v>3782.628205257733</v>
       </c>
       <c r="X44" t="n">
-        <v>2057.324388879106</v>
+        <v>3363.485741837044</v>
       </c>
       <c r="Y44" t="n">
-        <v>2057.324388879106</v>
+        <v>2955.199618136698</v>
       </c>
     </row>
     <row r="45">
@@ -7701,76 +7703,76 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>582.3093582029137</v>
+        <v>608.4325852620724</v>
       </c>
       <c r="C45" t="n">
-        <v>475.852897039556</v>
+        <v>501.9761240987147</v>
       </c>
       <c r="D45" t="n">
-        <v>380.7626081861092</v>
+        <v>406.885835245268</v>
       </c>
       <c r="E45" t="n">
-        <v>286.6421935130629</v>
+        <v>312.7654205722217</v>
       </c>
       <c r="F45" t="n">
-        <v>203.2583551292245</v>
+        <v>229.3815821883833</v>
       </c>
       <c r="G45" t="n">
-        <v>117.8732653954084</v>
+        <v>143.9964924545671</v>
       </c>
       <c r="H45" t="n">
-        <v>76.13761321162086</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I45" t="n">
-        <v>76.13761321162086</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J45" t="n">
-        <v>400.6959381778332</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K45" t="n">
-        <v>1081.429458248211</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L45" t="n">
-        <v>1081.465657964015</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M45" t="n">
-        <v>1081.465657964015</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N45" t="n">
-        <v>1081.465657964015</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O45" t="n">
-        <v>1081.465657964015</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P45" t="n">
-        <v>1081.465657964015</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q45" t="n">
-        <v>1622.20459659609</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R45" t="n">
-        <v>1739.37737469043</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="S45" t="n">
-        <v>1675.921937138813</v>
+        <v>1702.045164197971</v>
       </c>
       <c r="T45" t="n">
-        <v>1545.743293469415</v>
+        <v>1571.866520528573</v>
       </c>
       <c r="U45" t="n">
-        <v>1369.406746469383</v>
+        <v>1395.529973528541</v>
       </c>
       <c r="V45" t="n">
-        <v>1170.289228531382</v>
+        <v>1196.412455590541</v>
       </c>
       <c r="W45" t="n">
-        <v>984.9664742645762</v>
+        <v>1011.089701323735</v>
       </c>
       <c r="X45" t="n">
-        <v>830.0990385034561</v>
+        <v>856.2222655626148</v>
       </c>
       <c r="Y45" t="n">
-        <v>703.6132592826768</v>
+        <v>729.7364863418355</v>
       </c>
     </row>
     <row r="46">
@@ -7780,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>1155.195773823502</v>
+        <v>952.7568773477108</v>
       </c>
       <c r="C46" t="n">
-        <v>982.6340623067273</v>
+        <v>780.1951658309357</v>
       </c>
       <c r="D46" t="n">
-        <v>816.75606950825</v>
+        <v>614.3171730324584</v>
       </c>
       <c r="E46" t="n">
-        <v>646.9980657589872</v>
+        <v>444.5591692831957</v>
       </c>
       <c r="F46" t="n">
-        <v>470.2910117207434</v>
+        <v>267.852115244952</v>
       </c>
       <c r="G46" t="n">
-        <v>304.699736746571</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="H46" t="n">
-        <v>164.7975624369455</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I46" t="n">
-        <v>76.13761321162086</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J46" t="n">
-        <v>162.7172983763107</v>
+        <v>188.8405254354695</v>
       </c>
       <c r="K46" t="n">
-        <v>437.4757529474463</v>
+        <v>463.598980006605</v>
       </c>
       <c r="L46" t="n">
-        <v>855.6856347154073</v>
+        <v>881.8088617745661</v>
       </c>
       <c r="M46" t="n">
-        <v>1315.16950189632</v>
+        <v>1341.292728955479</v>
       </c>
       <c r="N46" t="n">
-        <v>1757.428305053965</v>
+        <v>1783.551532113124</v>
       </c>
       <c r="O46" t="n">
-        <v>2177.097554279746</v>
+        <v>2203.220781338905</v>
       </c>
       <c r="P46" t="n">
-        <v>2524.604448250088</v>
+        <v>2550.727675309247</v>
       </c>
       <c r="Q46" t="n">
-        <v>2692.797223114421</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="R46" t="n">
-        <v>2692.797223114421</v>
+        <v>2697.502628878951</v>
       </c>
       <c r="S46" t="n">
-        <v>2533.555854412417</v>
+        <v>2538.261260176947</v>
       </c>
       <c r="T46" t="n">
-        <v>2287.676407990873</v>
+        <v>2292.381813755403</v>
       </c>
       <c r="U46" t="n">
-        <v>2009.243407243978</v>
+        <v>2013.948813008508</v>
       </c>
       <c r="V46" t="n">
-        <v>1722.287899114408</v>
+        <v>1889.413325832882</v>
       </c>
       <c r="W46" t="n">
-        <v>1450.2614947007</v>
+        <v>1617.386921419173</v>
       </c>
       <c r="X46" t="n">
-        <v>1204.869740034112</v>
+        <v>1371.995166752586</v>
       </c>
       <c r="Y46" t="n">
-        <v>1204.869740034112</v>
+        <v>1144.575496066698</v>
       </c>
     </row>
   </sheetData>
@@ -7985,16 +7987,16 @@
         <v>0</v>
       </c>
       <c r="M2" t="n">
+        <v>0</v>
+      </c>
+      <c r="N2" t="n">
+        <v>0</v>
+      </c>
+      <c r="O2" t="n">
+        <v>424.2958575201043</v>
+      </c>
+      <c r="P2" t="n">
         <v>236.2898988798406</v>
-      </c>
-      <c r="N2" t="n">
-        <v>0</v>
-      </c>
-      <c r="O2" t="n">
-        <v>0</v>
-      </c>
-      <c r="P2" t="n">
-        <v>424.2958575201044</v>
       </c>
       <c r="Q2" t="n">
         <v>424.2958575201044</v>
@@ -8058,11 +8060,11 @@
         <v>327.836691885063</v>
       </c>
       <c r="K3" t="n">
+        <v>358.9284720888815</v>
+      </c>
+      <c r="L3" t="n">
         <v>424.2958575201044</v>
       </c>
-      <c r="L3" t="n">
-        <v>0</v>
-      </c>
       <c r="M3" t="n">
         <v>0</v>
       </c>
@@ -8070,7 +8072,7 @@
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>358.9284720888814</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -8140,19 +8142,19 @@
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>56.52305090189834</v>
+        <v>407.5401155184051</v>
       </c>
       <c r="M4" t="n">
         <v>424.2958575201043</v>
       </c>
       <c r="N4" t="n">
-        <v>424.2958575201043</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="O4" t="n">
         <v>423.9083325512944</v>
       </c>
       <c r="P4" t="n">
-        <v>351.0170646165068</v>
+        <v>0</v>
       </c>
       <c r="Q4" t="n">
         <v>0</v>
@@ -8213,28 +8215,28 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="K5" t="n">
         <v>0</v>
       </c>
       <c r="L5" t="n">
-        <v>0</v>
+        <v>630.404832368463</v>
       </c>
       <c r="M5" t="n">
-        <v>0</v>
+        <v>630.4048323684628</v>
       </c>
       <c r="N5" t="n">
-        <v>0</v>
+        <v>630.4048323684628</v>
       </c>
       <c r="O5" t="n">
-        <v>424.2958575201043</v>
+        <v>604.9339300505458</v>
       </c>
       <c r="P5" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>407.1525905495951</v>
+        <v>0</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -8289,13 +8291,13 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J6" t="n">
         <v>327.836691885063</v>
       </c>
       <c r="K6" t="n">
-        <v>0</v>
+        <v>65.06686390159854</v>
       </c>
       <c r="L6" t="n">
         <v>0</v>
@@ -8304,19 +8306,19 @@
         <v>0</v>
       </c>
       <c r="N6" t="n">
-        <v>0</v>
+        <v>630.404832368463</v>
       </c>
       <c r="O6" t="n">
-        <v>424.2958575201043</v>
+        <v>630.4048323684628</v>
       </c>
       <c r="P6" t="n">
-        <v>385.2554146752024</v>
+        <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>118.3563415094341</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -8371,25 +8373,25 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K7" t="n">
-        <v>237.6484237362512</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L7" t="n">
-        <v>0</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M7" t="n">
-        <v>424.2958575201043</v>
+        <v>317.1830304671599</v>
       </c>
       <c r="N7" t="n">
-        <v>424.2958575201044</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O7" t="n">
         <v>423.9083325512944</v>
       </c>
       <c r="P7" t="n">
-        <v>0</v>
+        <v>351.0170646165068</v>
       </c>
       <c r="Q7" t="n">
         <v>169.8916917821538</v>
@@ -8450,13 +8452,13 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>424.2958575201043</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K8" t="n">
-        <v>424.2958575201043</v>
+        <v>667.515206607857</v>
       </c>
       <c r="L8" t="n">
-        <v>0</v>
+        <v>145.5272350047205</v>
       </c>
       <c r="M8" t="n">
         <v>0</v>
@@ -8468,10 +8470,10 @@
         <v>0</v>
       </c>
       <c r="P8" t="n">
-        <v>424.2958575201044</v>
+        <v>667.515206607857</v>
       </c>
       <c r="Q8" t="n">
-        <v>236.2898988798406</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R8" t="n">
         <v>170.8626916697543</v>
@@ -8526,7 +8528,7 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J9" t="n">
         <v>327.836691885063</v>
@@ -8535,22 +8537,22 @@
         <v>0</v>
       </c>
       <c r="L9" t="n">
-        <v>0</v>
+        <v>667.515206607857</v>
       </c>
       <c r="M9" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="N9" t="n">
         <v>0</v>
       </c>
       <c r="O9" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="P9" t="n">
         <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>385.2554146752025</v>
+        <v>540.0049805212334</v>
       </c>
       <c r="R9" t="n">
         <v>118.3563415094341</v>
@@ -8608,7 +8610,7 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K10" t="n">
         <v>277.5337924960966</v>
@@ -8617,13 +8619,13 @@
         <v>422.4342240080415</v>
       </c>
       <c r="M10" t="n">
-        <v>424.2958575201044</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N10" t="n">
-        <v>0</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O10" t="n">
-        <v>34.867532687005</v>
+        <v>423.9083325512944</v>
       </c>
       <c r="P10" t="n">
         <v>351.0170646165068</v>
@@ -8693,16 +8695,16 @@
         <v>842.7780726850283</v>
       </c>
       <c r="L11" t="n">
-        <v>0</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M11" t="n">
-        <v>0</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="N11" t="n">
         <v>0</v>
       </c>
       <c r="O11" t="n">
-        <v>926.4397398113929</v>
+        <v>990.0804712831379</v>
       </c>
       <c r="P11" t="n">
         <v>836.6766412458549</v>
@@ -8763,22 +8765,22 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>26.32694258632081</v>
+        <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>327.836691885063</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>964.1848977889938</v>
       </c>
       <c r="M12" t="n">
-        <v>255.8000219838295</v>
+        <v>715.8552653209142</v>
       </c>
       <c r="N12" t="n">
-        <v>951.7201651452608</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
         <v>0</v>
@@ -8790,7 +8792,7 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>118.3563415094341</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -8930,16 +8932,16 @@
         <v>842.7780726850283</v>
       </c>
       <c r="L14" t="n">
-        <v>0</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M14" t="n">
-        <v>0</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="N14" t="n">
         <v>0</v>
       </c>
       <c r="O14" t="n">
-        <v>926.4397398113929</v>
+        <v>990.0804712831379</v>
       </c>
       <c r="P14" t="n">
         <v>836.6766412458549</v>
@@ -9021,7 +9023,7 @@
         <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>661.3192390158827</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="Q15" t="n">
         <v>546.2009481132077</v>
@@ -9173,10 +9175,10 @@
         <v>0</v>
       </c>
       <c r="N17" t="n">
-        <v>1133.488385918383</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="O17" t="n">
-        <v>0</v>
+        <v>990.0804712831379</v>
       </c>
       <c r="P17" t="n">
         <v>836.6766412458549</v>
@@ -9243,10 +9245,10 @@
         <v>327.836691885063</v>
       </c>
       <c r="K18" t="n">
-        <v>687.6096162327044</v>
+        <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>519.9105708963857</v>
+        <v>0</v>
       </c>
       <c r="M18" t="n">
         <v>0</v>
@@ -9258,10 +9260,10 @@
         <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R18" t="n">
         <v>118.3563415094341</v>
@@ -9401,10 +9403,10 @@
         <v>0</v>
       </c>
       <c r="K20" t="n">
-        <v>842.7780726850283</v>
+        <v>679.5583048465023</v>
       </c>
       <c r="L20" t="n">
-        <v>353.2215526444229</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M20" t="n">
         <v>1168.735187081365</v>
@@ -9413,16 +9415,16 @@
         <v>1137.102003471159</v>
       </c>
       <c r="O20" t="n">
-        <v>0</v>
+        <v>990.0804712831379</v>
       </c>
       <c r="P20" t="n">
-        <v>836.6766412458549</v>
+        <v>0</v>
       </c>
       <c r="Q20" t="n">
-        <v>552.0189757157522</v>
+        <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>170.8626916697543</v>
+        <v>0</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -9483,13 +9485,13 @@
         <v>0</v>
       </c>
       <c r="L21" t="n">
+        <v>0</v>
+      </c>
+      <c r="M21" t="n">
+        <v>0</v>
+      </c>
+      <c r="N21" t="n">
         <v>655.9981329904112</v>
-      </c>
-      <c r="M21" t="n">
-        <v>0</v>
-      </c>
-      <c r="N21" t="n">
-        <v>0</v>
       </c>
       <c r="O21" t="n">
         <v>1024.042030119497</v>
@@ -9635,19 +9637,19 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K23" t="n">
-        <v>427.9646913560541</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L23" t="n">
-        <v>1085.919157831171</v>
+        <v>0</v>
       </c>
       <c r="M23" t="n">
-        <v>1168.735187081365</v>
+        <v>92.22506899525706</v>
       </c>
       <c r="N23" t="n">
-        <v>0</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O23" t="n">
         <v>990.0804712831379</v>
@@ -9659,7 +9661,7 @@
         <v>552.0189757157522</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -9717,25 +9719,25 @@
         <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>305.8360165328637</v>
       </c>
       <c r="L24" t="n">
         <v>0</v>
       </c>
       <c r="M24" t="n">
-        <v>433.7499898166688</v>
+        <v>0</v>
       </c>
       <c r="N24" t="n">
-        <v>1246.290173293239</v>
+        <v>0</v>
       </c>
       <c r="O24" t="n">
         <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>0</v>
+        <v>828.0031984638366</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -9881,13 +9883,13 @@
         <v>0</v>
       </c>
       <c r="M26" t="n">
-        <v>1168.735187081365</v>
+        <v>92.22506899525706</v>
       </c>
       <c r="N26" t="n">
         <v>1137.102003471159</v>
       </c>
       <c r="O26" t="n">
-        <v>84.43304486678426</v>
+        <v>990.0804712831379</v>
       </c>
       <c r="P26" t="n">
         <v>836.6766412458549</v>
@@ -9896,7 +9898,7 @@
         <v>552.0189757157522</v>
       </c>
       <c r="R26" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -9948,13 +9950,13 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J27" t="n">
         <v>327.836691885063</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L27" t="n">
         <v>0</v>
@@ -9969,10 +9971,10 @@
         <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>828.0031984638366</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>405.8439312515743</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R27" t="n">
         <v>118.3563415094341</v>
@@ -10109,22 +10111,22 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K29" t="n">
         <v>842.7780726850283</v>
       </c>
       <c r="L29" t="n">
-        <v>1082.305540278395</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M29" t="n">
-        <v>0</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N29" t="n">
-        <v>1137.102003471159</v>
+        <v>0</v>
       </c>
       <c r="O29" t="n">
-        <v>0</v>
+        <v>575.2670899541636</v>
       </c>
       <c r="P29" t="n">
         <v>836.6766412458549</v>
@@ -10133,7 +10135,7 @@
         <v>552.0189757157522</v>
       </c>
       <c r="R29" t="n">
-        <v>170.8626916697543</v>
+        <v>0</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10185,16 +10187,16 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>26.32694258632081</v>
+        <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>327.836691885063</v>
+        <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>661.3192390158824</v>
+        <v>0</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>964.1848977889938</v>
       </c>
       <c r="M30" t="n">
         <v>0</v>
@@ -10203,16 +10205,16 @@
         <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>0</v>
+        <v>715.8552653209142</v>
       </c>
       <c r="P30" t="n">
         <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>546.2009481132077</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>118.3563415094341</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10346,31 +10348,31 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K32" t="n">
-        <v>0</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L32" t="n">
-        <v>0</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M32" t="n">
         <v>1168.735187081365</v>
       </c>
       <c r="N32" t="n">
-        <v>903.3699580700795</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O32" t="n">
-        <v>990.0804712831379</v>
+        <v>826.8607034446131</v>
       </c>
       <c r="P32" t="n">
-        <v>836.6766412458549</v>
+        <v>0</v>
       </c>
       <c r="Q32" t="n">
-        <v>552.0189757157522</v>
+        <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>170.8626916697543</v>
+        <v>0</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10428,7 +10430,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L33" t="n">
         <v>0</v>
@@ -10443,7 +10445,7 @@
         <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>661.3192390158824</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
         <v>546.2009481132077</v>
@@ -10583,31 +10585,31 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K35" t="n">
-        <v>842.7780726850283</v>
+        <v>679.5583048465032</v>
       </c>
       <c r="L35" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M35" t="n">
-        <v>0</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N35" t="n">
-        <v>143.4079146352456</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O35" t="n">
         <v>990.0804712831379</v>
       </c>
       <c r="P35" t="n">
-        <v>836.6766412458549</v>
+        <v>0</v>
       </c>
       <c r="Q35" t="n">
-        <v>552.0189757157522</v>
+        <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>170.8626916697543</v>
+        <v>0</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10659,22 +10661,22 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>26.32694258632081</v>
+        <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>327.836691885063</v>
+        <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>661.3192390158824</v>
+        <v>0</v>
       </c>
       <c r="L36" t="n">
         <v>0</v>
       </c>
       <c r="M36" t="n">
-        <v>0</v>
+        <v>433.7499898166688</v>
       </c>
       <c r="N36" t="n">
-        <v>0</v>
+        <v>1246.290173293239</v>
       </c>
       <c r="O36" t="n">
         <v>0</v>
@@ -10683,10 +10685,10 @@
         <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>546.2009481132077</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>118.3563415094341</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10820,7 +10822,7 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K38" t="n">
         <v>842.7780726850283</v>
@@ -10829,22 +10831,22 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M38" t="n">
-        <v>1168.735187081365</v>
+        <v>167.2490741169786</v>
       </c>
       <c r="N38" t="n">
         <v>1137.102003471159</v>
       </c>
       <c r="O38" t="n">
-        <v>655.9980117748592</v>
+        <v>0</v>
       </c>
       <c r="P38" t="n">
-        <v>0</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q38" t="n">
-        <v>0</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R38" t="n">
-        <v>170.8626916697543</v>
+        <v>0</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -10896,16 +10898,16 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>26.32694258632081</v>
+        <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>327.836691885063</v>
+        <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>661.3192390158824</v>
+        <v>687.6096162327044</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>446.2295987639959</v>
       </c>
       <c r="M39" t="n">
         <v>0</v>
@@ -10923,7 +10925,7 @@
         <v>546.2009481132077</v>
       </c>
       <c r="R39" t="n">
-        <v>118.3563415094341</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -11057,25 +11059,25 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>305.4286816532915</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K41" t="n">
         <v>0</v>
       </c>
       <c r="L41" t="n">
-        <v>0</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M41" t="n">
-        <v>0</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N41" t="n">
-        <v>951.7201651452608</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O41" t="n">
-        <v>951.7201651452608</v>
+        <v>0</v>
       </c>
       <c r="P41" t="n">
-        <v>836.6766412458549</v>
+        <v>507.1059092967421</v>
       </c>
       <c r="Q41" t="n">
         <v>552.0189757157522</v>
@@ -11133,16 +11135,16 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J42" t="n">
         <v>327.836691885063</v>
       </c>
       <c r="K42" t="n">
-        <v>687.6096162327044</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L42" t="n">
-        <v>0.03656536949893052</v>
+        <v>0</v>
       </c>
       <c r="M42" t="n">
         <v>0</v>
@@ -11297,25 +11299,25 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K44" t="n">
-        <v>302.752934022246</v>
+        <v>756.3484258820594</v>
       </c>
       <c r="L44" t="n">
-        <v>951.7201651452608</v>
+        <v>0</v>
       </c>
       <c r="M44" t="n">
-        <v>951.7201651452608</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N44" t="n">
-        <v>951.7201651452606</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O44" t="n">
         <v>0</v>
       </c>
       <c r="P44" t="n">
-        <v>0</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q44" t="n">
-        <v>0</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R44" t="n">
         <v>170.8626916697543</v>
@@ -11370,16 +11372,16 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J45" t="n">
         <v>327.836691885063</v>
       </c>
       <c r="K45" t="n">
-        <v>687.6096162327044</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L45" t="n">
-        <v>0.03656536949893052</v>
+        <v>0</v>
       </c>
       <c r="M45" t="n">
         <v>0</v>
@@ -23306,22 +23308,22 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
         <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>400.806900043077</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>206.7581540975087</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
         <v>0</v>
@@ -23416,10 +23418,10 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
@@ -23431,10 +23433,10 @@
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I13" t="n">
-        <v>52.01701577190823</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23461,10 +23463,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>139.5921776627258</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
@@ -23495,7 +23497,7 @@
         <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>433.7610480884109</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
         <v>0</v>
@@ -23504,13 +23506,13 @@
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>149.8539904771949</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>397.3838530629687</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>286.2388530112159</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -23650,7 +23652,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>189.9004325317972</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
@@ -23662,16 +23664,16 @@
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>103.1553467313941</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23698,7 +23700,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -23710,7 +23712,7 @@
         <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>197.1718905122108</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
@@ -23905,10 +23907,10 @@
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23938,13 +23940,13 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S19" t="n">
-        <v>157.6489550149833</v>
+        <v>139.5921776627258</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>208.2197249473392</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -24127,7 +24129,7 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
@@ -24178,7 +24180,7 @@
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>161.9268490649754</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
@@ -24187,13 +24189,13 @@
         <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>216.2362286424012</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>225.1454739790328</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -24364,7 +24366,7 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>111.4236523045828</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
@@ -24379,10 +24381,10 @@
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24409,16 +24411,16 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>139.5921776627258</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>275.6486707394257</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -24601,10 +24603,10 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
@@ -24646,10 +24648,10 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S28" t="n">
-        <v>52.01701577190843</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
@@ -24664,7 +24666,7 @@
         <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>208.2197249473434</v>
       </c>
       <c r="Y28" t="n">
         <v>0</v>
@@ -24856,7 +24858,7 @@
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24886,16 +24888,16 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>102.9863699957348</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>141.6500182959535</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>284.0859530482738</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
         <v>0</v>
@@ -25090,10 +25092,10 @@
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25120,19 +25122,19 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>139.5921776627258</v>
       </c>
       <c r="T34" t="n">
-        <v>243.4206519573293</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
         <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>143.6516710866794</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
         <v>0</v>
@@ -25330,7 +25332,7 @@
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25357,13 +25359,13 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>120.4463752142717</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
@@ -25375,10 +25377,10 @@
         <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>242.9378371199217</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>144.1344859240869</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -25561,10 +25563,10 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>141.6500182959539</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I40" t="n">
         <v>87.77334973307141</v>
@@ -25594,10 +25596,10 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S40" t="n">
-        <v>157.6489550149833</v>
+        <v>139.5921776627258</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
@@ -25625,13 +25627,13 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>174.4410940638623</v>
+        <v>0</v>
       </c>
       <c r="C41" t="n">
         <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>431.5506869772999</v>
+        <v>0</v>
       </c>
       <c r="E41" t="n">
         <v>0</v>
@@ -25646,7 +25648,7 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -25682,7 +25684,7 @@
         <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -25694,7 +25696,7 @@
         <v>0</v>
       </c>
       <c r="Y41" t="n">
-        <v>404.2032624633431</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -25798,7 +25800,7 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>160.7958207444074</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
         <v>138.5031525665292</v>
@@ -25831,13 +25833,13 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>139.5921776627258</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
@@ -25862,7 +25864,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>422.0365747800587</v>
+        <v>0</v>
       </c>
       <c r="C44" t="n">
         <v>0</v>
@@ -25877,10 +25879,10 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>154.7590543851727</v>
+        <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>286.2388530112159</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -25931,7 +25933,7 @@
         <v>0</v>
       </c>
       <c r="Y44" t="n">
-        <v>404.2032624633431</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -26020,7 +26022,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>140.7232059832934</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
         <v>0</v>
@@ -26038,10 +26040,10 @@
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26068,7 +26070,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
@@ -26080,7 +26082,7 @@
         <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>160.7958207444038</v>
       </c>
       <c r="W46" t="n">
         <v>0</v>
@@ -26089,7 +26091,7 @@
         <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>225.1454739790328</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -26131,7 +26133,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>460717.9786956405</v>
+        <v>467059.1399072781</v>
       </c>
     </row>
     <row r="4">
@@ -26139,7 +26141,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>460717.9786956405</v>
+        <v>468200.8799302409</v>
       </c>
     </row>
     <row r="5">
@@ -26147,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>384035.6059724397</v>
+        <v>474974.1264524458</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>384035.6059724397</v>
+        <v>474974.1264524457</v>
       </c>
     </row>
     <row r="7">
@@ -26163,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>474974.1264524459</v>
+        <v>474974.1264524458</v>
       </c>
     </row>
     <row r="8">
@@ -26179,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>474974.1264524459</v>
+        <v>474974.1264524458</v>
       </c>
     </row>
     <row r="10">
@@ -26211,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>474974.1264524458</v>
+        <v>474974.1264524457</v>
       </c>
     </row>
     <row r="14">
@@ -26227,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>384035.6059724399</v>
+        <v>474974.1264524458</v>
       </c>
     </row>
     <row r="16">
@@ -26235,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>384035.6059724397</v>
+        <v>474974.1264524459</v>
       </c>
     </row>
   </sheetData>
@@ -26311,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>495936.2708986276</v>
+        <v>495936.2708986277</v>
       </c>
       <c r="C2" t="n">
-        <v>495936.2708986276</v>
+        <v>495936.2708986277</v>
       </c>
       <c r="D2" t="n">
-        <v>495936.2708986276</v>
+        <v>495936.2708986277</v>
       </c>
       <c r="E2" t="n">
-        <v>394036.550189223</v>
+        <v>487343.2653270507</v>
       </c>
       <c r="F2" t="n">
-        <v>394036.5501892228</v>
+        <v>487343.2653270508</v>
       </c>
       <c r="G2" t="n">
+        <v>487343.2653270507</v>
+      </c>
+      <c r="H2" t="n">
         <v>487343.2653270508</v>
-      </c>
-      <c r="H2" t="n">
-        <v>487343.2653270507</v>
       </c>
       <c r="I2" t="n">
         <v>487343.2653270507</v>
       </c>
       <c r="J2" t="n">
-        <v>487343.2653270507</v>
+        <v>487343.2653270506</v>
       </c>
       <c r="K2" t="n">
-        <v>487343.2653270506</v>
+        <v>487343.2653270508</v>
       </c>
       <c r="L2" t="n">
         <v>487343.2653270507</v>
       </c>
       <c r="M2" t="n">
-        <v>487343.2653270506</v>
+        <v>487343.2653270507</v>
       </c>
       <c r="N2" t="n">
         <v>487343.2653270508</v>
       </c>
       <c r="O2" t="n">
-        <v>394036.550189223</v>
+        <v>487343.2653270508</v>
       </c>
       <c r="P2" t="n">
-        <v>394036.550189223</v>
+        <v>487343.2653270509</v>
       </c>
     </row>
     <row r="3">
@@ -26366,19 +26368,19 @@
         <v>142191.3006597099</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>66587.76789501598</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>11527.59554998296</v>
       </c>
       <c r="E3" t="n">
-        <v>157477.294922104</v>
+        <v>182355.1092210497</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>89499.80860636913</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26387,16 +26389,16 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>111014.4653449901</v>
+        <v>111014.4653449903</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>53045.85463877236</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>9392.301726622465</v>
       </c>
       <c r="M3" t="n">
-        <v>131436.2471574195</v>
+        <v>152200.1709379876</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26418,28 +26420,28 @@
         <v>187564.5330558133</v>
       </c>
       <c r="C4" t="n">
-        <v>187564.5330558133</v>
+        <v>146735.1647947852</v>
       </c>
       <c r="D4" t="n">
-        <v>187564.5330558133</v>
+        <v>139383.7472389045</v>
       </c>
       <c r="E4" t="n">
-        <v>33249.55378461168</v>
+        <v>41122.95192991272</v>
       </c>
       <c r="F4" t="n">
-        <v>33249.55378461168</v>
+        <v>41122.95192991272</v>
       </c>
       <c r="G4" t="n">
         <v>41122.95192991272</v>
       </c>
       <c r="H4" t="n">
-        <v>41122.95192991272</v>
+        <v>41122.95192991271</v>
       </c>
       <c r="I4" t="n">
         <v>41122.95192991272</v>
       </c>
       <c r="J4" t="n">
-        <v>41122.95192991271</v>
+        <v>41122.95192991272</v>
       </c>
       <c r="K4" t="n">
         <v>41122.95192991271</v>
@@ -26448,16 +26450,16 @@
         <v>41122.95192991271</v>
       </c>
       <c r="M4" t="n">
-        <v>41122.95192991272</v>
+        <v>41122.95192991268</v>
       </c>
       <c r="N4" t="n">
-        <v>41122.95192991272</v>
+        <v>41122.95192991268</v>
       </c>
       <c r="O4" t="n">
-        <v>33249.55378461168</v>
+        <v>41122.95192991271</v>
       </c>
       <c r="P4" t="n">
-        <v>33249.55378461169</v>
+        <v>41122.95192991271</v>
       </c>
     </row>
     <row r="5">
@@ -26470,28 +26472,28 @@
         <v>59424.78813722234</v>
       </c>
       <c r="C5" t="n">
-        <v>59424.78813722234</v>
+        <v>71956.21380800255</v>
       </c>
       <c r="D5" t="n">
-        <v>59424.78813722234</v>
+        <v>74212.5245617577</v>
       </c>
       <c r="E5" t="n">
-        <v>57864.58604083185</v>
+        <v>77718.2386057925</v>
       </c>
       <c r="F5" t="n">
-        <v>57864.58604083185</v>
+        <v>77718.2386057925</v>
       </c>
       <c r="G5" t="n">
+        <v>77718.2386057925</v>
+      </c>
+      <c r="H5" t="n">
+        <v>77718.2386057925</v>
+      </c>
+      <c r="I5" t="n">
+        <v>77718.2386057925</v>
+      </c>
+      <c r="J5" t="n">
         <v>77718.23860579252</v>
-      </c>
-      <c r="H5" t="n">
-        <v>77718.23860579252</v>
-      </c>
-      <c r="I5" t="n">
-        <v>77718.23860579252</v>
-      </c>
-      <c r="J5" t="n">
-        <v>77718.2386057925</v>
       </c>
       <c r="K5" t="n">
         <v>77718.23860579252</v>
@@ -26506,10 +26508,10 @@
         <v>77718.23860579252</v>
       </c>
       <c r="O5" t="n">
-        <v>57864.58604083185</v>
+        <v>77718.23860579252</v>
       </c>
       <c r="P5" t="n">
-        <v>57864.58604083185</v>
+        <v>77718.23860579252</v>
       </c>
     </row>
     <row r="6">
@@ -26519,22 +26521,22 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>106755.6490458821</v>
+        <v>106755.6490458822</v>
       </c>
       <c r="C6" t="n">
-        <v>248946.9497055919</v>
+        <v>210657.124400824</v>
       </c>
       <c r="D6" t="n">
-        <v>248946.949705592</v>
+        <v>270812.4035479826</v>
       </c>
       <c r="E6" t="n">
-        <v>145445.1154416755</v>
+        <v>186146.9655702958</v>
       </c>
       <c r="F6" t="n">
-        <v>302922.4103637793</v>
+        <v>368502.0747913456</v>
       </c>
       <c r="G6" t="n">
-        <v>279002.2661849764</v>
+        <v>368502.0747913455</v>
       </c>
       <c r="H6" t="n">
         <v>368502.0747913455</v>
@@ -26543,25 +26545,25 @@
         <v>368502.0747913455</v>
       </c>
       <c r="J6" t="n">
-        <v>257487.6094463553</v>
+        <v>257487.6094463551</v>
       </c>
       <c r="K6" t="n">
-        <v>368502.0747913454</v>
+        <v>315456.2201525732</v>
       </c>
       <c r="L6" t="n">
-        <v>368502.0747913455</v>
+        <v>359109.773064723</v>
       </c>
       <c r="M6" t="n">
-        <v>237065.8276339259</v>
+        <v>216301.9038533579</v>
       </c>
       <c r="N6" t="n">
-        <v>368502.0747913455</v>
+        <v>368502.0747913456</v>
       </c>
       <c r="O6" t="n">
-        <v>302922.4103637794</v>
+        <v>368502.0747913456</v>
       </c>
       <c r="P6" t="n">
-        <v>302922.4103637794</v>
+        <v>368502.0747913456</v>
       </c>
     </row>
   </sheetData>
@@ -26790,16 +26792,16 @@
         <v>424.2958575201043</v>
       </c>
       <c r="C4" t="n">
-        <v>424.2958575201043</v>
+        <v>630.404832368463</v>
       </c>
       <c r="D4" t="n">
-        <v>424.2958575201043</v>
+        <v>667.515206607857</v>
       </c>
       <c r="E4" t="n">
-        <v>951.7201651452608</v>
+        <v>1278.260503384745</v>
       </c>
       <c r="F4" t="n">
-        <v>951.7201651452608</v>
+        <v>1278.260503384745</v>
       </c>
       <c r="G4" t="n">
         <v>1278.260503384745</v>
@@ -26826,10 +26828,10 @@
         <v>1278.260503384745</v>
       </c>
       <c r="O4" t="n">
-        <v>951.7201651452608</v>
+        <v>1278.260503384745</v>
       </c>
       <c r="P4" t="n">
-        <v>951.7201651452608</v>
+        <v>1278.260503384745</v>
       </c>
     </row>
   </sheetData>
@@ -27012,19 +27014,19 @@
         <v>424.2958575201043</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>206.1089748483586</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>37.11037423939399</v>
       </c>
       <c r="E4" t="n">
-        <v>527.4243076251564</v>
+        <v>610.7452967768882</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>326.5403382394845</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -27033,16 +27035,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>424.2958575201042</v>
+        <v>424.2958575201046</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>206.1089748483586</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>37.11037423939399</v>
       </c>
       <c r="M4" t="n">
-        <v>527.4243076251564</v>
+        <v>610.7452967768882</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27258,19 +27260,19 @@
         <v>424.2958575201043</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>206.1089748483586</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>37.11037423939399</v>
       </c>
       <c r="M4" t="n">
-        <v>527.4243076251564</v>
+        <v>610.7452967768882</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>326.5403382394845</v>
+        <v>0</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27376,19 +27378,19 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>113.7278999628232</v>
+      </c>
+      <c r="C2" t="n">
         <v>400</v>
-      </c>
-      <c r="C2" t="n">
-        <v>191.4021151676411</v>
       </c>
       <c r="D2" t="n">
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>5.14113987318342</v>
+        <v>400</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
         <v>397.3838530629687</v>
@@ -27427,7 +27429,7 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T2" t="n">
         <v>217.8665548556918</v>
@@ -27439,10 +27441,10 @@
         <v>358.9907805655117</v>
       </c>
       <c r="W2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -27534,16 +27536,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>189.9004325317972</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>130.2788321700545</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27555,7 +27557,7 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27588,22 +27590,22 @@
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V4" t="n">
         <v>284.0859530482738</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X4" t="n">
         <v>242.9378371199217</v>
       </c>
       <c r="Y4" t="n">
-        <v>225.1454739790328</v>
+        <v>15.5587197492369</v>
       </c>
     </row>
     <row r="5">
@@ -27613,19 +27615,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>9.465190568306582</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
         <v>400</v>
       </c>
       <c r="E5" t="n">
-        <v>5.14113987318342</v>
+        <v>400</v>
       </c>
       <c r="F5" t="n">
-        <v>96.50542258430198</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
@@ -27676,13 +27678,13 @@
         <v>358.9907805655117</v>
       </c>
       <c r="W5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>400</v>
+        <v>111.2440434342822</v>
       </c>
     </row>
     <row r="6">
@@ -27771,7 +27773,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>189.9004325317972</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
@@ -27825,22 +27827,22 @@
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>86.87130231565772</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>275.6486707394257</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>284.0859530482738</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
         <v>269.3061403695714</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y7" t="n">
-        <v>225.1454739790328</v>
+        <v>18.84628590275585</v>
       </c>
     </row>
     <row r="8">
@@ -27853,19 +27855,19 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>7.254829457195569</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>397.3838530629687</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
         <v>286.2388530112159</v>
@@ -27913,13 +27915,13 @@
         <v>358.9907805655117</v>
       </c>
       <c r="W8" t="n">
-        <v>106.4730705056278</v>
+        <v>400</v>
       </c>
       <c r="X8" t="n">
         <v>400</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>367.2261030860415</v>
       </c>
     </row>
     <row r="9">
@@ -28008,13 +28010,13 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>117.766182674437</v>
       </c>
       <c r="C10" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
@@ -28059,25 +28061,25 @@
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>86.08444654944748</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>284.0859530482738</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X10" t="n">
-        <v>242.9378371199217</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>225.1454739790328</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -28582,7 +28584,7 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>-8.373650460319441e-13</v>
+        <v>0</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -28755,7 +28757,7 @@
         <v>0</v>
       </c>
       <c r="N19" t="n">
-        <v>3.817562007254101e-12</v>
+        <v>0</v>
       </c>
       <c r="O19" t="n">
         <v>0</v>
@@ -34705,16 +34707,16 @@
         <v>0</v>
       </c>
       <c r="M2" t="n">
+        <v>0</v>
+      </c>
+      <c r="N2" t="n">
+        <v>0</v>
+      </c>
+      <c r="O2" t="n">
+        <v>424.2958575201043</v>
+      </c>
+      <c r="P2" t="n">
         <v>236.2898988798406</v>
-      </c>
-      <c r="N2" t="n">
-        <v>0</v>
-      </c>
-      <c r="O2" t="n">
-        <v>0</v>
-      </c>
-      <c r="P2" t="n">
-        <v>424.2958575201044</v>
       </c>
       <c r="Q2" t="n">
         <v>424.2958575201044</v>
@@ -34778,11 +34780,11 @@
         <v>327.836691885063</v>
       </c>
       <c r="K3" t="n">
+        <v>358.9284720888815</v>
+      </c>
+      <c r="L3" t="n">
         <v>424.2958575201044</v>
       </c>
-      <c r="L3" t="n">
-        <v>0</v>
-      </c>
       <c r="M3" t="n">
         <v>0</v>
       </c>
@@ -34790,7 +34792,7 @@
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>358.9284720888814</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -34860,19 +34862,19 @@
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>56.52305090189834</v>
+        <v>407.5401155184051</v>
       </c>
       <c r="M4" t="n">
         <v>424.2958575201043</v>
       </c>
       <c r="N4" t="n">
-        <v>424.2958575201043</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="O4" t="n">
-        <v>423.9083325512944</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P4" t="n">
-        <v>351.0170646165068</v>
+        <v>0</v>
       </c>
       <c r="Q4" t="n">
         <v>0</v>
@@ -34933,28 +34935,28 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="K5" t="n">
         <v>0</v>
       </c>
       <c r="L5" t="n">
-        <v>0</v>
+        <v>630.404832368463</v>
       </c>
       <c r="M5" t="n">
-        <v>0</v>
+        <v>630.4048323684628</v>
       </c>
       <c r="N5" t="n">
-        <v>0</v>
+        <v>630.4048323684628</v>
       </c>
       <c r="O5" t="n">
-        <v>424.2958575201043</v>
+        <v>604.9339300505458</v>
       </c>
       <c r="P5" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>407.1525905495951</v>
+        <v>0</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -35009,13 +35011,13 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J6" t="n">
         <v>327.836691885063</v>
       </c>
       <c r="K6" t="n">
-        <v>0</v>
+        <v>65.06686390159854</v>
       </c>
       <c r="L6" t="n">
         <v>0</v>
@@ -35024,19 +35026,19 @@
         <v>0</v>
       </c>
       <c r="N6" t="n">
-        <v>0</v>
+        <v>630.404832368463</v>
       </c>
       <c r="O6" t="n">
-        <v>424.2958575201043</v>
+        <v>630.4048323684628</v>
       </c>
       <c r="P6" t="n">
-        <v>385.2554146752024</v>
+        <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>118.3563415094341</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -35091,25 +35093,25 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K7" t="n">
-        <v>237.6484237362512</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L7" t="n">
-        <v>0</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M7" t="n">
-        <v>424.2958575201043</v>
+        <v>317.1830304671599</v>
       </c>
       <c r="N7" t="n">
-        <v>424.2958575201044</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O7" t="n">
-        <v>423.9083325512943</v>
+        <v>423.9083325512945</v>
       </c>
       <c r="P7" t="n">
-        <v>0</v>
+        <v>351.0170646165068</v>
       </c>
       <c r="Q7" t="n">
         <v>169.8916917821539</v>
@@ -35170,13 +35172,13 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>424.2958575201043</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K8" t="n">
-        <v>424.2958575201043</v>
+        <v>667.515206607857</v>
       </c>
       <c r="L8" t="n">
-        <v>0</v>
+        <v>145.5272350047205</v>
       </c>
       <c r="M8" t="n">
         <v>0</v>
@@ -35188,10 +35190,10 @@
         <v>0</v>
       </c>
       <c r="P8" t="n">
-        <v>424.2958575201044</v>
+        <v>667.515206607857</v>
       </c>
       <c r="Q8" t="n">
-        <v>236.2898988798406</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R8" t="n">
         <v>170.8626916697544</v>
@@ -35246,7 +35248,7 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J9" t="n">
         <v>327.836691885063</v>
@@ -35255,22 +35257,22 @@
         <v>0</v>
       </c>
       <c r="L9" t="n">
-        <v>0</v>
+        <v>667.515206607857</v>
       </c>
       <c r="M9" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="N9" t="n">
         <v>0</v>
       </c>
       <c r="O9" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="P9" t="n">
         <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>385.2554146752025</v>
+        <v>540.0049805212334</v>
       </c>
       <c r="R9" t="n">
         <v>118.3563415094341</v>
@@ -35328,7 +35330,7 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>87.45422743908068</v>
       </c>
       <c r="K10" t="n">
         <v>277.5337924960966</v>
@@ -35337,16 +35339,16 @@
         <v>422.4342240080415</v>
       </c>
       <c r="M10" t="n">
-        <v>424.2958575201044</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N10" t="n">
-        <v>0</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O10" t="n">
-        <v>34.867532687005</v>
+        <v>423.9083325512945</v>
       </c>
       <c r="P10" t="n">
-        <v>351.0170646165068</v>
+        <v>351.017064616507</v>
       </c>
       <c r="Q10" t="n">
         <v>169.8916917821539</v>
@@ -35410,19 +35412,19 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K11" t="n">
-        <v>842.7780726850284</v>
+        <v>842.7780726850282</v>
       </c>
       <c r="L11" t="n">
-        <v>0</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M11" t="n">
-        <v>0</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="N11" t="n">
         <v>0</v>
       </c>
       <c r="O11" t="n">
-        <v>926.4397398113929</v>
+        <v>990.0804712831377</v>
       </c>
       <c r="P11" t="n">
         <v>836.6766412458546</v>
@@ -35431,7 +35433,7 @@
         <v>552.0189757157523</v>
       </c>
       <c r="R11" t="n">
-        <v>170.8626916697544</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35483,22 +35485,22 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>26.32694258632081</v>
+        <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>327.836691885063</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>964.1848977889938</v>
       </c>
       <c r="M12" t="n">
-        <v>255.8000219838295</v>
+        <v>715.8552653209142</v>
       </c>
       <c r="N12" t="n">
-        <v>951.7201651452608</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
         <v>0</v>
@@ -35510,7 +35512,7 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>118.3563415094341</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35580,7 +35582,7 @@
         <v>446.7260637956006</v>
       </c>
       <c r="O13" t="n">
-        <v>423.9083325512945</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P13" t="n">
         <v>351.017064616507</v>
@@ -35647,19 +35649,19 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K14" t="n">
-        <v>842.7780726850284</v>
+        <v>842.7780726850282</v>
       </c>
       <c r="L14" t="n">
-        <v>0</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M14" t="n">
-        <v>0</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="N14" t="n">
         <v>0</v>
       </c>
       <c r="O14" t="n">
-        <v>926.4397398113929</v>
+        <v>990.0804712831377</v>
       </c>
       <c r="P14" t="n">
         <v>836.6766412458546</v>
@@ -35668,7 +35670,7 @@
         <v>552.0189757157523</v>
       </c>
       <c r="R14" t="n">
-        <v>170.8626916697544</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35720,7 +35722,7 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>26.32694258632081</v>
+        <v>26.3269425863208</v>
       </c>
       <c r="J15" t="n">
         <v>327.836691885063</v>
@@ -35741,7 +35743,7 @@
         <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>661.3192390158827</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="Q15" t="n">
         <v>546.2009481132077</v>
@@ -35817,7 +35819,7 @@
         <v>446.7260637956006</v>
       </c>
       <c r="O16" t="n">
-        <v>423.9083325512945</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P16" t="n">
         <v>351.017064616507</v>
@@ -35893,10 +35895,10 @@
         <v>0</v>
       </c>
       <c r="N17" t="n">
-        <v>1133.488385918383</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="O17" t="n">
-        <v>0</v>
+        <v>990.0804712831377</v>
       </c>
       <c r="P17" t="n">
         <v>836.6766412458546</v>
@@ -35957,16 +35959,16 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>26.32694258632081</v>
+        <v>26.3269425863208</v>
       </c>
       <c r="J18" t="n">
         <v>327.836691885063</v>
       </c>
       <c r="K18" t="n">
-        <v>687.6096162327044</v>
+        <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>519.9105708963857</v>
+        <v>0</v>
       </c>
       <c r="M18" t="n">
         <v>0</v>
@@ -35978,10 +35980,10 @@
         <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R18" t="n">
         <v>118.3563415094341</v>
@@ -36039,7 +36041,7 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>87.45422743908067</v>
+        <v>87.45422743908065</v>
       </c>
       <c r="K19" t="n">
         <v>277.5337924960966</v>
@@ -36051,10 +36053,10 @@
         <v>464.1251183645586</v>
       </c>
       <c r="N19" t="n">
-        <v>446.7260637956044</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O19" t="n">
-        <v>423.9083325512945</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P19" t="n">
         <v>351.017064616507</v>
@@ -36121,10 +36123,10 @@
         <v>0</v>
       </c>
       <c r="K20" t="n">
-        <v>842.7780726850283</v>
+        <v>679.5583048465023</v>
       </c>
       <c r="L20" t="n">
-        <v>353.2215526444229</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M20" t="n">
         <v>1168.735187081365</v>
@@ -36133,16 +36135,16 @@
         <v>1137.102003471159</v>
       </c>
       <c r="O20" t="n">
-        <v>0</v>
+        <v>990.0804712831377</v>
       </c>
       <c r="P20" t="n">
-        <v>836.6766412458546</v>
+        <v>0</v>
       </c>
       <c r="Q20" t="n">
-        <v>552.0189757157523</v>
+        <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>170.862691669754</v>
+        <v>0</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36203,13 +36205,13 @@
         <v>0</v>
       </c>
       <c r="L21" t="n">
+        <v>0</v>
+      </c>
+      <c r="M21" t="n">
+        <v>0</v>
+      </c>
+      <c r="N21" t="n">
         <v>655.9981329904112</v>
-      </c>
-      <c r="M21" t="n">
-        <v>0</v>
-      </c>
-      <c r="N21" t="n">
-        <v>0</v>
       </c>
       <c r="O21" t="n">
         <v>1024.042030119497</v>
@@ -36276,7 +36278,7 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>87.45422743908067</v>
+        <v>87.45422743908065</v>
       </c>
       <c r="K22" t="n">
         <v>277.5337924960966</v>
@@ -36355,19 +36357,19 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K23" t="n">
-        <v>427.9646913560541</v>
+        <v>842.7780726850282</v>
       </c>
       <c r="L23" t="n">
-        <v>1085.919157831171</v>
+        <v>0</v>
       </c>
       <c r="M23" t="n">
-        <v>1168.735187081365</v>
+        <v>92.22506899525706</v>
       </c>
       <c r="N23" t="n">
-        <v>0</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O23" t="n">
         <v>990.0804712831377</v>
@@ -36379,7 +36381,7 @@
         <v>552.0189757157523</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36437,25 +36439,25 @@
         <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>305.8360165328637</v>
       </c>
       <c r="L24" t="n">
         <v>0</v>
       </c>
       <c r="M24" t="n">
-        <v>433.7499898166688</v>
+        <v>0</v>
       </c>
       <c r="N24" t="n">
-        <v>1246.290173293239</v>
+        <v>0</v>
       </c>
       <c r="O24" t="n">
         <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>0</v>
+        <v>828.0031984638366</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36513,7 +36515,7 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>87.45422743908067</v>
+        <v>87.45422743908065</v>
       </c>
       <c r="K25" t="n">
         <v>277.5337924960966</v>
@@ -36601,13 +36603,13 @@
         <v>0</v>
       </c>
       <c r="M26" t="n">
-        <v>1168.735187081365</v>
+        <v>92.22506899525706</v>
       </c>
       <c r="N26" t="n">
         <v>1137.102003471159</v>
       </c>
       <c r="O26" t="n">
-        <v>84.43304486678426</v>
+        <v>990.0804712831377</v>
       </c>
       <c r="P26" t="n">
         <v>836.6766412458546</v>
@@ -36616,7 +36618,7 @@
         <v>552.0189757157523</v>
       </c>
       <c r="R26" t="n">
-        <v>0</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36668,13 +36670,13 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>26.32694258632091</v>
       </c>
       <c r="J27" t="n">
-        <v>327.836691885063</v>
+        <v>327.8366918850629</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L27" t="n">
         <v>0</v>
@@ -36689,10 +36691,10 @@
         <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>828.0031984638366</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>405.8439312515743</v>
+        <v>546.2009481132072</v>
       </c>
       <c r="R27" t="n">
         <v>118.3563415094341</v>
@@ -36750,7 +36752,7 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>87.45422743908065</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K28" t="n">
         <v>277.5337924960966</v>
@@ -36829,22 +36831,22 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K29" t="n">
-        <v>842.7780726850282</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L29" t="n">
-        <v>1082.305540278395</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M29" t="n">
-        <v>0</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N29" t="n">
-        <v>1137.102003471159</v>
+        <v>0</v>
       </c>
       <c r="O29" t="n">
-        <v>0</v>
+        <v>575.2670899541636</v>
       </c>
       <c r="P29" t="n">
         <v>836.6766412458546</v>
@@ -36853,7 +36855,7 @@
         <v>552.0189757157523</v>
       </c>
       <c r="R29" t="n">
-        <v>170.862691669754</v>
+        <v>0</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36905,16 +36907,16 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>26.32694258632091</v>
+        <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>327.8366918850629</v>
+        <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>661.3192390158824</v>
+        <v>0</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>964.1848977889938</v>
       </c>
       <c r="M30" t="n">
         <v>0</v>
@@ -36923,16 +36925,16 @@
         <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>0</v>
+        <v>715.8552653209142</v>
       </c>
       <c r="P30" t="n">
         <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>546.2009481132072</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>118.3563415094341</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -37066,31 +37068,31 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K32" t="n">
-        <v>0</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L32" t="n">
-        <v>0</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M32" t="n">
         <v>1168.735187081365</v>
       </c>
       <c r="N32" t="n">
-        <v>903.3699580700795</v>
+        <v>1137.102003471158</v>
       </c>
       <c r="O32" t="n">
-        <v>990.0804712831377</v>
+        <v>826.8607034446131</v>
       </c>
       <c r="P32" t="n">
-        <v>836.6766412458546</v>
+        <v>0</v>
       </c>
       <c r="Q32" t="n">
-        <v>552.0189757157523</v>
+        <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>170.862691669754</v>
+        <v>0</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37142,13 +37144,13 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>26.32694258632091</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J33" t="n">
-        <v>327.8366918850629</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L33" t="n">
         <v>0</v>
@@ -37163,10 +37165,10 @@
         <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>661.3192390158824</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>546.2009481132072</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R33" t="n">
         <v>118.3563415094341</v>
@@ -37303,31 +37305,31 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K35" t="n">
-        <v>842.7780726850282</v>
+        <v>679.5583048465032</v>
       </c>
       <c r="L35" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M35" t="n">
-        <v>0</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N35" t="n">
-        <v>143.4079146352456</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O35" t="n">
         <v>990.0804712831377</v>
       </c>
       <c r="P35" t="n">
-        <v>836.6766412458546</v>
+        <v>0</v>
       </c>
       <c r="Q35" t="n">
-        <v>552.0189757157523</v>
+        <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>170.862691669754</v>
+        <v>0</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37379,22 +37381,22 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>26.32694258632091</v>
+        <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>327.8366918850629</v>
+        <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>661.3192390158824</v>
+        <v>0</v>
       </c>
       <c r="L36" t="n">
         <v>0</v>
       </c>
       <c r="M36" t="n">
-        <v>0</v>
+        <v>433.7499898166688</v>
       </c>
       <c r="N36" t="n">
-        <v>0</v>
+        <v>1246.290173293239</v>
       </c>
       <c r="O36" t="n">
         <v>0</v>
@@ -37403,10 +37405,10 @@
         <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>546.2009481132072</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>118.3563415094341</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37540,31 +37542,31 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K38" t="n">
-        <v>842.7780726850283</v>
+        <v>842.7780726850282</v>
       </c>
       <c r="L38" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M38" t="n">
-        <v>1168.735187081365</v>
+        <v>167.2490741169786</v>
       </c>
       <c r="N38" t="n">
-        <v>1137.102003471158</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O38" t="n">
-        <v>655.9980117748592</v>
+        <v>0</v>
       </c>
       <c r="P38" t="n">
-        <v>0</v>
+        <v>836.6766412458546</v>
       </c>
       <c r="Q38" t="n">
-        <v>0</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R38" t="n">
-        <v>170.862691669754</v>
+        <v>0</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37616,16 +37618,16 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>26.32694258632081</v>
+        <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>327.836691885063</v>
+        <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>661.3192390158824</v>
+        <v>687.6096162327044</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>446.2295987639959</v>
       </c>
       <c r="M39" t="n">
         <v>0</v>
@@ -37643,7 +37645,7 @@
         <v>546.2009481132077</v>
       </c>
       <c r="R39" t="n">
-        <v>118.3563415094341</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37777,31 +37779,31 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>305.4286816532915</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K41" t="n">
         <v>0</v>
       </c>
       <c r="L41" t="n">
-        <v>0</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M41" t="n">
-        <v>0</v>
+        <v>1168.735187081364</v>
       </c>
       <c r="N41" t="n">
-        <v>951.7201651452608</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O41" t="n">
-        <v>951.7201651452608</v>
+        <v>0</v>
       </c>
       <c r="P41" t="n">
-        <v>836.6766412458546</v>
+        <v>507.1059092967421</v>
       </c>
       <c r="Q41" t="n">
         <v>552.0189757157523</v>
       </c>
       <c r="R41" t="n">
-        <v>170.8626916697544</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37853,16 +37855,16 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J42" t="n">
         <v>327.836691885063</v>
       </c>
       <c r="K42" t="n">
-        <v>687.6096162327045</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L42" t="n">
-        <v>0.03656536949893052</v>
+        <v>0</v>
       </c>
       <c r="M42" t="n">
         <v>0</v>
@@ -37935,7 +37937,7 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>87.45422743908065</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K43" t="n">
         <v>277.5337924960966</v>
@@ -37950,7 +37952,7 @@
         <v>446.7260637956006</v>
       </c>
       <c r="O43" t="n">
-        <v>423.9083325512945</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P43" t="n">
         <v>351.017064616507</v>
@@ -38017,28 +38019,28 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K44" t="n">
-        <v>302.752934022246</v>
+        <v>756.3484258820594</v>
       </c>
       <c r="L44" t="n">
-        <v>951.7201651452608</v>
+        <v>0</v>
       </c>
       <c r="M44" t="n">
-        <v>951.7201651452608</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N44" t="n">
-        <v>951.7201651452606</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O44" t="n">
         <v>0</v>
       </c>
       <c r="P44" t="n">
-        <v>0</v>
+        <v>836.6766412458546</v>
       </c>
       <c r="Q44" t="n">
-        <v>0</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R44" t="n">
-        <v>170.8626916697544</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38090,16 +38092,16 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J45" t="n">
         <v>327.836691885063</v>
       </c>
       <c r="K45" t="n">
-        <v>687.6096162327045</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L45" t="n">
-        <v>0.03656536949893052</v>
+        <v>0</v>
       </c>
       <c r="M45" t="n">
         <v>0</v>
@@ -38172,7 +38174,7 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>87.45422743908065</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K46" t="n">
         <v>277.5337924960966</v>
@@ -38187,7 +38189,7 @@
         <v>446.7260637956006</v>
       </c>
       <c r="O46" t="n">
-        <v>423.9083325512945</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P46" t="n">
         <v>351.017064616507</v>

--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/100/Output_3_37.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/100/Output_3_37.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2352890.620111959</v>
+        <v>2352365.437742927</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>16612500.99216495</v>
+        <v>16612500.99216496</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>278692.0725916857</v>
+        <v>278692.0725916862</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>5464055.253583111</v>
+        <v>5464055.253583113</v>
       </c>
     </row>
     <row r="11">
@@ -658,7 +658,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>308.3086748172354</v>
+        <v>22.03657478005869</v>
       </c>
       <c r="C2" t="n">
         <v>33.76104808841092</v>
@@ -667,16 +667,16 @@
         <v>31.5506869772999</v>
       </c>
       <c r="E2" t="n">
-        <v>29.43699739328775</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="F2" t="n">
-        <v>23.58875529488432</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>75.79237968869504</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -715,19 +715,19 @@
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W2" t="n">
-        <v>400.806900043077</v>
+        <v>0.8069000430770075</v>
       </c>
       <c r="X2" t="n">
-        <v>414.9510387864824</v>
+        <v>14.9510387864824</v>
       </c>
       <c r="Y2" t="n">
-        <v>404.2032624633431</v>
+        <v>4.203262463343094</v>
       </c>
     </row>
     <row r="3">
@@ -816,7 +816,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>189.9004325317972</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
         <v>170.8360944016073</v>
@@ -828,16 +828,16 @@
         <v>168.0604237117701</v>
       </c>
       <c r="F4" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>163.9353622244306</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>138.5031525665292</v>
       </c>
       <c r="I4" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -864,7 +864,7 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
         <v>157.6489550149833</v>
@@ -873,19 +873,19 @@
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>95.17026115141006</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y4" t="n">
-        <v>209.5867542297959</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="5">
@@ -895,10 +895,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>422.0365747800587</v>
+        <v>22.03657478005869</v>
       </c>
       <c r="C5" t="n">
-        <v>433.7610480884109</v>
+        <v>203.5980875617422</v>
       </c>
       <c r="D5" t="n">
         <v>31.5506869772999</v>
@@ -910,7 +910,7 @@
         <v>23.58875529488432</v>
       </c>
       <c r="G5" t="n">
-        <v>397.3838530629687</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -946,16 +946,16 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W5" t="n">
         <v>400.806900043077</v>
@@ -964,7 +964,7 @@
         <v>414.9510387864824</v>
       </c>
       <c r="Y5" t="n">
-        <v>292.9592190290609</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="6">
@@ -1068,13 +1068,13 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G7" t="n">
-        <v>163.9353622244306</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1113,16 +1113,16 @@
         <v>275.6486707394257</v>
       </c>
       <c r="V7" t="n">
-        <v>284.0859530482738</v>
+        <v>143.2075541800588</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y7" t="n">
-        <v>206.2991880762769</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="8">
@@ -1132,28 +1132,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>422.0365747800587</v>
+        <v>22.03657478005869</v>
       </c>
       <c r="C8" t="n">
-        <v>433.7610480884109</v>
+        <v>33.76104808841092</v>
       </c>
       <c r="D8" t="n">
         <v>431.5506869772999</v>
       </c>
       <c r="E8" t="n">
-        <v>429.4369973932878</v>
+        <v>342.8793557357249</v>
       </c>
       <c r="F8" t="n">
-        <v>423.5887552948843</v>
+        <v>23.58875529488432</v>
       </c>
       <c r="G8" t="n">
-        <v>397.3838530629687</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1183,25 +1183,25 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W8" t="n">
-        <v>0.8069000430770075</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X8" t="n">
-        <v>14.9510387864824</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y8" t="n">
-        <v>36.97715937730158</v>
+        <v>4.203262463343094</v>
       </c>
     </row>
     <row r="9">
@@ -1290,7 +1290,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>72.13424985736026</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C10" t="n">
         <v>170.8360944016073</v>
@@ -1305,13 +1305,13 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G10" t="n">
-        <v>163.9353622244306</v>
+        <v>3.13954148002296</v>
       </c>
       <c r="H10" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1353,7 +1353,7 @@
         <v>284.0859530482738</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X10" t="n">
         <v>242.9378371199217</v>
@@ -1542,7 +1542,7 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G13" t="n">
-        <v>163.9353622244306</v>
+        <v>24.3431845617044</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -1578,7 +1578,7 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>18.05677735225751</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T13" t="n">
         <v>243.4206519573293</v>
@@ -1657,7 +1657,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>82.81535507800143</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T14" t="n">
         <v>217.8665548556918</v>
@@ -1776,16 +1776,16 @@
         <v>168.0604237117701</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G16" t="n">
         <v>163.9353622244306</v>
       </c>
       <c r="H16" t="n">
-        <v>35.34780583513515</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1821,10 +1821,10 @@
         <v>243.4206519573293</v>
       </c>
       <c r="U16" t="n">
-        <v>275.6486707394257</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>284.0859530482738</v>
+        <v>193.8659438253727</v>
       </c>
       <c r="W16" t="n">
         <v>269.3061403695714</v>
@@ -2049,10 +2049,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S19" t="n">
-        <v>18.05677735225751</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T19" t="n">
         <v>243.4206519573293</v>
@@ -2067,7 +2067,7 @@
         <v>269.3061403695714</v>
       </c>
       <c r="X19" t="n">
-        <v>242.9378371199217</v>
+        <v>82.14201637551371</v>
       </c>
       <c r="Y19" t="n">
         <v>225.1454739790328</v>
@@ -2101,7 +2101,7 @@
         <v>286.2388530112159</v>
       </c>
       <c r="I20" t="n">
-        <v>0.4126214791316623</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2131,7 +2131,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>82.81535507800136</v>
+        <v>82.81535507800233</v>
       </c>
       <c r="T20" t="n">
         <v>217.8665548556918</v>
@@ -2241,7 +2241,7 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D22" t="n">
         <v>164.2192128704925</v>
@@ -2259,7 +2259,7 @@
         <v>138.5031525665292</v>
       </c>
       <c r="I22" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2289,10 +2289,10 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S22" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>243.4206519573293</v>
+        <v>101.7706336613758</v>
       </c>
       <c r="U22" t="n">
         <v>275.6486707394257</v>
@@ -2301,7 +2301,7 @@
         <v>284.0859530482738</v>
       </c>
       <c r="W22" t="n">
-        <v>53.06991172717014</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X22" t="n">
         <v>242.9378371199217</v>
@@ -2475,10 +2475,10 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>189.9004325317972</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>170.8360944016073</v>
+        <v>169.8078304689392</v>
       </c>
       <c r="D25" t="n">
         <v>164.2192128704925</v>
@@ -2487,16 +2487,16 @@
         <v>168.0604237117701</v>
       </c>
       <c r="F25" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
         <v>163.9353622244306</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2526,7 +2526,7 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>18.05677735225751</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T25" t="n">
         <v>243.4206519573293</v>
@@ -2730,10 +2730,10 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H28" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2763,7 +2763,7 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>18.05677735225751</v>
       </c>
       <c r="T28" t="n">
         <v>243.4206519573293</v>
@@ -2778,7 +2778,7 @@
         <v>269.3061403695714</v>
       </c>
       <c r="X28" t="n">
-        <v>34.71811217257828</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y28" t="n">
         <v>225.1454739790328</v>
@@ -2967,7 +2967,7 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H31" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -2997,13 +2997,13 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>18.05677735225751</v>
       </c>
       <c r="T31" t="n">
-        <v>101.7706336613758</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U31" t="n">
         <v>275.6486707394257</v>
@@ -3286,7 +3286,7 @@
         <v>286.2388530112159</v>
       </c>
       <c r="I35" t="n">
-        <v>0.4126214791313976</v>
+        <v>0.4126214791325486</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3319,7 +3319,7 @@
         <v>82.81535507800136</v>
       </c>
       <c r="T35" t="n">
-        <v>217.8665548556926</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U35" t="n">
         <v>256.6300796561533</v>
@@ -3429,7 +3429,7 @@
         <v>170.8360944016073</v>
       </c>
       <c r="D37" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
         <v>168.0604237117701</v>
@@ -3441,10 +3441,10 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H37" t="n">
-        <v>138.5031525665292</v>
+        <v>73.29899740799657</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3471,13 +3471,13 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>122.9742767430576</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U37" t="n">
         <v>275.6486707394257</v>
@@ -3505,25 +3505,25 @@
         <v>422.0365747800587</v>
       </c>
       <c r="C38" t="n">
-        <v>433.761048088411</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D38" t="n">
-        <v>431.5506869773</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E38" t="n">
         <v>429.4369973932878</v>
       </c>
       <c r="F38" t="n">
-        <v>423.5887552948844</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G38" t="n">
-        <v>397.3838530629688</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H38" t="n">
-        <v>286.238853011216</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I38" t="n">
-        <v>0.4126214791314712</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3553,7 +3553,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>82.81535507800143</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T38" t="n">
         <v>217.8665548556918</v>
@@ -3562,16 +3562,16 @@
         <v>256.6300796561533</v>
       </c>
       <c r="V38" t="n">
-        <v>358.9907805655118</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W38" t="n">
-        <v>400.8069000430771</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X38" t="n">
-        <v>414.9510387864825</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y38" t="n">
-        <v>404.2032624633432</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="39">
@@ -3675,7 +3675,7 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G40" t="n">
-        <v>163.9353622244306</v>
+        <v>160.788496495006</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -3708,10 +3708,10 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S40" t="n">
-        <v>18.05677735225751</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
         <v>243.4206519573293</v>
@@ -3760,7 +3760,7 @@
         <v>286.2388530112159</v>
       </c>
       <c r="I41" t="n">
-        <v>0.4126214791313976</v>
+        <v>0.4126214791325486</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3906,7 +3906,7 @@
         <v>164.2192128704925</v>
       </c>
       <c r="E43" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
         <v>174.9399834978613</v>
@@ -3918,7 +3918,7 @@
         <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3945,13 +3945,13 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S43" t="n">
         <v>157.6489550149833</v>
       </c>
       <c r="T43" t="n">
-        <v>103.8284742946034</v>
+        <v>162.9119051916203</v>
       </c>
       <c r="U43" t="n">
         <v>275.6486707394257</v>
@@ -3982,10 +3982,10 @@
         <v>433.7610480884109</v>
       </c>
       <c r="D44" t="n">
-        <v>431.5506869773011</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E44" t="n">
-        <v>429.4369973932878</v>
+        <v>429.4369973932889</v>
       </c>
       <c r="F44" t="n">
         <v>423.5887552948843</v>
@@ -4140,7 +4140,7 @@
         <v>170.8360944016073</v>
       </c>
       <c r="D46" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
         <v>168.0604237117701</v>
@@ -4152,10 +4152,10 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>43.77283765622057</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4182,10 +4182,10 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
         <v>243.4206519573293</v>
@@ -4194,7 +4194,7 @@
         <v>275.6486707394257</v>
       </c>
       <c r="V46" t="n">
-        <v>123.29013230387</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W46" t="n">
         <v>269.3061403695714</v>
@@ -4203,7 +4203,7 @@
         <v>242.9378371199217</v>
       </c>
       <c r="Y46" t="n">
-        <v>225.1454739790288</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
   </sheetData>
@@ -4306,22 +4306,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>153.4764845146214</v>
+        <v>1032.922181297967</v>
       </c>
       <c r="C2" t="n">
-        <v>119.3744157384487</v>
+        <v>998.8201125217938</v>
       </c>
       <c r="D2" t="n">
-        <v>87.50503495329731</v>
+        <v>966.9507317366424</v>
       </c>
       <c r="E2" t="n">
-        <v>57.77069415199655</v>
+        <v>538.3690574739107</v>
       </c>
       <c r="F2" t="n">
-        <v>33.94366860160834</v>
+        <v>110.5016278831185</v>
       </c>
       <c r="G2" t="n">
-        <v>33.94366860160834</v>
+        <v>110.5016278831185</v>
       </c>
       <c r="H2" t="n">
         <v>33.94366860160834</v>
@@ -4333,19 +4333,19 @@
         <v>453.9965675465116</v>
       </c>
       <c r="K2" t="n">
-        <v>453.9965675465116</v>
+        <v>687.9235674375537</v>
       </c>
       <c r="L2" t="n">
-        <v>453.9965675465116</v>
+        <v>1107.976466382457</v>
       </c>
       <c r="M2" t="n">
-        <v>453.9965675465116</v>
+        <v>1107.976466382457</v>
       </c>
       <c r="N2" t="n">
-        <v>453.9965675465116</v>
+        <v>1107.976466382457</v>
       </c>
       <c r="O2" t="n">
-        <v>874.0494664914149</v>
+        <v>1107.976466382457</v>
       </c>
       <c r="P2" t="n">
         <v>1107.976466382457</v>
@@ -4363,19 +4363,19 @@
         <v>1697.183430080417</v>
       </c>
       <c r="U2" t="n">
-        <v>1697.183430080417</v>
+        <v>1437.961127397434</v>
       </c>
       <c r="V2" t="n">
-        <v>1697.183430080417</v>
+        <v>1075.344177331261</v>
       </c>
       <c r="W2" t="n">
-        <v>1292.327975491451</v>
+        <v>1074.529126782698</v>
       </c>
       <c r="X2" t="n">
-        <v>873.1855120707613</v>
+        <v>1059.427067402413</v>
       </c>
       <c r="Y2" t="n">
-        <v>464.8993883704147</v>
+        <v>1055.18134774247</v>
       </c>
     </row>
     <row r="3">
@@ -4388,7 +4388,7 @@
         <v>540.1154135929012</v>
       </c>
       <c r="C3" t="n">
-        <v>433.6589524295434</v>
+        <v>433.6589524295435</v>
       </c>
       <c r="D3" t="n">
         <v>338.5686635760967</v>
@@ -4415,16 +4415,16 @@
         <v>739.9048540962709</v>
       </c>
       <c r="L3" t="n">
-        <v>1159.957753041174</v>
+        <v>739.9048540962709</v>
       </c>
       <c r="M3" t="n">
-        <v>1159.957753041174</v>
+        <v>739.9048540962709</v>
       </c>
       <c r="N3" t="n">
-        <v>1159.957753041174</v>
+        <v>739.9048540962709</v>
       </c>
       <c r="O3" t="n">
-        <v>1159.957753041174</v>
+        <v>739.9048540962709</v>
       </c>
       <c r="P3" t="n">
         <v>1159.957753041174</v>
@@ -4464,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>1113.00182921349</v>
+        <v>682.043550975749</v>
       </c>
       <c r="C4" t="n">
-        <v>940.4401176967148</v>
+        <v>509.4818394589739</v>
       </c>
       <c r="D4" t="n">
-        <v>774.5621248982375</v>
+        <v>343.6038466604966</v>
       </c>
       <c r="E4" t="n">
-        <v>604.8041211489747</v>
+        <v>173.8458429112338</v>
       </c>
       <c r="F4" t="n">
-        <v>428.0970671107308</v>
+        <v>173.8458429112338</v>
       </c>
       <c r="G4" t="n">
-        <v>262.5057921365585</v>
+        <v>173.8458429112338</v>
       </c>
       <c r="H4" t="n">
-        <v>122.603617826933</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="I4" t="n">
         <v>33.94366860160834</v>
       </c>
       <c r="J4" t="n">
-        <v>33.94366860160834</v>
+        <v>120.5233537662982</v>
       </c>
       <c r="K4" t="n">
-        <v>33.94366860160834</v>
+        <v>120.5233537662982</v>
       </c>
       <c r="L4" t="n">
-        <v>437.4083829648294</v>
+        <v>538.7332355342593</v>
       </c>
       <c r="M4" t="n">
-        <v>857.4612819097326</v>
+        <v>958.7861344791625</v>
       </c>
       <c r="N4" t="n">
-        <v>1277.514180854636</v>
+        <v>1378.839033424066</v>
       </c>
       <c r="O4" t="n">
-        <v>1697.183430080417</v>
+        <v>1378.839033424066</v>
       </c>
       <c r="P4" t="n">
-        <v>1697.183430080417</v>
+        <v>1528.990655216085</v>
       </c>
       <c r="Q4" t="n">
         <v>1697.183430080417</v>
       </c>
       <c r="R4" t="n">
-        <v>1675.765608785789</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="S4" t="n">
-        <v>1516.524240083786</v>
+        <v>1537.942061378414</v>
       </c>
       <c r="T4" t="n">
-        <v>1516.524240083786</v>
+        <v>1537.942061378414</v>
       </c>
       <c r="U4" t="n">
-        <v>1516.524240083786</v>
+        <v>1441.810484457798</v>
       </c>
       <c r="V4" t="n">
-        <v>1516.524240083786</v>
+        <v>1154.854976328228</v>
       </c>
       <c r="W4" t="n">
-        <v>1516.524240083786</v>
+        <v>1154.854976328228</v>
       </c>
       <c r="X4" t="n">
-        <v>1516.524240083786</v>
+        <v>909.4632216616408</v>
       </c>
       <c r="Y4" t="n">
-        <v>1304.820447932477</v>
+        <v>682.043550975749</v>
       </c>
     </row>
     <row r="5">
@@ -4543,76 +4543,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>975.4034379196303</v>
+        <v>341.5177676270671</v>
       </c>
       <c r="C5" t="n">
-        <v>537.2609651030536</v>
+        <v>135.8631337263175</v>
       </c>
       <c r="D5" t="n">
-        <v>505.3915843179022</v>
+        <v>103.9937529411661</v>
       </c>
       <c r="E5" t="n">
-        <v>475.6572435166014</v>
+        <v>74.2594121398653</v>
       </c>
       <c r="F5" t="n">
-        <v>451.8302179662132</v>
+        <v>50.43238658947709</v>
       </c>
       <c r="G5" t="n">
-        <v>50.43238658947704</v>
+        <v>50.43238658947709</v>
       </c>
       <c r="H5" t="n">
-        <v>50.43238658947704</v>
+        <v>50.43238658947709</v>
       </c>
       <c r="I5" t="n">
-        <v>50.43238658947704</v>
+        <v>50.43238658947709</v>
       </c>
       <c r="J5" t="n">
-        <v>50.43238658947704</v>
+        <v>102.8181913809229</v>
       </c>
       <c r="K5" t="n">
-        <v>50.43238658947704</v>
+        <v>726.9189754257019</v>
       </c>
       <c r="L5" t="n">
-        <v>674.5331706342554</v>
+        <v>726.9189754257019</v>
       </c>
       <c r="M5" t="n">
-        <v>1298.633954679033</v>
+        <v>726.9189754257019</v>
       </c>
       <c r="N5" t="n">
-        <v>1922.734738723812</v>
+        <v>726.9189754257019</v>
       </c>
       <c r="O5" t="n">
-        <v>2521.619329473852</v>
+        <v>1351.019759470481</v>
       </c>
       <c r="P5" t="n">
-        <v>2521.619329473852</v>
+        <v>1975.12054351526</v>
       </c>
       <c r="Q5" t="n">
-        <v>2521.619329473852</v>
+        <v>2521.619329473855</v>
       </c>
       <c r="R5" t="n">
-        <v>2521.619329473852</v>
+        <v>2521.619329473855</v>
       </c>
       <c r="S5" t="n">
-        <v>2521.619329473852</v>
+        <v>2437.967455657692</v>
       </c>
       <c r="T5" t="n">
-        <v>2521.619329473852</v>
+        <v>2217.90022853073</v>
       </c>
       <c r="U5" t="n">
-        <v>2521.619329473852</v>
+        <v>1958.677925847747</v>
       </c>
       <c r="V5" t="n">
-        <v>2521.619329473852</v>
+        <v>1596.060975781573</v>
       </c>
       <c r="W5" t="n">
-        <v>2116.763874884885</v>
+        <v>1191.205521192607</v>
       </c>
       <c r="X5" t="n">
-        <v>1697.621411464196</v>
+        <v>772.0630577719174</v>
       </c>
       <c r="Y5" t="n">
-        <v>1401.703008404538</v>
+        <v>363.7769340715708</v>
       </c>
     </row>
     <row r="6">
@@ -4637,37 +4637,37 @@
         <v>177.5531285070807</v>
       </c>
       <c r="G6" t="n">
-        <v>92.16803877326457</v>
+        <v>92.16803877326461</v>
       </c>
       <c r="H6" t="n">
-        <v>50.43238658947704</v>
+        <v>50.43238658947709</v>
       </c>
       <c r="I6" t="n">
-        <v>76.49605974993464</v>
+        <v>76.49605974993469</v>
       </c>
       <c r="J6" t="n">
         <v>401.054384716147</v>
       </c>
       <c r="K6" t="n">
-        <v>465.4705799787295</v>
+        <v>1025.155168760926</v>
       </c>
       <c r="L6" t="n">
-        <v>465.4705799787295</v>
+        <v>1025.155168760926</v>
       </c>
       <c r="M6" t="n">
-        <v>465.4705799787295</v>
+        <v>1055.760431341871</v>
       </c>
       <c r="N6" t="n">
-        <v>1089.571364023508</v>
+        <v>1055.760431341871</v>
       </c>
       <c r="O6" t="n">
-        <v>1713.672148068286</v>
+        <v>1055.760431341871</v>
       </c>
       <c r="P6" t="n">
-        <v>1713.672148068286</v>
+        <v>1055.760431341871</v>
       </c>
       <c r="Q6" t="n">
-        <v>1713.672148068286</v>
+        <v>1596.499369973946</v>
       </c>
       <c r="R6" t="n">
         <v>1713.672148068286</v>
@@ -4701,76 +4701,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>1129.490547201358</v>
+        <v>735.337148692236</v>
       </c>
       <c r="C7" t="n">
-        <v>956.9288356845833</v>
+        <v>562.775437175461</v>
       </c>
       <c r="D7" t="n">
-        <v>791.050842886106</v>
+        <v>396.8974443769836</v>
       </c>
       <c r="E7" t="n">
-        <v>621.2928391368433</v>
+        <v>227.1394406277209</v>
       </c>
       <c r="F7" t="n">
-        <v>444.5857850985995</v>
+        <v>50.43238658947709</v>
       </c>
       <c r="G7" t="n">
-        <v>278.9945101244272</v>
+        <v>50.43238658947709</v>
       </c>
       <c r="H7" t="n">
-        <v>139.0923358148017</v>
+        <v>50.43238658947709</v>
       </c>
       <c r="I7" t="n">
-        <v>50.43238658947704</v>
+        <v>50.43238658947709</v>
       </c>
       <c r="J7" t="n">
-        <v>137.0120717541669</v>
+        <v>50.43238658947709</v>
       </c>
       <c r="K7" t="n">
-        <v>411.7705263253025</v>
+        <v>325.1908411606127</v>
       </c>
       <c r="L7" t="n">
-        <v>829.9804080932636</v>
+        <v>743.4007229285737</v>
       </c>
       <c r="M7" t="n">
-        <v>1143.991608255752</v>
+        <v>1202.884590109487</v>
       </c>
       <c r="N7" t="n">
-        <v>1586.250411413396</v>
+        <v>1645.143393267131</v>
       </c>
       <c r="O7" t="n">
-        <v>2005.919660639178</v>
+        <v>2064.812642492913</v>
       </c>
       <c r="P7" t="n">
-        <v>2353.42655460952</v>
+        <v>2353.426554609523</v>
       </c>
       <c r="Q7" t="n">
-        <v>2521.619329473852</v>
+        <v>2521.619329473855</v>
       </c>
       <c r="R7" t="n">
-        <v>2500.201508179224</v>
+        <v>2500.201508179226</v>
       </c>
       <c r="S7" t="n">
-        <v>2340.96013947722</v>
+        <v>2340.960139477223</v>
       </c>
       <c r="T7" t="n">
-        <v>2095.080693055676</v>
+        <v>2095.080693055678</v>
       </c>
       <c r="U7" t="n">
-        <v>1816.647692308781</v>
+        <v>1816.647692308783</v>
       </c>
       <c r="V7" t="n">
-        <v>1529.692184179211</v>
+        <v>1671.993597177411</v>
       </c>
       <c r="W7" t="n">
-        <v>1529.692184179211</v>
+        <v>1399.967192763703</v>
       </c>
       <c r="X7" t="n">
-        <v>1529.692184179211</v>
+        <v>1154.575438097115</v>
       </c>
       <c r="Y7" t="n">
-        <v>1321.309165920346</v>
+        <v>927.1557674112232</v>
       </c>
     </row>
     <row r="8">
@@ -4780,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>2190.493479979994</v>
+        <v>893.9996686250441</v>
       </c>
       <c r="C8" t="n">
-        <v>1752.351007163417</v>
+        <v>859.8975998488716</v>
       </c>
       <c r="D8" t="n">
-        <v>1316.441222337862</v>
+        <v>423.987815023316</v>
       </c>
       <c r="E8" t="n">
-        <v>882.6664774961569</v>
+        <v>77.64503145187676</v>
       </c>
       <c r="F8" t="n">
-        <v>454.7990479053647</v>
+        <v>53.81800590148855</v>
       </c>
       <c r="G8" t="n">
-        <v>53.40121652862856</v>
+        <v>53.81800590148855</v>
       </c>
       <c r="H8" t="n">
-        <v>53.40121652862856</v>
+        <v>53.81800590148855</v>
       </c>
       <c r="I8" t="n">
         <v>53.40121652862856</v>
       </c>
       <c r="J8" t="n">
-        <v>488.6559039815464</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="K8" t="n">
-        <v>1149.495958523325</v>
+        <v>714.2412710704069</v>
       </c>
       <c r="L8" t="n">
-        <v>1293.567921177998</v>
+        <v>1375.081325612185</v>
       </c>
       <c r="M8" t="n">
-        <v>1293.567921177998</v>
+        <v>2035.921380153963</v>
       </c>
       <c r="N8" t="n">
-        <v>1293.567921177998</v>
+        <v>2035.921380153963</v>
       </c>
       <c r="O8" t="n">
-        <v>1293.567921177998</v>
+        <v>2035.921380153963</v>
       </c>
       <c r="P8" t="n">
-        <v>1954.407975719776</v>
+        <v>2035.921380153963</v>
       </c>
       <c r="Q8" t="n">
-        <v>2500.906761678371</v>
+        <v>2582.420166112558</v>
       </c>
       <c r="R8" t="n">
         <v>2670.060826431428</v>
       </c>
       <c r="S8" t="n">
-        <v>2670.060826431428</v>
+        <v>2586.408952615265</v>
       </c>
       <c r="T8" t="n">
-        <v>2670.060826431428</v>
+        <v>2366.341725488303</v>
       </c>
       <c r="U8" t="n">
-        <v>2670.060826431428</v>
+        <v>2107.11942280532</v>
       </c>
       <c r="V8" t="n">
-        <v>2670.060826431428</v>
+        <v>1744.502472739146</v>
       </c>
       <c r="W8" t="n">
-        <v>2669.245775882865</v>
+        <v>1339.64701815018</v>
       </c>
       <c r="X8" t="n">
-        <v>2654.14371650258</v>
+        <v>920.5045547294905</v>
       </c>
       <c r="Y8" t="n">
-        <v>2616.793050464902</v>
+        <v>916.2588350695479</v>
       </c>
     </row>
     <row r="9">
@@ -4889,19 +4889,19 @@
         <v>404.0232146552985</v>
       </c>
       <c r="L9" t="n">
-        <v>1064.863269197077</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="M9" t="n">
-        <v>1064.863269197077</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="N9" t="n">
-        <v>1064.863269197077</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="O9" t="n">
-        <v>1064.863269197077</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="P9" t="n">
-        <v>1064.863269197077</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="Q9" t="n">
         <v>1599.468199913098</v>
@@ -4938,25 +4938,25 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>1132.45937714051</v>
+        <v>741.4772326516127</v>
       </c>
       <c r="C10" t="n">
-        <v>959.897665623735</v>
+        <v>568.9155211348376</v>
       </c>
       <c r="D10" t="n">
-        <v>794.0196728252577</v>
+        <v>403.0375283363603</v>
       </c>
       <c r="E10" t="n">
-        <v>624.2616690759949</v>
+        <v>233.2795245870976</v>
       </c>
       <c r="F10" t="n">
-        <v>447.554615037751</v>
+        <v>56.57247054885377</v>
       </c>
       <c r="G10" t="n">
-        <v>281.9633400635787</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="H10" t="n">
-        <v>142.0611657539532</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I10" t="n">
         <v>53.40121652862856</v>
@@ -5001,13 +5001,13 @@
         <v>1678.133681136788</v>
       </c>
       <c r="W10" t="n">
-        <v>1678.133681136788</v>
+        <v>1406.107276723079</v>
       </c>
       <c r="X10" t="n">
-        <v>1432.7419264702</v>
+        <v>1160.715522056492</v>
       </c>
       <c r="Y10" t="n">
-        <v>1205.322255784308</v>
+        <v>933.2958513705998</v>
       </c>
     </row>
     <row r="11">
@@ -5050,19 +5050,19 @@
         <v>2446.925785934734</v>
       </c>
       <c r="M11" t="n">
-        <v>2588.899621423627</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="N11" t="n">
-        <v>2588.899621423627</v>
+        <v>2758.053686176683</v>
       </c>
       <c r="O11" t="n">
-        <v>3569.079287993933</v>
+        <v>3738.23335274699</v>
       </c>
       <c r="P11" t="n">
-        <v>4397.38916282733</v>
+        <v>4566.543227580386</v>
       </c>
       <c r="Q11" t="n">
-        <v>4943.887948785924</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="R11" t="n">
         <v>5113.04201353898</v>
@@ -5117,31 +5117,31 @@
         <v>102.2608402707796</v>
       </c>
       <c r="I12" t="n">
-        <v>102.2608402707796</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J12" t="n">
-        <v>102.2608402707796</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K12" t="n">
-        <v>102.2608402707796</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="L12" t="n">
-        <v>1056.803889081883</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="M12" t="n">
-        <v>1765.500601749588</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="N12" t="n">
-        <v>1765.500601749588</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="O12" t="n">
-        <v>1765.500601749588</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P12" t="n">
-        <v>1765.500601749588</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q12" t="n">
-        <v>1765.500601749588</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R12" t="n">
         <v>1765.500601749588</v>
@@ -5175,19 +5175,19 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>952.7568773477108</v>
+        <v>811.7546776883914</v>
       </c>
       <c r="C13" t="n">
-        <v>780.1951658309357</v>
+        <v>639.1929661716164</v>
       </c>
       <c r="D13" t="n">
-        <v>614.3171730324584</v>
+        <v>473.3149733731391</v>
       </c>
       <c r="E13" t="n">
-        <v>444.5591692831957</v>
+        <v>303.5569696238763</v>
       </c>
       <c r="F13" t="n">
-        <v>267.852115244952</v>
+        <v>126.8499155856325</v>
       </c>
       <c r="G13" t="n">
         <v>102.2608402707796</v>
@@ -5226,25 +5226,25 @@
         <v>2718.920450173579</v>
       </c>
       <c r="S13" t="n">
-        <v>2700.681281130895</v>
+        <v>2559.679081471576</v>
       </c>
       <c r="T13" t="n">
-        <v>2454.80183470935</v>
+        <v>2313.799635050031</v>
       </c>
       <c r="U13" t="n">
-        <v>2176.368833962455</v>
+        <v>2035.366634303136</v>
       </c>
       <c r="V13" t="n">
-        <v>1889.413325832886</v>
+        <v>1748.411126173566</v>
       </c>
       <c r="W13" t="n">
-        <v>1617.386921419177</v>
+        <v>1476.384721759858</v>
       </c>
       <c r="X13" t="n">
-        <v>1371.99516675259</v>
+        <v>1230.99296709327</v>
       </c>
       <c r="Y13" t="n">
-        <v>1144.575496066698</v>
+        <v>1003.573296407379</v>
       </c>
     </row>
     <row r="14">
@@ -5269,7 +5269,7 @@
         <v>793.2056155771595</v>
       </c>
       <c r="G14" t="n">
-        <v>391.8077842004233</v>
+        <v>391.8077842004234</v>
       </c>
       <c r="H14" t="n">
         <v>102.6776296436396</v>
@@ -5287,13 +5287,13 @@
         <v>2446.925785934734</v>
       </c>
       <c r="M14" t="n">
-        <v>2588.899621423627</v>
+        <v>3603.973621145286</v>
       </c>
       <c r="N14" t="n">
-        <v>2588.899621423627</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="O14" t="n">
-        <v>3569.079287993933</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="P14" t="n">
         <v>4397.38916282733</v>
@@ -5317,7 +5317,7 @@
         <v>4187.483659846699</v>
       </c>
       <c r="W14" t="n">
-        <v>3782.628205257732</v>
+        <v>3782.628205257733</v>
       </c>
       <c r="X14" t="n">
         <v>3363.485741837043</v>
@@ -5360,19 +5360,19 @@
         <v>452.8828383974496</v>
       </c>
       <c r="K15" t="n">
-        <v>452.8828383974496</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L15" t="n">
-        <v>452.8828383974496</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M15" t="n">
-        <v>452.8828383974496</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N15" t="n">
-        <v>452.8828383974496</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O15" t="n">
-        <v>452.8828383974496</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P15" t="n">
         <v>1107.588885023173</v>
@@ -5412,25 +5412,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>811.7546776883914</v>
+        <v>1181.319000882661</v>
       </c>
       <c r="C16" t="n">
-        <v>639.1929661716164</v>
+        <v>1008.757289365886</v>
       </c>
       <c r="D16" t="n">
-        <v>473.3149733731391</v>
+        <v>842.8792965674086</v>
       </c>
       <c r="E16" t="n">
-        <v>303.5569696238763</v>
+        <v>673.1212928181459</v>
       </c>
       <c r="F16" t="n">
-        <v>303.5569696238763</v>
+        <v>496.4142387799021</v>
       </c>
       <c r="G16" t="n">
-        <v>137.965694649704</v>
+        <v>330.8229638057297</v>
       </c>
       <c r="H16" t="n">
-        <v>102.2608402707796</v>
+        <v>190.9207894961043</v>
       </c>
       <c r="I16" t="n">
         <v>102.2608402707796</v>
@@ -5469,19 +5469,19 @@
         <v>2313.799635050031</v>
       </c>
       <c r="U16" t="n">
-        <v>2035.366634303136</v>
+        <v>2313.799635050031</v>
       </c>
       <c r="V16" t="n">
-        <v>1748.411126173566</v>
+        <v>2117.975449367836</v>
       </c>
       <c r="W16" t="n">
-        <v>1476.384721759858</v>
+        <v>1845.949044954127</v>
       </c>
       <c r="X16" t="n">
-        <v>1230.99296709327</v>
+        <v>1600.55729028754</v>
       </c>
       <c r="Y16" t="n">
-        <v>1003.573296407379</v>
+        <v>1373.137619601648</v>
       </c>
     </row>
     <row r="17">
@@ -5524,19 +5524,19 @@
         <v>2446.925785934734</v>
       </c>
       <c r="M17" t="n">
-        <v>2446.925785934734</v>
+        <v>2758.053686176683</v>
       </c>
       <c r="N17" t="n">
-        <v>2588.899621423627</v>
+        <v>2758.053686176683</v>
       </c>
       <c r="O17" t="n">
-        <v>3569.079287993933</v>
+        <v>3738.23335274699</v>
       </c>
       <c r="P17" t="n">
-        <v>4397.38916282733</v>
+        <v>4566.543227580386</v>
       </c>
       <c r="Q17" t="n">
-        <v>4943.887948785924</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="R17" t="n">
         <v>5113.04201353898</v>
@@ -5597,19 +5597,19 @@
         <v>452.8828383974496</v>
       </c>
       <c r="K18" t="n">
-        <v>452.8828383974496</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L18" t="n">
-        <v>452.8828383974496</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M18" t="n">
-        <v>452.8828383974496</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N18" t="n">
-        <v>452.8828383974496</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O18" t="n">
-        <v>452.8828383974496</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P18" t="n">
         <v>1107.588885023173</v>
@@ -5697,22 +5697,22 @@
         <v>2718.920450173579</v>
       </c>
       <c r="R19" t="n">
-        <v>2718.920450173579</v>
+        <v>2697.502628878951</v>
       </c>
       <c r="S19" t="n">
-        <v>2700.681281130895</v>
+        <v>2538.261260176947</v>
       </c>
       <c r="T19" t="n">
-        <v>2454.80183470935</v>
+        <v>2292.381813755403</v>
       </c>
       <c r="U19" t="n">
-        <v>2176.368833962455</v>
+        <v>2013.948813008508</v>
       </c>
       <c r="V19" t="n">
-        <v>1889.413325832886</v>
+        <v>1726.993304878938</v>
       </c>
       <c r="W19" t="n">
-        <v>1617.386921419177</v>
+        <v>1454.96690046523</v>
       </c>
       <c r="X19" t="n">
         <v>1371.99516675259</v>
@@ -5740,43 +5740,43 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F20" t="n">
-        <v>793.2056155771597</v>
+        <v>793.2056155771595</v>
       </c>
       <c r="G20" t="n">
-        <v>391.8077842004236</v>
+        <v>391.8077842004234</v>
       </c>
       <c r="H20" t="n">
-        <v>102.6776296436399</v>
+        <v>102.6776296436396</v>
       </c>
       <c r="I20" t="n">
         <v>102.2608402707796</v>
       </c>
       <c r="J20" t="n">
-        <v>102.2608402707796</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="K20" t="n">
-        <v>775.0235620688169</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="L20" t="n">
-        <v>1850.083528321676</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="M20" t="n">
-        <v>3007.131363532227</v>
+        <v>2588.899621423628</v>
       </c>
       <c r="N20" t="n">
-        <v>4132.862346968674</v>
+        <v>2588.899621423628</v>
       </c>
       <c r="O20" t="n">
-        <v>5113.04201353898</v>
+        <v>3569.079287993934</v>
       </c>
       <c r="P20" t="n">
-        <v>5113.04201353898</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q20" t="n">
-        <v>5113.04201353898</v>
+        <v>4943.887948785925</v>
       </c>
       <c r="R20" t="n">
-        <v>5113.04201353898</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="S20" t="n">
         <v>5029.390139722817</v>
@@ -5791,13 +5791,13 @@
         <v>4187.483659846699</v>
       </c>
       <c r="W20" t="n">
-        <v>3782.628205257733</v>
+        <v>3782.628205257732</v>
       </c>
       <c r="X20" t="n">
         <v>3363.485741837043</v>
       </c>
       <c r="Y20" t="n">
-        <v>2955.199618136697</v>
+        <v>2955.199618136696</v>
       </c>
     </row>
     <row r="21">
@@ -5828,31 +5828,31 @@
         <v>102.2608402707796</v>
       </c>
       <c r="I21" t="n">
-        <v>102.2608402707796</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J21" t="n">
-        <v>102.2608402707796</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K21" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L21" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M21" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N21" t="n">
-        <v>751.6989919312866</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O21" t="n">
-        <v>1765.500601749588</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P21" t="n">
-        <v>1765.500601749588</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q21" t="n">
-        <v>1765.500601749588</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R21" t="n">
         <v>1765.500601749588</v>
@@ -5886,25 +5886,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>1008.757289365886</v>
+        <v>1092.659051657336</v>
       </c>
       <c r="C22" t="n">
-        <v>1008.757289365886</v>
+        <v>920.0973401405612</v>
       </c>
       <c r="D22" t="n">
-        <v>842.8792965674086</v>
+        <v>754.2193473420839</v>
       </c>
       <c r="E22" t="n">
-        <v>673.1212928181459</v>
+        <v>584.4613435928212</v>
       </c>
       <c r="F22" t="n">
-        <v>496.4142387799021</v>
+        <v>407.7542895545774</v>
       </c>
       <c r="G22" t="n">
-        <v>330.8229638057297</v>
+        <v>242.1630145804051</v>
       </c>
       <c r="H22" t="n">
-        <v>190.9207894961043</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I22" t="n">
         <v>102.2608402707796</v>
@@ -5937,25 +5937,25 @@
         <v>2697.502628878951</v>
       </c>
       <c r="S22" t="n">
-        <v>2538.261260176947</v>
+        <v>2697.502628878951</v>
       </c>
       <c r="T22" t="n">
-        <v>2292.381813755403</v>
+        <v>2594.704009018975</v>
       </c>
       <c r="U22" t="n">
-        <v>2013.948813008508</v>
+        <v>2316.271008272081</v>
       </c>
       <c r="V22" t="n">
-        <v>1726.993304878938</v>
+        <v>2029.315500142511</v>
       </c>
       <c r="W22" t="n">
-        <v>1673.387333437352</v>
+        <v>1757.289095728803</v>
       </c>
       <c r="X22" t="n">
-        <v>1427.995578770765</v>
+        <v>1511.897341062215</v>
       </c>
       <c r="Y22" t="n">
-        <v>1200.575908084873</v>
+        <v>1284.477670376323</v>
       </c>
     </row>
     <row r="23">
@@ -5977,13 +5977,13 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F23" t="n">
-        <v>793.2056155771594</v>
+        <v>793.2056155771597</v>
       </c>
       <c r="G23" t="n">
-        <v>391.8077842004234</v>
+        <v>391.8077842004232</v>
       </c>
       <c r="H23" t="n">
-        <v>102.6776296436396</v>
+        <v>102.6776296436392</v>
       </c>
       <c r="I23" t="n">
         <v>102.2608402707796</v>
@@ -5995,10 +5995,10 @@
         <v>1371.865819681875</v>
       </c>
       <c r="L23" t="n">
-        <v>1371.865819681875</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="M23" t="n">
-        <v>1463.16863798718</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="N23" t="n">
         <v>2588.899621423627</v>
@@ -6028,13 +6028,13 @@
         <v>4187.483659846699</v>
       </c>
       <c r="W23" t="n">
-        <v>3782.628205257732</v>
+        <v>3782.628205257733</v>
       </c>
       <c r="X23" t="n">
         <v>3363.485741837043</v>
       </c>
       <c r="Y23" t="n">
-        <v>2955.199618136696</v>
+        <v>2955.199618136697</v>
       </c>
     </row>
     <row r="24">
@@ -6065,31 +6065,31 @@
         <v>102.2608402707796</v>
       </c>
       <c r="I24" t="n">
-        <v>102.2608402707796</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J24" t="n">
-        <v>102.2608402707796</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K24" t="n">
-        <v>405.0384966383147</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L24" t="n">
-        <v>405.0384966383147</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M24" t="n">
-        <v>405.0384966383147</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N24" t="n">
-        <v>405.0384966383147</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O24" t="n">
-        <v>405.0384966383147</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P24" t="n">
-        <v>1224.761663117513</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q24" t="n">
-        <v>1765.500601749588</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R24" t="n">
         <v>1765.500601749588</v>
@@ -6123,25 +6123,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>952.7568773477108</v>
+        <v>1003.573296407379</v>
       </c>
       <c r="C25" t="n">
-        <v>780.1951658309357</v>
+        <v>832.0502353276421</v>
       </c>
       <c r="D25" t="n">
-        <v>614.3171730324584</v>
+        <v>666.1722425291648</v>
       </c>
       <c r="E25" t="n">
-        <v>444.5591692831957</v>
+        <v>496.4142387799021</v>
       </c>
       <c r="F25" t="n">
-        <v>267.852115244952</v>
+        <v>496.4142387799021</v>
       </c>
       <c r="G25" t="n">
-        <v>102.2608402707796</v>
+        <v>330.8229638057298</v>
       </c>
       <c r="H25" t="n">
-        <v>102.2608402707796</v>
+        <v>190.9207894961043</v>
       </c>
       <c r="I25" t="n">
         <v>102.2608402707796</v>
@@ -6174,25 +6174,25 @@
         <v>2718.920450173579</v>
       </c>
       <c r="S25" t="n">
-        <v>2700.681281130895</v>
+        <v>2559.679081471576</v>
       </c>
       <c r="T25" t="n">
-        <v>2454.80183470935</v>
+        <v>2313.799635050031</v>
       </c>
       <c r="U25" t="n">
-        <v>2176.368833962455</v>
+        <v>2035.366634303136</v>
       </c>
       <c r="V25" t="n">
-        <v>1889.413325832886</v>
+        <v>1748.411126173566</v>
       </c>
       <c r="W25" t="n">
-        <v>1617.386921419177</v>
+        <v>1476.384721759858</v>
       </c>
       <c r="X25" t="n">
-        <v>1371.99516675259</v>
+        <v>1230.99296709327</v>
       </c>
       <c r="Y25" t="n">
-        <v>1144.575496066698</v>
+        <v>1003.573296407379</v>
       </c>
     </row>
     <row r="26">
@@ -6214,13 +6214,13 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F26" t="n">
-        <v>793.2056155771595</v>
+        <v>793.2056155771597</v>
       </c>
       <c r="G26" t="n">
-        <v>391.8077842004234</v>
+        <v>391.8077842004232</v>
       </c>
       <c r="H26" t="n">
-        <v>102.6776296436396</v>
+        <v>102.6776296436392</v>
       </c>
       <c r="I26" t="n">
         <v>102.2608402707796</v>
@@ -6232,10 +6232,10 @@
         <v>1371.865819681875</v>
       </c>
       <c r="L26" t="n">
-        <v>1371.865819681875</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="M26" t="n">
-        <v>1463.16863798718</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="N26" t="n">
         <v>2588.899621423627</v>
@@ -6265,13 +6265,13 @@
         <v>4187.483659846699</v>
       </c>
       <c r="W26" t="n">
-        <v>3782.628205257732</v>
+        <v>3782.628205257733</v>
       </c>
       <c r="X26" t="n">
         <v>3363.485741837043</v>
       </c>
       <c r="Y26" t="n">
-        <v>2955.199618136696</v>
+        <v>2955.199618136697</v>
       </c>
     </row>
     <row r="27">
@@ -6281,76 +6281,76 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>3955.973997051466</v>
+        <v>608.4325852620724</v>
       </c>
       <c r="C27" t="n">
-        <v>3849.517535888108</v>
+        <v>501.9761240987147</v>
       </c>
       <c r="D27" t="n">
-        <v>3754.427247034661</v>
+        <v>406.885835245268</v>
       </c>
       <c r="E27" t="n">
-        <v>3660.306832361615</v>
+        <v>312.7654205722217</v>
       </c>
       <c r="F27" t="n">
-        <v>3576.922993977777</v>
+        <v>229.3815821883833</v>
       </c>
       <c r="G27" t="n">
-        <v>3491.53790424396</v>
+        <v>143.9964924545671</v>
       </c>
       <c r="H27" t="n">
-        <v>3449.802252060173</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I27" t="n">
-        <v>3475.865925220631</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J27" t="n">
-        <v>3800.424250186843</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K27" t="n">
-        <v>4455.130296812566</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L27" t="n">
-        <v>4455.130296812566</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M27" t="n">
-        <v>4455.130296812566</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N27" t="n">
-        <v>4455.130296812566</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O27" t="n">
-        <v>4455.130296812566</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P27" t="n">
-        <v>4455.130296812566</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q27" t="n">
-        <v>4995.869235444641</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R27" t="n">
-        <v>5113.042013538981</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="S27" t="n">
-        <v>5049.586575987364</v>
+        <v>1702.045164197971</v>
       </c>
       <c r="T27" t="n">
-        <v>4919.407932317966</v>
+        <v>1571.866520528573</v>
       </c>
       <c r="U27" t="n">
-        <v>4743.071385317934</v>
+        <v>1395.529973528541</v>
       </c>
       <c r="V27" t="n">
-        <v>4543.953867379933</v>
+        <v>1196.412455590541</v>
       </c>
       <c r="W27" t="n">
-        <v>4358.631113113128</v>
+        <v>1011.089701323735</v>
       </c>
       <c r="X27" t="n">
-        <v>4203.763677352008</v>
+        <v>856.2222655626148</v>
       </c>
       <c r="Y27" t="n">
-        <v>4077.277898131229</v>
+        <v>729.7364863418355</v>
       </c>
     </row>
     <row r="28">
@@ -6360,25 +6360,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>1181.319000882661</v>
+        <v>952.7568773477108</v>
       </c>
       <c r="C28" t="n">
-        <v>1008.757289365886</v>
+        <v>780.1951658309357</v>
       </c>
       <c r="D28" t="n">
-        <v>842.8792965674086</v>
+        <v>614.3171730324584</v>
       </c>
       <c r="E28" t="n">
-        <v>673.1212928181459</v>
+        <v>444.5591692831957</v>
       </c>
       <c r="F28" t="n">
-        <v>496.4142387799021</v>
+        <v>267.852115244952</v>
       </c>
       <c r="G28" t="n">
-        <v>330.8229638057298</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="H28" t="n">
-        <v>190.9207894961043</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I28" t="n">
         <v>102.2608402707796</v>
@@ -6411,25 +6411,25 @@
         <v>2718.920450173579</v>
       </c>
       <c r="S28" t="n">
-        <v>2718.920450173579</v>
+        <v>2700.681281130895</v>
       </c>
       <c r="T28" t="n">
-        <v>2473.041003752034</v>
+        <v>2454.80183470935</v>
       </c>
       <c r="U28" t="n">
-        <v>2194.608003005139</v>
+        <v>2176.368833962455</v>
       </c>
       <c r="V28" t="n">
-        <v>1907.65249487557</v>
+        <v>1889.413325832886</v>
       </c>
       <c r="W28" t="n">
-        <v>1635.626090461861</v>
+        <v>1617.386921419177</v>
       </c>
       <c r="X28" t="n">
-        <v>1600.55729028754</v>
+        <v>1371.99516675259</v>
       </c>
       <c r="Y28" t="n">
-        <v>1373.137619601648</v>
+        <v>1144.575496066698</v>
       </c>
     </row>
     <row r="29">
@@ -6451,40 +6451,40 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F29" t="n">
-        <v>793.2056155771595</v>
+        <v>793.2056155771597</v>
       </c>
       <c r="G29" t="n">
-        <v>391.8077842004234</v>
+        <v>391.8077842004232</v>
       </c>
       <c r="H29" t="n">
-        <v>102.6776296436396</v>
+        <v>102.6776296436392</v>
       </c>
       <c r="I29" t="n">
         <v>102.2608402707796</v>
       </c>
       <c r="J29" t="n">
-        <v>102.2608402707796</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="K29" t="n">
-        <v>936.6111322289576</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="L29" t="n">
-        <v>2011.671098481817</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="M29" t="n">
-        <v>3168.718933692368</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="N29" t="n">
-        <v>3168.718933692368</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="O29" t="n">
-        <v>3738.23335274699</v>
+        <v>3569.079287993933</v>
       </c>
       <c r="P29" t="n">
-        <v>4566.543227580386</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q29" t="n">
-        <v>5113.04201353898</v>
+        <v>4943.887948785924</v>
       </c>
       <c r="R29" t="n">
         <v>5113.04201353898</v>
@@ -6539,31 +6539,31 @@
         <v>102.2608402707796</v>
       </c>
       <c r="I30" t="n">
-        <v>102.2608402707796</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J30" t="n">
-        <v>102.2608402707796</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K30" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L30" t="n">
-        <v>1056.803889081883</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M30" t="n">
-        <v>1056.803889081883</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N30" t="n">
-        <v>1056.803889081883</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O30" t="n">
-        <v>1765.500601749588</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P30" t="n">
-        <v>1765.500601749588</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q30" t="n">
-        <v>1765.500601749588</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R30" t="n">
         <v>1765.500601749588</v>
@@ -6597,22 +6597,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>1092.659051657336</v>
+        <v>952.7568773477108</v>
       </c>
       <c r="C31" t="n">
-        <v>920.0973401405612</v>
+        <v>780.1951658309357</v>
       </c>
       <c r="D31" t="n">
-        <v>754.2193473420839</v>
+        <v>614.3171730324584</v>
       </c>
       <c r="E31" t="n">
-        <v>584.4613435928212</v>
+        <v>444.5591692831957</v>
       </c>
       <c r="F31" t="n">
-        <v>407.7542895545774</v>
+        <v>267.852115244952</v>
       </c>
       <c r="G31" t="n">
-        <v>242.1630145804051</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="H31" t="n">
         <v>102.2608402707796</v>
@@ -6645,28 +6645,28 @@
         <v>2718.920450173579</v>
       </c>
       <c r="R31" t="n">
-        <v>2697.502628878951</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="S31" t="n">
-        <v>2697.502628878951</v>
+        <v>2700.681281130895</v>
       </c>
       <c r="T31" t="n">
-        <v>2594.704009018975</v>
+        <v>2454.80183470935</v>
       </c>
       <c r="U31" t="n">
-        <v>2316.271008272081</v>
+        <v>2176.368833962455</v>
       </c>
       <c r="V31" t="n">
-        <v>2029.315500142511</v>
+        <v>1889.413325832886</v>
       </c>
       <c r="W31" t="n">
-        <v>1757.289095728803</v>
+        <v>1617.386921419177</v>
       </c>
       <c r="X31" t="n">
-        <v>1511.897341062215</v>
+        <v>1371.99516675259</v>
       </c>
       <c r="Y31" t="n">
-        <v>1284.477670376323</v>
+        <v>1144.575496066698</v>
       </c>
     </row>
     <row r="32">
@@ -6688,40 +6688,40 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F32" t="n">
-        <v>793.2056155771595</v>
+        <v>793.2056155771597</v>
       </c>
       <c r="G32" t="n">
-        <v>391.8077842004234</v>
+        <v>391.8077842004232</v>
       </c>
       <c r="H32" t="n">
-        <v>102.6776296436396</v>
+        <v>102.6776296436392</v>
       </c>
       <c r="I32" t="n">
         <v>102.2608402707796</v>
       </c>
       <c r="J32" t="n">
-        <v>102.2608402707796</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="K32" t="n">
-        <v>936.6111322289576</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="L32" t="n">
-        <v>2011.671098481817</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="M32" t="n">
-        <v>3168.718933692368</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="N32" t="n">
-        <v>4294.449917128814</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="O32" t="n">
-        <v>5113.042013538981</v>
+        <v>3569.079287993933</v>
       </c>
       <c r="P32" t="n">
-        <v>5113.04201353898</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q32" t="n">
-        <v>5113.04201353898</v>
+        <v>4943.887948785924</v>
       </c>
       <c r="R32" t="n">
         <v>5113.04201353898</v>
@@ -6739,13 +6739,13 @@
         <v>4187.483659846699</v>
       </c>
       <c r="W32" t="n">
-        <v>3782.628205257732</v>
+        <v>3782.628205257733</v>
       </c>
       <c r="X32" t="n">
         <v>3363.485741837043</v>
       </c>
       <c r="Y32" t="n">
-        <v>2955.199618136696</v>
+        <v>2955.199618136697</v>
       </c>
     </row>
     <row r="33">
@@ -6913,25 +6913,25 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2528.900047651789</v>
+        <v>2528.90004765179</v>
       </c>
       <c r="C35" t="n">
-        <v>2090.757574835212</v>
+        <v>2090.757574835213</v>
       </c>
       <c r="D35" t="n">
-        <v>1654.847790009657</v>
+        <v>1654.847790009658</v>
       </c>
       <c r="E35" t="n">
-        <v>1221.073045167952</v>
+        <v>1221.073045167953</v>
       </c>
       <c r="F35" t="n">
-        <v>793.2056155771595</v>
+        <v>793.2056155771606</v>
       </c>
       <c r="G35" t="n">
-        <v>391.8077842004234</v>
+        <v>391.8077842004245</v>
       </c>
       <c r="H35" t="n">
-        <v>102.6776296436396</v>
+        <v>102.6776296436408</v>
       </c>
       <c r="I35" t="n">
         <v>102.2608402707796</v>
@@ -6940,25 +6940,25 @@
         <v>102.2608402707796</v>
       </c>
       <c r="K35" t="n">
-        <v>775.0235620688178</v>
+        <v>936.6111322289576</v>
       </c>
       <c r="L35" t="n">
-        <v>1850.083528321677</v>
+        <v>2011.671098481817</v>
       </c>
       <c r="M35" t="n">
-        <v>3007.131363532228</v>
+        <v>2011.671098481817</v>
       </c>
       <c r="N35" t="n">
-        <v>4132.862346968675</v>
+        <v>2588.899621423628</v>
       </c>
       <c r="O35" t="n">
-        <v>5113.042013538981</v>
+        <v>3569.079287993934</v>
       </c>
       <c r="P35" t="n">
-        <v>5113.042013538981</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q35" t="n">
-        <v>5113.042013538981</v>
+        <v>4943.887948785925</v>
       </c>
       <c r="R35" t="n">
         <v>5113.042013538981</v>
@@ -6967,22 +6967,22 @@
         <v>5029.390139722818</v>
       </c>
       <c r="T35" t="n">
-        <v>4809.322912595856</v>
+        <v>4809.322912595857</v>
       </c>
       <c r="U35" t="n">
-        <v>4550.100609912873</v>
+        <v>4550.100609912874</v>
       </c>
       <c r="V35" t="n">
-        <v>4187.483659846699</v>
+        <v>4187.4836598467</v>
       </c>
       <c r="W35" t="n">
-        <v>3782.628205257732</v>
+        <v>3782.628205257733</v>
       </c>
       <c r="X35" t="n">
-        <v>3363.485741837043</v>
+        <v>3363.485741837044</v>
       </c>
       <c r="Y35" t="n">
-        <v>2955.199618136696</v>
+        <v>2955.199618136698</v>
       </c>
     </row>
     <row r="36">
@@ -7013,31 +7013,31 @@
         <v>102.2608402707796</v>
       </c>
       <c r="I36" t="n">
-        <v>102.2608402707796</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J36" t="n">
-        <v>102.2608402707796</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K36" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L36" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M36" t="n">
-        <v>531.6733301892817</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N36" t="n">
-        <v>1765.500601749588</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O36" t="n">
-        <v>1765.500601749588</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P36" t="n">
-        <v>1765.500601749588</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q36" t="n">
-        <v>1765.500601749588</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R36" t="n">
         <v>1765.500601749588</v>
@@ -7071,25 +7071,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>1092.659051657336</v>
+        <v>949.5782250957668</v>
       </c>
       <c r="C37" t="n">
-        <v>920.0973401405612</v>
+        <v>777.0165135789917</v>
       </c>
       <c r="D37" t="n">
-        <v>754.2193473420839</v>
+        <v>777.0165135789917</v>
       </c>
       <c r="E37" t="n">
-        <v>584.4613435928212</v>
+        <v>607.2585098297291</v>
       </c>
       <c r="F37" t="n">
-        <v>407.7542895545774</v>
+        <v>430.5514557914853</v>
       </c>
       <c r="G37" t="n">
-        <v>242.1630145804051</v>
+        <v>264.960180817313</v>
       </c>
       <c r="H37" t="n">
-        <v>102.2608402707796</v>
+        <v>190.9207894961043</v>
       </c>
       <c r="I37" t="n">
         <v>102.2608402707796</v>
@@ -7119,28 +7119,28 @@
         <v>2718.920450173579</v>
       </c>
       <c r="R37" t="n">
-        <v>2718.920450173579</v>
+        <v>2697.502628878951</v>
       </c>
       <c r="S37" t="n">
-        <v>2718.920450173579</v>
+        <v>2697.502628878951</v>
       </c>
       <c r="T37" t="n">
-        <v>2594.704009018975</v>
+        <v>2451.623182457406</v>
       </c>
       <c r="U37" t="n">
-        <v>2316.271008272081</v>
+        <v>2173.190181710511</v>
       </c>
       <c r="V37" t="n">
-        <v>2029.315500142511</v>
+        <v>1886.234673580942</v>
       </c>
       <c r="W37" t="n">
-        <v>1757.289095728803</v>
+        <v>1614.208269167233</v>
       </c>
       <c r="X37" t="n">
-        <v>1511.897341062215</v>
+        <v>1368.816514500646</v>
       </c>
       <c r="Y37" t="n">
-        <v>1284.477670376323</v>
+        <v>1141.396843814754</v>
       </c>
     </row>
     <row r="38">
@@ -7153,7 +7153,7 @@
         <v>2528.900047651789</v>
       </c>
       <c r="C38" t="n">
-        <v>2090.757574835213</v>
+        <v>2090.757574835212</v>
       </c>
       <c r="D38" t="n">
         <v>1654.847790009657</v>
@@ -7165,10 +7165,10 @@
         <v>793.2056155771597</v>
       </c>
       <c r="G38" t="n">
-        <v>391.8077842004236</v>
+        <v>391.8077842004232</v>
       </c>
       <c r="H38" t="n">
-        <v>102.6776296436397</v>
+        <v>102.6776296436396</v>
       </c>
       <c r="I38" t="n">
         <v>102.2608402707796</v>
@@ -7183,40 +7183,40 @@
         <v>2446.925785934734</v>
       </c>
       <c r="M38" t="n">
-        <v>2612.502369310544</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="N38" t="n">
-        <v>3738.23335274699</v>
+        <v>2588.899621423628</v>
       </c>
       <c r="O38" t="n">
-        <v>3738.23335274699</v>
+        <v>3569.079287993934</v>
       </c>
       <c r="P38" t="n">
-        <v>4566.543227580387</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q38" t="n">
-        <v>5113.042013538981</v>
+        <v>4943.887948785925</v>
       </c>
       <c r="R38" t="n">
         <v>5113.042013538981</v>
       </c>
       <c r="S38" t="n">
-        <v>5029.390139722818</v>
+        <v>5029.390139722817</v>
       </c>
       <c r="T38" t="n">
-        <v>4809.322912595857</v>
+        <v>4809.322912595856</v>
       </c>
       <c r="U38" t="n">
-        <v>4550.100609912874</v>
+        <v>4550.100609912873</v>
       </c>
       <c r="V38" t="n">
-        <v>4187.4836598467</v>
+        <v>4187.483659846699</v>
       </c>
       <c r="W38" t="n">
         <v>3782.628205257733</v>
       </c>
       <c r="X38" t="n">
-        <v>3363.485741837044</v>
+        <v>3363.485741837043</v>
       </c>
       <c r="Y38" t="n">
         <v>2955.199618136697</v>
@@ -7250,31 +7250,31 @@
         <v>102.2608402707796</v>
       </c>
       <c r="I39" t="n">
-        <v>102.2608402707796</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J39" t="n">
-        <v>102.2608402707796</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K39" t="n">
-        <v>782.9943603411569</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L39" t="n">
-        <v>1224.761663117513</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M39" t="n">
-        <v>1224.761663117513</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N39" t="n">
-        <v>1224.761663117513</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O39" t="n">
-        <v>1224.761663117513</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P39" t="n">
-        <v>1224.761663117513</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q39" t="n">
-        <v>1765.500601749588</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R39" t="n">
         <v>1765.500601749588</v>
@@ -7308,19 +7308,19 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>952.7568773477108</v>
+        <v>949.5782250957668</v>
       </c>
       <c r="C40" t="n">
-        <v>780.1951658309357</v>
+        <v>777.0165135789917</v>
       </c>
       <c r="D40" t="n">
-        <v>614.3171730324584</v>
+        <v>611.1385207805145</v>
       </c>
       <c r="E40" t="n">
-        <v>444.5591692831957</v>
+        <v>441.3805170312517</v>
       </c>
       <c r="F40" t="n">
-        <v>267.852115244952</v>
+        <v>264.6734629930079</v>
       </c>
       <c r="G40" t="n">
         <v>102.2608402707796</v>
@@ -7356,28 +7356,28 @@
         <v>2718.920450173579</v>
       </c>
       <c r="R40" t="n">
-        <v>2718.920450173579</v>
+        <v>2697.502628878951</v>
       </c>
       <c r="S40" t="n">
-        <v>2700.681281130895</v>
+        <v>2697.502628878951</v>
       </c>
       <c r="T40" t="n">
-        <v>2454.80183470935</v>
+        <v>2451.623182457406</v>
       </c>
       <c r="U40" t="n">
-        <v>2176.368833962455</v>
+        <v>2173.190181710511</v>
       </c>
       <c r="V40" t="n">
-        <v>1889.413325832886</v>
+        <v>1886.234673580942</v>
       </c>
       <c r="W40" t="n">
-        <v>1617.386921419177</v>
+        <v>1614.208269167233</v>
       </c>
       <c r="X40" t="n">
-        <v>1371.99516675259</v>
+        <v>1368.816514500646</v>
       </c>
       <c r="Y40" t="n">
-        <v>1144.575496066698</v>
+        <v>1141.396843814754</v>
       </c>
     </row>
     <row r="41">
@@ -7387,25 +7387,25 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2528.900047651789</v>
+        <v>2528.90004765179</v>
       </c>
       <c r="C41" t="n">
-        <v>2090.757574835212</v>
+        <v>2090.757574835213</v>
       </c>
       <c r="D41" t="n">
-        <v>1654.847790009657</v>
+        <v>1654.847790009658</v>
       </c>
       <c r="E41" t="n">
-        <v>1221.073045167952</v>
+        <v>1221.073045167953</v>
       </c>
       <c r="F41" t="n">
-        <v>793.2056155771595</v>
+        <v>793.2056155771606</v>
       </c>
       <c r="G41" t="n">
-        <v>391.8077842004234</v>
+        <v>391.8077842004245</v>
       </c>
       <c r="H41" t="n">
-        <v>102.6776296436396</v>
+        <v>102.6776296436408</v>
       </c>
       <c r="I41" t="n">
         <v>102.2608402707796</v>
@@ -7414,49 +7414,49 @@
         <v>537.5155277236975</v>
       </c>
       <c r="K41" t="n">
-        <v>537.5155277236975</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="L41" t="n">
-        <v>1612.575493976557</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="M41" t="n">
-        <v>2769.623329187108</v>
+        <v>2588.899621423628</v>
       </c>
       <c r="N41" t="n">
-        <v>3895.354312623555</v>
+        <v>2588.899621423628</v>
       </c>
       <c r="O41" t="n">
-        <v>3895.354312623555</v>
+        <v>3569.079287993934</v>
       </c>
       <c r="P41" t="n">
         <v>4397.38916282733</v>
       </c>
       <c r="Q41" t="n">
-        <v>4943.887948785924</v>
+        <v>4943.887948785925</v>
       </c>
       <c r="R41" t="n">
-        <v>5113.04201353898</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="S41" t="n">
-        <v>5029.390139722817</v>
+        <v>5029.390139722818</v>
       </c>
       <c r="T41" t="n">
-        <v>4809.322912595856</v>
+        <v>4809.322912595857</v>
       </c>
       <c r="U41" t="n">
-        <v>4550.100609912873</v>
+        <v>4550.100609912874</v>
       </c>
       <c r="V41" t="n">
-        <v>4187.483659846699</v>
+        <v>4187.4836598467</v>
       </c>
       <c r="W41" t="n">
         <v>3782.628205257733</v>
       </c>
       <c r="X41" t="n">
-        <v>3363.485741837043</v>
+        <v>3363.485741837044</v>
       </c>
       <c r="Y41" t="n">
-        <v>2955.199618136697</v>
+        <v>2955.199618136698</v>
       </c>
     </row>
     <row r="42">
@@ -7545,25 +7545,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>952.7568773477108</v>
+        <v>871.6588228237728</v>
       </c>
       <c r="C43" t="n">
-        <v>780.1951658309357</v>
+        <v>699.0971113069977</v>
       </c>
       <c r="D43" t="n">
-        <v>614.3171730324584</v>
+        <v>533.2191185085204</v>
       </c>
       <c r="E43" t="n">
-        <v>444.5591692831957</v>
+        <v>533.2191185085204</v>
       </c>
       <c r="F43" t="n">
-        <v>267.852115244952</v>
+        <v>356.5120644702766</v>
       </c>
       <c r="G43" t="n">
-        <v>102.2608402707796</v>
+        <v>190.9207894961043</v>
       </c>
       <c r="H43" t="n">
-        <v>102.2608402707796</v>
+        <v>190.9207894961043</v>
       </c>
       <c r="I43" t="n">
         <v>102.2608402707796</v>
@@ -7593,28 +7593,28 @@
         <v>2718.920450173579</v>
       </c>
       <c r="R43" t="n">
-        <v>2718.920450173579</v>
+        <v>2697.502628878951</v>
       </c>
       <c r="S43" t="n">
-        <v>2559.679081471576</v>
+        <v>2538.261260176947</v>
       </c>
       <c r="T43" t="n">
-        <v>2454.80183470935</v>
+        <v>2373.703780185412</v>
       </c>
       <c r="U43" t="n">
-        <v>2176.368833962455</v>
+        <v>2095.270779438517</v>
       </c>
       <c r="V43" t="n">
-        <v>1889.413325832886</v>
+        <v>1808.315271308948</v>
       </c>
       <c r="W43" t="n">
-        <v>1617.386921419177</v>
+        <v>1536.288866895239</v>
       </c>
       <c r="X43" t="n">
-        <v>1371.99516675259</v>
+        <v>1290.897112228652</v>
       </c>
       <c r="Y43" t="n">
-        <v>1144.575496066698</v>
+        <v>1063.47744154276</v>
       </c>
     </row>
     <row r="44">
@@ -7630,7 +7630,7 @@
         <v>2090.757574835213</v>
       </c>
       <c r="D44" t="n">
-        <v>1654.847790009657</v>
+        <v>1654.847790009658</v>
       </c>
       <c r="E44" t="n">
         <v>1221.073045167952</v>
@@ -7651,16 +7651,16 @@
         <v>537.5155277236975</v>
       </c>
       <c r="K44" t="n">
-        <v>1286.300469346936</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="L44" t="n">
-        <v>1286.300469346936</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="M44" t="n">
-        <v>2443.348304557487</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="N44" t="n">
-        <v>3569.079287993934</v>
+        <v>2588.899621423628</v>
       </c>
       <c r="O44" t="n">
         <v>3569.079287993934</v>
@@ -7782,25 +7782,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>952.7568773477108</v>
+        <v>970.9960463903949</v>
       </c>
       <c r="C46" t="n">
-        <v>780.1951658309357</v>
+        <v>798.4343348736198</v>
       </c>
       <c r="D46" t="n">
-        <v>614.3171730324584</v>
+        <v>798.4343348736198</v>
       </c>
       <c r="E46" t="n">
-        <v>444.5591692831957</v>
+        <v>628.6763311243571</v>
       </c>
       <c r="F46" t="n">
-        <v>267.852115244952</v>
+        <v>451.9692770861134</v>
       </c>
       <c r="G46" t="n">
-        <v>102.2608402707796</v>
+        <v>286.378002111941</v>
       </c>
       <c r="H46" t="n">
-        <v>102.2608402707796</v>
+        <v>146.4758278023156</v>
       </c>
       <c r="I46" t="n">
         <v>102.2608402707796</v>
@@ -7830,28 +7830,28 @@
         <v>2718.920450173579</v>
       </c>
       <c r="R46" t="n">
-        <v>2697.502628878951</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="S46" t="n">
-        <v>2538.261260176947</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="T46" t="n">
-        <v>2292.381813755403</v>
+        <v>2473.041003752034</v>
       </c>
       <c r="U46" t="n">
-        <v>2013.948813008508</v>
+        <v>2194.608003005139</v>
       </c>
       <c r="V46" t="n">
-        <v>1889.413325832882</v>
+        <v>1907.65249487557</v>
       </c>
       <c r="W46" t="n">
-        <v>1617.386921419173</v>
+        <v>1635.626090461861</v>
       </c>
       <c r="X46" t="n">
-        <v>1371.995166752586</v>
+        <v>1390.234335795274</v>
       </c>
       <c r="Y46" t="n">
-        <v>1144.575496066698</v>
+        <v>1162.814665109382</v>
       </c>
     </row>
   </sheetData>
@@ -7981,10 +7981,10 @@
         <v>424.2958575201043</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>236.2898988798406</v>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -7993,10 +7993,10 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>236.2898988798406</v>
+        <v>0</v>
       </c>
       <c r="Q2" t="n">
         <v>424.2958575201044</v>
@@ -8063,19 +8063,19 @@
         <v>358.9284720888815</v>
       </c>
       <c r="L3" t="n">
+        <v>0</v>
+      </c>
+      <c r="M3" t="n">
+        <v>0</v>
+      </c>
+      <c r="N3" t="n">
+        <v>0</v>
+      </c>
+      <c r="O3" t="n">
+        <v>0</v>
+      </c>
+      <c r="P3" t="n">
         <v>424.2958575201044</v>
-      </c>
-      <c r="M3" t="n">
-        <v>0</v>
-      </c>
-      <c r="N3" t="n">
-        <v>0</v>
-      </c>
-      <c r="O3" t="n">
-        <v>0</v>
-      </c>
-      <c r="P3" t="n">
-        <v>0</v>
       </c>
       <c r="Q3" t="n">
         <v>424.2958575201044</v>
@@ -8136,13 +8136,13 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>407.5401155184051</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M4" t="n">
         <v>424.2958575201043</v>
@@ -8151,13 +8151,13 @@
         <v>424.2958575201044</v>
       </c>
       <c r="O4" t="n">
-        <v>423.9083325512944</v>
+        <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>0</v>
+        <v>151.6683048404234</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>169.8916917821538</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -8215,28 +8215,28 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>0</v>
+        <v>52.9149543347938</v>
       </c>
       <c r="K5" t="n">
-        <v>0</v>
+        <v>630.4048323684636</v>
       </c>
       <c r="L5" t="n">
-        <v>630.404832368463</v>
+        <v>0</v>
       </c>
       <c r="M5" t="n">
-        <v>630.4048323684628</v>
+        <v>0</v>
       </c>
       <c r="N5" t="n">
-        <v>630.4048323684628</v>
+        <v>0</v>
       </c>
       <c r="O5" t="n">
-        <v>604.9339300505458</v>
+        <v>630.4048323684636</v>
       </c>
       <c r="P5" t="n">
-        <v>0</v>
+        <v>630.4048323684638</v>
       </c>
       <c r="Q5" t="n">
-        <v>0</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -8297,28 +8297,28 @@
         <v>327.836691885063</v>
       </c>
       <c r="K6" t="n">
-        <v>65.06686390159854</v>
+        <v>630.4048323684636</v>
       </c>
       <c r="L6" t="n">
         <v>0</v>
       </c>
       <c r="M6" t="n">
-        <v>0</v>
+        <v>30.9144066474189</v>
       </c>
       <c r="N6" t="n">
-        <v>630.404832368463</v>
+        <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>630.4048323684628</v>
+        <v>0</v>
       </c>
       <c r="P6" t="n">
         <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -8373,7 +8373,7 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>87.45422743908067</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>277.5337924960966</v>
@@ -8382,7 +8382,7 @@
         <v>422.4342240080415</v>
       </c>
       <c r="M7" t="n">
-        <v>317.1830304671599</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N7" t="n">
         <v>446.7260637956006</v>
@@ -8391,7 +8391,7 @@
         <v>423.9083325512944</v>
       </c>
       <c r="P7" t="n">
-        <v>351.0170646165068</v>
+        <v>291.5292041581915</v>
       </c>
       <c r="Q7" t="n">
         <v>169.8916917821538</v>
@@ -8452,16 +8452,16 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K8" t="n">
         <v>667.515206607857</v>
       </c>
       <c r="L8" t="n">
-        <v>145.5272350047205</v>
+        <v>667.5152066078568</v>
       </c>
       <c r="M8" t="n">
-        <v>0</v>
+        <v>667.5152066078567</v>
       </c>
       <c r="N8" t="n">
         <v>0</v>
@@ -8470,13 +8470,13 @@
         <v>0</v>
       </c>
       <c r="P8" t="n">
-        <v>667.515206607857</v>
+        <v>0</v>
       </c>
       <c r="Q8" t="n">
         <v>552.0189757157522</v>
       </c>
       <c r="R8" t="n">
-        <v>170.8626916697543</v>
+        <v>88.52591951401018</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -8537,7 +8537,7 @@
         <v>0</v>
       </c>
       <c r="L9" t="n">
-        <v>667.515206607857</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="M9" t="n">
         <v>0</v>
@@ -8552,7 +8552,7 @@
         <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>540.0049805212334</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R9" t="n">
         <v>118.3563415094341</v>
@@ -8698,10 +8698,10 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M11" t="n">
-        <v>143.4079146352447</v>
+        <v>0</v>
       </c>
       <c r="N11" t="n">
-        <v>0</v>
+        <v>314.2706063049986</v>
       </c>
       <c r="O11" t="n">
         <v>990.0804712831379</v>
@@ -8713,7 +8713,7 @@
         <v>552.0189757157522</v>
       </c>
       <c r="R11" t="n">
-        <v>170.8626916697543</v>
+        <v>0</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -8765,34 +8765,34 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>964.1848977889938</v>
+        <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>715.8552653209142</v>
+        <v>0</v>
       </c>
       <c r="N12" t="n">
         <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="P12" t="n">
         <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -8935,16 +8935,16 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M14" t="n">
-        <v>143.4079146352447</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N14" t="n">
-        <v>0</v>
+        <v>801.4298400828725</v>
       </c>
       <c r="O14" t="n">
-        <v>990.0804712831379</v>
+        <v>0</v>
       </c>
       <c r="P14" t="n">
-        <v>836.6766412458549</v>
+        <v>0</v>
       </c>
       <c r="Q14" t="n">
         <v>552.0189757157522</v>
@@ -9008,7 +9008,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
@@ -9023,7 +9023,7 @@
         <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>661.3192390158824</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
         <v>546.2009481132077</v>
@@ -9172,10 +9172,10 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M17" t="n">
-        <v>0</v>
+        <v>314.2706063049986</v>
       </c>
       <c r="N17" t="n">
-        <v>143.4079146352447</v>
+        <v>0</v>
       </c>
       <c r="O17" t="n">
         <v>990.0804712831379</v>
@@ -9187,7 +9187,7 @@
         <v>552.0189757157522</v>
       </c>
       <c r="R17" t="n">
-        <v>170.8626916697543</v>
+        <v>0</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -9245,7 +9245,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L18" t="n">
         <v>0</v>
@@ -9260,7 +9260,7 @@
         <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>661.3192390158824</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
         <v>546.2009481132077</v>
@@ -9400,31 +9400,31 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K20" t="n">
-        <v>679.5583048465023</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L20" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M20" t="n">
-        <v>1168.735187081365</v>
+        <v>143.4079146352456</v>
       </c>
       <c r="N20" t="n">
-        <v>1137.102003471159</v>
+        <v>0</v>
       </c>
       <c r="O20" t="n">
         <v>990.0804712831379</v>
       </c>
       <c r="P20" t="n">
-        <v>0</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q20" t="n">
-        <v>0</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R20" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -9476,13 +9476,13 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L21" t="n">
         <v>0</v>
@@ -9491,19 +9491,19 @@
         <v>0</v>
       </c>
       <c r="N21" t="n">
-        <v>655.9981329904112</v>
+        <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>1024.042030119497</v>
+        <v>0</v>
       </c>
       <c r="P21" t="n">
         <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9643,13 +9643,13 @@
         <v>842.7780726850283</v>
       </c>
       <c r="L23" t="n">
-        <v>0</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M23" t="n">
-        <v>92.22506899525706</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="N23" t="n">
-        <v>1137.102003471159</v>
+        <v>0</v>
       </c>
       <c r="O23" t="n">
         <v>990.0804712831379</v>
@@ -9713,13 +9713,13 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K24" t="n">
-        <v>305.8360165328637</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L24" t="n">
         <v>0</v>
@@ -9734,13 +9734,13 @@
         <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>828.0031984638366</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
         <v>546.2009481132077</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9880,13 +9880,13 @@
         <v>842.7780726850283</v>
       </c>
       <c r="L26" t="n">
-        <v>0</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M26" t="n">
-        <v>92.22506899525706</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="N26" t="n">
-        <v>1137.102003471159</v>
+        <v>0</v>
       </c>
       <c r="O26" t="n">
         <v>990.0804712831379</v>
@@ -10111,7 +10111,7 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K29" t="n">
         <v>842.7780726850283</v>
@@ -10120,13 +10120,13 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M29" t="n">
-        <v>1168.735187081365</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="N29" t="n">
         <v>0</v>
       </c>
       <c r="O29" t="n">
-        <v>575.2670899541636</v>
+        <v>990.0804712831379</v>
       </c>
       <c r="P29" t="n">
         <v>836.6766412458549</v>
@@ -10135,7 +10135,7 @@
         <v>552.0189757157522</v>
       </c>
       <c r="R29" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10187,16 +10187,16 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L30" t="n">
-        <v>964.1848977889938</v>
+        <v>0</v>
       </c>
       <c r="M30" t="n">
         <v>0</v>
@@ -10205,16 +10205,16 @@
         <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>715.8552653209142</v>
+        <v>0</v>
       </c>
       <c r="P30" t="n">
         <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10348,7 +10348,7 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K32" t="n">
         <v>842.7780726850283</v>
@@ -10357,22 +10357,22 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M32" t="n">
-        <v>1168.735187081365</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="N32" t="n">
-        <v>1137.102003471159</v>
+        <v>0</v>
       </c>
       <c r="O32" t="n">
-        <v>826.8607034446131</v>
+        <v>990.0804712831379</v>
       </c>
       <c r="P32" t="n">
-        <v>0</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q32" t="n">
-        <v>0</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R32" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10588,28 +10588,28 @@
         <v>0</v>
       </c>
       <c r="K35" t="n">
-        <v>679.5583048465032</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L35" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M35" t="n">
-        <v>1168.735187081365</v>
+        <v>0</v>
       </c>
       <c r="N35" t="n">
-        <v>1137.102003471159</v>
+        <v>583.0591140826373</v>
       </c>
       <c r="O35" t="n">
         <v>990.0804712831379</v>
       </c>
       <c r="P35" t="n">
-        <v>0</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q35" t="n">
-        <v>0</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R35" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10661,22 +10661,22 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L36" t="n">
         <v>0</v>
       </c>
       <c r="M36" t="n">
-        <v>433.7499898166688</v>
+        <v>0</v>
       </c>
       <c r="N36" t="n">
-        <v>1246.290173293239</v>
+        <v>0</v>
       </c>
       <c r="O36" t="n">
         <v>0</v>
@@ -10685,10 +10685,10 @@
         <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10831,13 +10831,13 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M38" t="n">
-        <v>167.2490741169786</v>
+        <v>0</v>
       </c>
       <c r="N38" t="n">
-        <v>1137.102003471159</v>
+        <v>143.4079146352456</v>
       </c>
       <c r="O38" t="n">
-        <v>0</v>
+        <v>990.0804712831379</v>
       </c>
       <c r="P38" t="n">
         <v>836.6766412458549</v>
@@ -10846,7 +10846,7 @@
         <v>552.0189757157522</v>
       </c>
       <c r="R38" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -10898,16 +10898,16 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K39" t="n">
-        <v>687.6096162327044</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L39" t="n">
-        <v>446.2295987639959</v>
+        <v>0</v>
       </c>
       <c r="M39" t="n">
         <v>0</v>
@@ -10925,7 +10925,7 @@
         <v>546.2009481132077</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -11062,22 +11062,22 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K41" t="n">
-        <v>0</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L41" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M41" t="n">
-        <v>1168.735187081365</v>
+        <v>143.4079146352456</v>
       </c>
       <c r="N41" t="n">
-        <v>1137.102003471159</v>
+        <v>0</v>
       </c>
       <c r="O41" t="n">
-        <v>0</v>
+        <v>990.0804712831379</v>
       </c>
       <c r="P41" t="n">
-        <v>507.1059092967421</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q41" t="n">
         <v>552.0189757157522</v>
@@ -11299,19 +11299,19 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K44" t="n">
-        <v>756.3484258820594</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L44" t="n">
-        <v>0</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M44" t="n">
-        <v>1168.735187081365</v>
+        <v>0</v>
       </c>
       <c r="N44" t="n">
-        <v>1137.102003471159</v>
+        <v>143.4079146352456</v>
       </c>
       <c r="O44" t="n">
-        <v>0</v>
+        <v>990.0804712831379</v>
       </c>
       <c r="P44" t="n">
         <v>836.6766412458549</v>
@@ -23430,7 +23430,7 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>139.5921776627262</v>
       </c>
       <c r="H13" t="n">
         <v>138.5031525665292</v>
@@ -23466,7 +23466,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S13" t="n">
-        <v>139.5921776627258</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
@@ -23664,16 +23664,16 @@
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>103.1553467313941</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23709,10 +23709,10 @@
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>90.22000922290115</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
@@ -23937,10 +23937,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>139.5921776627258</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -23955,7 +23955,7 @@
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>160.7958207444079</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -24129,7 +24129,7 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
@@ -24147,7 +24147,7 @@
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24177,10 +24177,10 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>141.6500182959535</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
@@ -24189,7 +24189,7 @@
         <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>216.2362286424012</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
@@ -24363,10 +24363,10 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>1.028263932668153</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
@@ -24375,16 +24375,16 @@
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24414,7 +24414,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S25" t="n">
-        <v>139.5921776627258</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
@@ -24618,10 +24618,10 @@
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24651,7 +24651,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S28" t="n">
-        <v>157.6489550149833</v>
+        <v>139.5921776627258</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
@@ -24666,7 +24666,7 @@
         <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>208.2197249473434</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
         <v>0</v>
@@ -24855,7 +24855,7 @@
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I31" t="n">
         <v>87.77334973307141</v>
@@ -24885,13 +24885,13 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S31" t="n">
-        <v>157.6489550149833</v>
+        <v>139.5921776627258</v>
       </c>
       <c r="T31" t="n">
-        <v>141.6500182959535</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
@@ -25317,7 +25317,7 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E37" t="n">
         <v>0</v>
@@ -25329,10 +25329,10 @@
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>65.20415515853266</v>
       </c>
       <c r="I37" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25359,13 +25359,13 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
         <v>157.6489550149833</v>
       </c>
       <c r="T37" t="n">
-        <v>120.4463752142717</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
@@ -25563,7 +25563,7 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>3.146865729424633</v>
       </c>
       <c r="H40" t="n">
         <v>138.5031525665292</v>
@@ -25596,10 +25596,10 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>139.5921776627258</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
@@ -25794,7 +25794,7 @@
         <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F43" t="n">
         <v>0</v>
@@ -25806,7 +25806,7 @@
         <v>138.5031525665292</v>
       </c>
       <c r="I43" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25833,13 +25833,13 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>139.5921776627258</v>
+        <v>80.50874676570893</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
@@ -26028,7 +26028,7 @@
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E46" t="n">
         <v>0</v>
@@ -26040,10 +26040,10 @@
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>87.77334973307141</v>
+        <v>44.00051207685084</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26070,10 +26070,10 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
@@ -26082,7 +26082,7 @@
         <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>160.7958207444038</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
         <v>0</v>
@@ -26133,7 +26133,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>467059.1399072781</v>
+        <v>467059.1399072782</v>
       </c>
     </row>
     <row r="4">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>474974.1264524457</v>
+        <v>474974.1264524458</v>
       </c>
     </row>
     <row r="7">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>474974.1264524457</v>
+        <v>474974.1264524458</v>
       </c>
     </row>
     <row r="14">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>474974.1264524458</v>
+        <v>474974.1264524459</v>
       </c>
     </row>
     <row r="16">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>474974.1264524459</v>
+        <v>474974.1264524457</v>
       </c>
     </row>
   </sheetData>
@@ -26313,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>495936.2708986277</v>
+        <v>495936.2708986278</v>
       </c>
       <c r="C2" t="n">
-        <v>495936.2708986277</v>
+        <v>495936.2708986276</v>
       </c>
       <c r="D2" t="n">
-        <v>495936.2708986277</v>
+        <v>495936.2708986276</v>
       </c>
       <c r="E2" t="n">
-        <v>487343.2653270507</v>
+        <v>487343.2653270509</v>
       </c>
       <c r="F2" t="n">
+        <v>487343.2653270506</v>
+      </c>
+      <c r="G2" t="n">
         <v>487343.2653270508</v>
-      </c>
-      <c r="G2" t="n">
-        <v>487343.2653270507</v>
       </c>
       <c r="H2" t="n">
         <v>487343.2653270508</v>
       </c>
       <c r="I2" t="n">
+        <v>487343.2653270506</v>
+      </c>
+      <c r="J2" t="n">
         <v>487343.2653270507</v>
       </c>
-      <c r="J2" t="n">
-        <v>487343.2653270506</v>
-      </c>
       <c r="K2" t="n">
-        <v>487343.2653270508</v>
+        <v>487343.2653270507</v>
       </c>
       <c r="L2" t="n">
         <v>487343.2653270507</v>
       </c>
       <c r="M2" t="n">
+        <v>487343.2653270509</v>
+      </c>
+      <c r="N2" t="n">
         <v>487343.2653270507</v>
-      </c>
-      <c r="N2" t="n">
-        <v>487343.2653270508</v>
       </c>
       <c r="O2" t="n">
         <v>487343.2653270508</v>
       </c>
       <c r="P2" t="n">
-        <v>487343.2653270509</v>
+        <v>487343.2653270508</v>
       </c>
     </row>
     <row r="3">
@@ -26368,10 +26368,10 @@
         <v>142191.3006597099</v>
       </c>
       <c r="C3" t="n">
-        <v>66587.76789501598</v>
+        <v>66587.76789501621</v>
       </c>
       <c r="D3" t="n">
-        <v>11527.59554998296</v>
+        <v>11527.59554998273</v>
       </c>
       <c r="E3" t="n">
         <v>182355.1092210497</v>
@@ -26389,13 +26389,13 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>111014.4653449903</v>
+        <v>111014.4653449902</v>
       </c>
       <c r="K3" t="n">
-        <v>53045.85463877236</v>
+        <v>53045.85463877254</v>
       </c>
       <c r="L3" t="n">
-        <v>9392.301726622465</v>
+        <v>9392.301726622285</v>
       </c>
       <c r="M3" t="n">
         <v>152200.1709379876</v>
@@ -26420,28 +26420,28 @@
         <v>187564.5330558133</v>
       </c>
       <c r="C4" t="n">
-        <v>146735.1647947852</v>
+        <v>146735.164794785</v>
       </c>
       <c r="D4" t="n">
         <v>139383.7472389045</v>
       </c>
       <c r="E4" t="n">
-        <v>41122.95192991272</v>
+        <v>41122.95192991271</v>
       </c>
       <c r="F4" t="n">
-        <v>41122.95192991272</v>
+        <v>41122.95192991271</v>
       </c>
       <c r="G4" t="n">
-        <v>41122.95192991272</v>
+        <v>41122.95192991271</v>
       </c>
       <c r="H4" t="n">
+        <v>41122.95192991268</v>
+      </c>
+      <c r="I4" t="n">
         <v>41122.95192991271</v>
       </c>
-      <c r="I4" t="n">
-        <v>41122.95192991272</v>
-      </c>
       <c r="J4" t="n">
-        <v>41122.95192991272</v>
+        <v>41122.95192991271</v>
       </c>
       <c r="K4" t="n">
         <v>41122.95192991271</v>
@@ -26450,16 +26450,16 @@
         <v>41122.95192991271</v>
       </c>
       <c r="M4" t="n">
-        <v>41122.95192991268</v>
+        <v>41122.95192991272</v>
       </c>
       <c r="N4" t="n">
-        <v>41122.95192991268</v>
+        <v>41122.95192991272</v>
       </c>
       <c r="O4" t="n">
-        <v>41122.95192991271</v>
+        <v>41122.95192991272</v>
       </c>
       <c r="P4" t="n">
-        <v>41122.95192991271</v>
+        <v>41122.95192991266</v>
       </c>
     </row>
     <row r="5">
@@ -26472,7 +26472,7 @@
         <v>59424.78813722234</v>
       </c>
       <c r="C5" t="n">
-        <v>71956.21380800255</v>
+        <v>71956.21380800259</v>
       </c>
       <c r="D5" t="n">
         <v>74212.5245617577</v>
@@ -26487,10 +26487,10 @@
         <v>77718.2386057925</v>
       </c>
       <c r="H5" t="n">
-        <v>77718.2386057925</v>
+        <v>77718.23860579252</v>
       </c>
       <c r="I5" t="n">
-        <v>77718.2386057925</v>
+        <v>77718.23860579252</v>
       </c>
       <c r="J5" t="n">
         <v>77718.23860579252</v>
@@ -26524,46 +26524,46 @@
         <v>106755.6490458822</v>
       </c>
       <c r="C6" t="n">
-        <v>210657.124400824</v>
+        <v>210657.1244008238</v>
       </c>
       <c r="D6" t="n">
-        <v>270812.4035479826</v>
+        <v>270812.4035479827</v>
       </c>
       <c r="E6" t="n">
-        <v>186146.9655702958</v>
+        <v>186123.7412309132</v>
       </c>
       <c r="F6" t="n">
-        <v>368502.0747913456</v>
+        <v>368478.8504519627</v>
       </c>
       <c r="G6" t="n">
-        <v>368502.0747913455</v>
+        <v>368478.8504519628</v>
       </c>
       <c r="H6" t="n">
-        <v>368502.0747913455</v>
+        <v>368478.8504519629</v>
       </c>
       <c r="I6" t="n">
-        <v>368502.0747913455</v>
+        <v>368478.8504519627</v>
       </c>
       <c r="J6" t="n">
-        <v>257487.6094463551</v>
+        <v>257464.3851069726</v>
       </c>
       <c r="K6" t="n">
-        <v>315456.2201525732</v>
+        <v>315432.9958131902</v>
       </c>
       <c r="L6" t="n">
-        <v>359109.773064723</v>
+        <v>359086.5487253405</v>
       </c>
       <c r="M6" t="n">
-        <v>216301.9038533579</v>
+        <v>216278.6795139754</v>
       </c>
       <c r="N6" t="n">
-        <v>368502.0747913456</v>
+        <v>368478.8504519628</v>
       </c>
       <c r="O6" t="n">
-        <v>368502.0747913456</v>
+        <v>368478.8504519629</v>
       </c>
       <c r="P6" t="n">
-        <v>368502.0747913456</v>
+        <v>368478.8504519629</v>
       </c>
     </row>
   </sheetData>
@@ -26792,7 +26792,7 @@
         <v>424.2958575201043</v>
       </c>
       <c r="C4" t="n">
-        <v>630.404832368463</v>
+        <v>630.4048323684636</v>
       </c>
       <c r="D4" t="n">
         <v>667.515206607857</v>
@@ -27014,10 +27014,10 @@
         <v>424.2958575201043</v>
       </c>
       <c r="C4" t="n">
-        <v>206.1089748483586</v>
+        <v>206.1089748483593</v>
       </c>
       <c r="D4" t="n">
-        <v>37.11037423939399</v>
+        <v>37.11037423939328</v>
       </c>
       <c r="E4" t="n">
         <v>610.7452967768882</v>
@@ -27035,13 +27035,13 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>424.2958575201046</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="K4" t="n">
-        <v>206.1089748483586</v>
+        <v>206.1089748483593</v>
       </c>
       <c r="L4" t="n">
-        <v>37.11037423939399</v>
+        <v>37.11037423939328</v>
       </c>
       <c r="M4" t="n">
         <v>610.7452967768882</v>
@@ -27260,10 +27260,10 @@
         <v>424.2958575201043</v>
       </c>
       <c r="K4" t="n">
-        <v>206.1089748483586</v>
+        <v>206.1089748483593</v>
       </c>
       <c r="L4" t="n">
-        <v>37.11037423939399</v>
+        <v>37.11037423939328</v>
       </c>
       <c r="M4" t="n">
         <v>610.7452967768882</v>
@@ -27378,7 +27378,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>113.7278999628232</v>
+        <v>400</v>
       </c>
       <c r="C2" t="n">
         <v>400</v>
@@ -27387,16 +27387,16 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>400</v>
+        <v>5.14113987318342</v>
       </c>
       <c r="F2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
         <v>397.3838530629687</v>
       </c>
       <c r="H2" t="n">
-        <v>286.2388530112159</v>
+        <v>210.4464733225209</v>
       </c>
       <c r="I2" t="n">
         <v>0.4126214791313976</v>
@@ -27435,19 +27435,19 @@
         <v>217.8665548556918</v>
       </c>
       <c r="U2" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
     </row>
     <row r="3">
@@ -27536,7 +27536,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27548,16 +27548,16 @@
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27584,7 +27584,7 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
@@ -27593,19 +27593,19 @@
         <v>243.4206519573293</v>
       </c>
       <c r="U4" t="n">
-        <v>275.6486707394257</v>
+        <v>180.4784095880157</v>
       </c>
       <c r="V4" t="n">
-        <v>284.0859530482738</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
         <v>269.3061403695714</v>
       </c>
       <c r="X4" t="n">
-        <v>242.9378371199217</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>15.5587197492369</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -27615,10 +27615,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>230.1629605266687</v>
       </c>
       <c r="D5" t="n">
         <v>400</v>
@@ -27630,7 +27630,7 @@
         <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H5" t="n">
         <v>286.2388530112159</v>
@@ -27666,16 +27666,16 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
@@ -27684,7 +27684,7 @@
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>111.2440434342822</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -27788,13 +27788,13 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27833,16 +27833,16 @@
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>140.878398868215</v>
       </c>
       <c r="W7" t="n">
-        <v>269.3061403695714</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>242.9378371199217</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>18.84628590275585</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -27852,28 +27852,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>86.5576416575629</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H8" t="n">
         <v>286.2388530112159</v>
       </c>
       <c r="I8" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27903,25 +27903,25 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
+        <v>0</v>
+      </c>
+      <c r="X8" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y8" t="n">
         <v>400</v>
-      </c>
-      <c r="X8" t="n">
-        <v>400</v>
-      </c>
-      <c r="Y8" t="n">
-        <v>367.2261030860415</v>
       </c>
     </row>
     <row r="9">
@@ -28010,7 +28010,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>117.766182674437</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
@@ -28025,13 +28025,13 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>160.7958207444076</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28073,7 +28073,7 @@
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>269.3061403695714</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
@@ -28851,7 +28851,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>-6.526794458855493e-13</v>
       </c>
       <c r="T20" t="n">
         <v>0</v>
@@ -30705,7 +30705,7 @@
         <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>0</v>
+        <v>-8.800531213287814e-13</v>
       </c>
       <c r="F44" t="n">
         <v>0</v>
@@ -34701,10 +34701,10 @@
         <v>424.2958575201043</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>236.2898988798406</v>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -34713,10 +34713,10 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>236.2898988798406</v>
+        <v>0</v>
       </c>
       <c r="Q2" t="n">
         <v>424.2958575201044</v>
@@ -34783,19 +34783,19 @@
         <v>358.9284720888815</v>
       </c>
       <c r="L3" t="n">
+        <v>0</v>
+      </c>
+      <c r="M3" t="n">
+        <v>0</v>
+      </c>
+      <c r="N3" t="n">
+        <v>0</v>
+      </c>
+      <c r="O3" t="n">
+        <v>0</v>
+      </c>
+      <c r="P3" t="n">
         <v>424.2958575201044</v>
-      </c>
-      <c r="M3" t="n">
-        <v>0</v>
-      </c>
-      <c r="N3" t="n">
-        <v>0</v>
-      </c>
-      <c r="O3" t="n">
-        <v>0</v>
-      </c>
-      <c r="P3" t="n">
-        <v>0</v>
       </c>
       <c r="Q3" t="n">
         <v>424.2958575201044</v>
@@ -34856,13 +34856,13 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>407.5401155184051</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M4" t="n">
         <v>424.2958575201043</v>
@@ -34871,13 +34871,13 @@
         <v>424.2958575201044</v>
       </c>
       <c r="O4" t="n">
-        <v>423.9083325512943</v>
+        <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>0</v>
+        <v>151.6683048404234</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>169.8916917821539</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34935,28 +34935,28 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>0</v>
+        <v>52.9149543347938</v>
       </c>
       <c r="K5" t="n">
-        <v>0</v>
+        <v>630.4048323684636</v>
       </c>
       <c r="L5" t="n">
-        <v>630.404832368463</v>
+        <v>0</v>
       </c>
       <c r="M5" t="n">
-        <v>630.4048323684628</v>
+        <v>0</v>
       </c>
       <c r="N5" t="n">
-        <v>630.4048323684628</v>
+        <v>0</v>
       </c>
       <c r="O5" t="n">
-        <v>604.9339300505458</v>
+        <v>630.4048323684636</v>
       </c>
       <c r="P5" t="n">
-        <v>0</v>
+        <v>630.4048323684638</v>
       </c>
       <c r="Q5" t="n">
-        <v>0</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -35011,34 +35011,34 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>26.32694258632081</v>
+        <v>26.3269425863208</v>
       </c>
       <c r="J6" t="n">
         <v>327.836691885063</v>
       </c>
       <c r="K6" t="n">
-        <v>65.06686390159854</v>
+        <v>630.4048323684636</v>
       </c>
       <c r="L6" t="n">
         <v>0</v>
       </c>
       <c r="M6" t="n">
-        <v>0</v>
+        <v>30.9144066474189</v>
       </c>
       <c r="N6" t="n">
-        <v>630.404832368463</v>
+        <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>630.4048323684628</v>
+        <v>0</v>
       </c>
       <c r="P6" t="n">
         <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -35093,16 +35093,16 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>87.45422743908067</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>277.5337924960966</v>
       </c>
       <c r="L7" t="n">
-        <v>422.4342240080415</v>
+        <v>422.4342240080414</v>
       </c>
       <c r="M7" t="n">
-        <v>317.1830304671599</v>
+        <v>464.1251183645586</v>
       </c>
       <c r="N7" t="n">
         <v>446.7260637956006</v>
@@ -35111,7 +35111,7 @@
         <v>423.9083325512945</v>
       </c>
       <c r="P7" t="n">
-        <v>351.0170646165068</v>
+        <v>291.5292041581915</v>
       </c>
       <c r="Q7" t="n">
         <v>169.8916917821539</v>
@@ -35172,16 +35172,16 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K8" t="n">
         <v>667.515206607857</v>
       </c>
       <c r="L8" t="n">
-        <v>145.5272350047205</v>
+        <v>667.5152066078568</v>
       </c>
       <c r="M8" t="n">
-        <v>0</v>
+        <v>667.5152066078567</v>
       </c>
       <c r="N8" t="n">
         <v>0</v>
@@ -35190,13 +35190,13 @@
         <v>0</v>
       </c>
       <c r="P8" t="n">
-        <v>667.515206607857</v>
+        <v>0</v>
       </c>
       <c r="Q8" t="n">
         <v>552.0189757157523</v>
       </c>
       <c r="R8" t="n">
-        <v>170.8626916697544</v>
+        <v>88.52591951401018</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35257,7 +35257,7 @@
         <v>0</v>
       </c>
       <c r="L9" t="n">
-        <v>667.515206607857</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="M9" t="n">
         <v>0</v>
@@ -35272,7 +35272,7 @@
         <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>540.0049805212334</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R9" t="n">
         <v>118.3563415094341</v>
@@ -35418,10 +35418,10 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M11" t="n">
-        <v>143.4079146352447</v>
+        <v>0</v>
       </c>
       <c r="N11" t="n">
-        <v>0</v>
+        <v>314.2706063049986</v>
       </c>
       <c r="O11" t="n">
         <v>990.0804712831377</v>
@@ -35433,7 +35433,7 @@
         <v>552.0189757157523</v>
       </c>
       <c r="R11" t="n">
-        <v>170.862691669754</v>
+        <v>0</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35485,34 +35485,34 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>26.3269425863208</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>964.1848977889938</v>
+        <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>715.8552653209142</v>
+        <v>0</v>
       </c>
       <c r="N12" t="n">
         <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="P12" t="n">
         <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35655,16 +35655,16 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M14" t="n">
-        <v>143.4079146352447</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N14" t="n">
-        <v>0</v>
+        <v>801.4298400828725</v>
       </c>
       <c r="O14" t="n">
-        <v>990.0804712831377</v>
+        <v>0</v>
       </c>
       <c r="P14" t="n">
-        <v>836.6766412458546</v>
+        <v>0</v>
       </c>
       <c r="Q14" t="n">
         <v>552.0189757157523</v>
@@ -35728,7 +35728,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
@@ -35743,7 +35743,7 @@
         <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>661.3192390158824</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
         <v>546.2009481132077</v>
@@ -35892,10 +35892,10 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M17" t="n">
-        <v>0</v>
+        <v>314.2706063049986</v>
       </c>
       <c r="N17" t="n">
-        <v>143.4079146352447</v>
+        <v>0</v>
       </c>
       <c r="O17" t="n">
         <v>990.0804712831377</v>
@@ -35907,7 +35907,7 @@
         <v>552.0189757157523</v>
       </c>
       <c r="R17" t="n">
-        <v>170.862691669754</v>
+        <v>0</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35965,7 +35965,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L18" t="n">
         <v>0</v>
@@ -35980,7 +35980,7 @@
         <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>661.3192390158824</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
         <v>546.2009481132077</v>
@@ -36120,31 +36120,31 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K20" t="n">
-        <v>679.5583048465023</v>
+        <v>842.7780726850282</v>
       </c>
       <c r="L20" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M20" t="n">
-        <v>1168.735187081365</v>
+        <v>143.4079146352456</v>
       </c>
       <c r="N20" t="n">
-        <v>1137.102003471159</v>
+        <v>0</v>
       </c>
       <c r="O20" t="n">
         <v>990.0804712831377</v>
       </c>
       <c r="P20" t="n">
-        <v>0</v>
+        <v>836.6766412458546</v>
       </c>
       <c r="Q20" t="n">
-        <v>0</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R20" t="n">
-        <v>0</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36196,13 +36196,13 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L21" t="n">
         <v>0</v>
@@ -36211,19 +36211,19 @@
         <v>0</v>
       </c>
       <c r="N21" t="n">
-        <v>655.9981329904112</v>
+        <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>1024.042030119497</v>
+        <v>0</v>
       </c>
       <c r="P21" t="n">
         <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36278,7 +36278,7 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>87.45422743908065</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K22" t="n">
         <v>277.5337924960966</v>
@@ -36363,13 +36363,13 @@
         <v>842.7780726850282</v>
       </c>
       <c r="L23" t="n">
-        <v>0</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M23" t="n">
-        <v>92.22506899525706</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="N23" t="n">
-        <v>1137.102003471159</v>
+        <v>0</v>
       </c>
       <c r="O23" t="n">
         <v>990.0804712831377</v>
@@ -36433,13 +36433,13 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K24" t="n">
-        <v>305.8360165328637</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L24" t="n">
         <v>0</v>
@@ -36454,13 +36454,13 @@
         <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>828.0031984638366</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
         <v>546.2009481132077</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36515,7 +36515,7 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>87.45422743908065</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K25" t="n">
         <v>277.5337924960966</v>
@@ -36600,13 +36600,13 @@
         <v>842.7780726850282</v>
       </c>
       <c r="L26" t="n">
-        <v>0</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M26" t="n">
-        <v>92.22506899525706</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="N26" t="n">
-        <v>1137.102003471159</v>
+        <v>0</v>
       </c>
       <c r="O26" t="n">
         <v>990.0804712831377</v>
@@ -36670,10 +36670,10 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>26.32694258632091</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J27" t="n">
-        <v>327.8366918850629</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K27" t="n">
         <v>661.3192390158824</v>
@@ -36694,7 +36694,7 @@
         <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>546.2009481132072</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R27" t="n">
         <v>118.3563415094341</v>
@@ -36831,22 +36831,22 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K29" t="n">
-        <v>842.7780726850283</v>
+        <v>842.7780726850282</v>
       </c>
       <c r="L29" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M29" t="n">
-        <v>1168.735187081365</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="N29" t="n">
         <v>0</v>
       </c>
       <c r="O29" t="n">
-        <v>575.2670899541636</v>
+        <v>990.0804712831377</v>
       </c>
       <c r="P29" t="n">
         <v>836.6766412458546</v>
@@ -36855,7 +36855,7 @@
         <v>552.0189757157523</v>
       </c>
       <c r="R29" t="n">
-        <v>0</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36907,16 +36907,16 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L30" t="n">
-        <v>964.1848977889938</v>
+        <v>0</v>
       </c>
       <c r="M30" t="n">
         <v>0</v>
@@ -36925,16 +36925,16 @@
         <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>715.8552653209142</v>
+        <v>0</v>
       </c>
       <c r="P30" t="n">
         <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -37068,31 +37068,31 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K32" t="n">
-        <v>842.7780726850283</v>
+        <v>842.7780726850282</v>
       </c>
       <c r="L32" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M32" t="n">
-        <v>1168.735187081365</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="N32" t="n">
-        <v>1137.102003471158</v>
+        <v>0</v>
       </c>
       <c r="O32" t="n">
-        <v>826.8607034446131</v>
+        <v>990.0804712831377</v>
       </c>
       <c r="P32" t="n">
-        <v>0</v>
+        <v>836.6766412458546</v>
       </c>
       <c r="Q32" t="n">
-        <v>0</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R32" t="n">
-        <v>0</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37308,28 +37308,28 @@
         <v>0</v>
       </c>
       <c r="K35" t="n">
-        <v>679.5583048465032</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L35" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M35" t="n">
-        <v>1168.735187081365</v>
+        <v>0</v>
       </c>
       <c r="N35" t="n">
-        <v>1137.102003471159</v>
+        <v>583.0591140826373</v>
       </c>
       <c r="O35" t="n">
         <v>990.0804712831377</v>
       </c>
       <c r="P35" t="n">
-        <v>0</v>
+        <v>836.6766412458546</v>
       </c>
       <c r="Q35" t="n">
-        <v>0</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R35" t="n">
-        <v>0</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37381,22 +37381,22 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L36" t="n">
         <v>0</v>
       </c>
       <c r="M36" t="n">
-        <v>433.7499898166688</v>
+        <v>0</v>
       </c>
       <c r="N36" t="n">
-        <v>1246.290173293239</v>
+        <v>0</v>
       </c>
       <c r="O36" t="n">
         <v>0</v>
@@ -37405,10 +37405,10 @@
         <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37551,13 +37551,13 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M38" t="n">
-        <v>167.2490741169786</v>
+        <v>0</v>
       </c>
       <c r="N38" t="n">
-        <v>1137.102003471159</v>
+        <v>143.4079146352456</v>
       </c>
       <c r="O38" t="n">
-        <v>0</v>
+        <v>990.0804712831377</v>
       </c>
       <c r="P38" t="n">
         <v>836.6766412458546</v>
@@ -37566,7 +37566,7 @@
         <v>552.0189757157523</v>
       </c>
       <c r="R38" t="n">
-        <v>0</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37618,16 +37618,16 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K39" t="n">
-        <v>687.6096162327044</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L39" t="n">
-        <v>446.2295987639959</v>
+        <v>0</v>
       </c>
       <c r="M39" t="n">
         <v>0</v>
@@ -37645,7 +37645,7 @@
         <v>546.2009481132077</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37782,22 +37782,22 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K41" t="n">
-        <v>0</v>
+        <v>842.7780726850282</v>
       </c>
       <c r="L41" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M41" t="n">
-        <v>1168.735187081364</v>
+        <v>143.4079146352456</v>
       </c>
       <c r="N41" t="n">
-        <v>1137.102003471159</v>
+        <v>0</v>
       </c>
       <c r="O41" t="n">
-        <v>0</v>
+        <v>990.0804712831377</v>
       </c>
       <c r="P41" t="n">
-        <v>507.1059092967421</v>
+        <v>836.6766412458546</v>
       </c>
       <c r="Q41" t="n">
         <v>552.0189757157523</v>
@@ -38019,19 +38019,19 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K44" t="n">
-        <v>756.3484258820594</v>
+        <v>842.7780726850282</v>
       </c>
       <c r="L44" t="n">
-        <v>0</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M44" t="n">
-        <v>1168.735187081365</v>
+        <v>0</v>
       </c>
       <c r="N44" t="n">
-        <v>1137.102003471159</v>
+        <v>143.4079146352456</v>
       </c>
       <c r="O44" t="n">
-        <v>0</v>
+        <v>990.0804712831377</v>
       </c>
       <c r="P44" t="n">
         <v>836.6766412458546</v>
